--- a/NEW Templates/NEW Template_Produits_AGEC_Crystalchain_v3.xlsx
+++ b/NEW Templates/NEW Template_Produits_AGEC_Crystalchain_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathias/Crystalchain Dropbox/Equipe/Projets/PRIME/AGEC/40 - Clients/Monoprix/Batch Fournisseurs/NEW Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Drive partagés\7 - Projects\Trace\PRIME\AGEC\40 - Clients\Monoprix\Batch Fournisseurs\NEW Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2546286-A3DF-5D4E-BCFC-82855F32CE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C95FFE-4140-4E72-A167-3DDE568F1E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="11240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="1" r:id="rId1"/>
@@ -788,19 +788,56 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{D8E0D1DC-5E38-4F98-922B-A56429647FA0}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{73566333-2F91-416B-9A51-FDCC9D3CDEFD}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insérer un % minimum
-L'incorporation de matière recyclée est mesurée comme la proportion globale en masse de matériaux issus du recyclage
-Insert a minium %
-The incorporation of recycled material is measured as the overall proportion by mass of material from recycling</t>
+          <t xml:space="preserve">Insérer un % minimum - nombre entier
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">L'incorporation de matière recyclée est mesurée comme la proportion globale en masse de matériaux issus du recyclage
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Insert a minium % - whole number
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The incorporation of recycled material is measured as the overall proportion by mass of material from recycling</t>
         </r>
       </text>
     </comment>
@@ -1575,9 +1612,6 @@
 Recyclability</t>
   </si>
   <si>
-    <t>Incorporation de matière recyclée_x000B_Incorporation of recycled material</t>
-  </si>
-  <si>
     <t>Pays de teinture/impression ou montage
 Country of dyeing/printing or mounting</t>
   </si>
@@ -1654,12 +1688,16 @@
   <si>
     <t>820346E24</t>
   </si>
+  <si>
+    <t>Incorporation de matière recyclée (%)
+Incorporation of recycled material (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2434,9 +2472,6 @@
     <xf numFmtId="0" fontId="13" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2481,6 +2516,9 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6092,15 +6130,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.5" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6117,7 +6155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -6132,7 +6170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -6145,7 +6183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -6158,7 +6196,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -6171,7 +6209,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -6184,7 +6222,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -6197,7 +6235,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -6219,7 +6257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -6232,7 +6270,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -6257,7 +6295,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6270,7 +6308,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -6283,7 +6321,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -6296,7 +6334,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -6309,7 +6347,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -6331,7 +6369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -6344,7 +6382,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -6363,7 +6401,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -6376,7 +6414,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -6389,7 +6427,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -6402,7 +6440,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -6415,7 +6453,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -6430,7 +6468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="9" t="s">
         <v>46</v>
       </c>
@@ -6465,42 +6503,42 @@
   <dimension ref="A1:AC549"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="16" customWidth="1"/>
-    <col min="4" max="5" width="22.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="50" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="16" customWidth="1"/>
+    <col min="4" max="5" width="22.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" style="3" customWidth="1"/>
     <col min="8" max="8" width="27" style="18" customWidth="1"/>
-    <col min="9" max="9" width="30.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.83203125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="34.83203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="38.1640625" customWidth="1"/>
-    <col min="13" max="13" width="35.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.81640625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="34.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="38.1796875" customWidth="1"/>
+    <col min="13" max="13" width="35.81640625" style="3" customWidth="1"/>
     <col min="14" max="14" width="27" style="3" customWidth="1"/>
-    <col min="15" max="15" width="33.5" style="3" customWidth="1"/>
-    <col min="16" max="16" width="32.83203125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="27.5" style="3" customWidth="1"/>
-    <col min="18" max="18" width="32.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="33.453125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="32.81640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="27.453125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="32.81640625" style="3" customWidth="1"/>
     <col min="19" max="19" width="42" style="3" customWidth="1"/>
     <col min="20" max="20" width="45" style="3" customWidth="1"/>
-    <col min="21" max="21" width="36.5" style="3" customWidth="1"/>
-    <col min="22" max="22" width="44.5" style="3" customWidth="1"/>
+    <col min="21" max="21" width="36.453125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="44.453125" style="3" customWidth="1"/>
     <col min="23" max="23" width="22" style="3" customWidth="1"/>
-    <col min="24" max="24" width="63.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5" style="16" customWidth="1"/>
-    <col min="26" max="26" width="17.5" style="3" customWidth="1"/>
-    <col min="27" max="27" width="17.5" style="18" customWidth="1"/>
-    <col min="28" max="28" width="30.5" style="3" customWidth="1"/>
-    <col min="29" max="29" width="21.1640625" style="16" customWidth="1"/>
+    <col min="24" max="24" width="63.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.453125" style="16" customWidth="1"/>
+    <col min="26" max="26" width="17.453125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="17.453125" style="18" customWidth="1"/>
+    <col min="28" max="28" width="30.453125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="21.1796875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="42" hidden="1" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
@@ -6516,8 +6554,8 @@
       <c r="E1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="46" t="s">
-        <v>109</v>
+      <c r="F1" s="45" t="s">
+        <v>108</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>28</v>
@@ -6589,7 +6627,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="24" customFormat="1" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="24" customFormat="1" ht="106" customHeight="1">
       <c r="A2" s="28" t="s">
         <v>88</v>
       </c>
@@ -6605,8 +6643,8 @@
       <c r="E2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="47" t="s">
-        <v>109</v>
+      <c r="F2" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>92</v>
@@ -6617,68 +6655,68 @@
       <c r="I2" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" s="33" t="s">
+      <c r="M2" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="Q2" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="R2" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="S2" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="T2" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="U2" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="V2" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="W2" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="W2" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA2" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="34" t="s">
+      <c r="AC2" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" s="38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:29" s="42" customFormat="1">
       <c r="A3" s="25" t="s">
         <v>76</v>
       </c>
@@ -6691,10 +6729,10 @@
       <c r="D3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="45">
+      <c r="E3" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="44">
         <v>4006381333931</v>
       </c>
       <c r="G3" s="25" t="s">
@@ -6704,8 +6742,8 @@
       <c r="I3" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="25">
-        <v>65</v>
+      <c r="J3" s="27">
+        <v>0</v>
       </c>
       <c r="K3" s="25" t="s">
         <v>65</v>
@@ -6744,10 +6782,10 @@
       </c>
       <c r="Z3" s="26"/>
       <c r="AA3" s="26"/>
-      <c r="AB3" s="42"/>
+      <c r="AB3" s="41"/>
       <c r="AC3" s="25"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29">
       <c r="A4" s="27" t="s">
         <v>76</v>
       </c>
@@ -6760,10 +6798,10 @@
       <c r="D4" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="45">
+      <c r="E4" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="44">
         <v>5012345678901</v>
       </c>
       <c r="G4" s="27" t="s">
@@ -6774,7 +6812,7 @@
         <v>86</v>
       </c>
       <c r="J4" s="27">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>77</v>
@@ -6809,12 +6847,12 @@
       <c r="Y4" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
       <c r="AC4" s="27"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29">
       <c r="A5" s="27" t="s">
         <v>76</v>
       </c>
@@ -6827,10 +6865,10 @@
       <c r="D5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="45">
+      <c r="E5" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="44">
         <v>9780201379624</v>
       </c>
       <c r="G5" s="27" t="s">
@@ -6841,7 +6879,7 @@
         <v>86</v>
       </c>
       <c r="J5" s="27">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K5" s="27" t="s">
         <v>65</v>
@@ -6878,12 +6916,12 @@
       <c r="Y5" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
       <c r="AB5" s="27"/>
       <c r="AC5" s="27"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29">
       <c r="A6" s="27" t="s">
         <v>76</v>
       </c>
@@ -6896,10 +6934,10 @@
       <c r="D6" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="48">
+      <c r="E6" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="47">
         <v>3607343214682</v>
       </c>
       <c r="G6" s="27" t="s">
@@ -6910,7 +6948,7 @@
         <v>13</v>
       </c>
       <c r="J6" s="27">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="K6" s="27" t="s">
         <v>59</v>
@@ -6947,12 +6985,12 @@
       <c r="Y6" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
       <c r="AB6" s="27"/>
       <c r="AC6" s="27"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29">
       <c r="A7" s="27" t="s">
         <v>76</v>
       </c>
@@ -6965,10 +7003,10 @@
       <c r="D7" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="48">
+      <c r="E7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="47">
         <v>8806085947126</v>
       </c>
       <c r="G7" s="27" t="s">
@@ -6979,7 +7017,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="27">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K7" s="27" t="s">
         <v>59</v>
@@ -6990,7 +7028,7 @@
       <c r="M7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="38" t="s">
         <v>19</v>
       </c>
       <c r="O7" s="27"/>
@@ -7016,18 +7054,18 @@
       <c r="Y7" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
       <c r="AB7" s="27"/>
       <c r="AC7" s="27"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8" s="49"/>
+      <c r="F8" s="48"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -7046,22 +7084,22 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
       <c r="AB8"/>
       <c r="AC8"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
-      <c r="F9" s="49"/>
+      <c r="F9" s="48"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="41"/>
+      <c r="J9" s="40"/>
       <c r="K9"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -7081,17 +7119,17 @@
       <c r="AB9"/>
       <c r="AC9"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
-      <c r="F10" s="49"/>
+      <c r="F10" s="48"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="41"/>
+      <c r="J10" s="40"/>
       <c r="K10"/>
       <c r="M10"/>
       <c r="N10"/>
@@ -7111,17 +7149,17 @@
       <c r="AB10"/>
       <c r="AC10"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="F11" s="49"/>
+      <c r="F11" s="48"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="41"/>
+      <c r="J11" s="40"/>
       <c r="K11"/>
       <c r="M11"/>
       <c r="N11"/>
@@ -7141,17 +7179,17 @@
       <c r="AB11"/>
       <c r="AC11"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12" s="49"/>
+      <c r="F12" s="48"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="41"/>
+      <c r="J12" s="40"/>
       <c r="K12"/>
       <c r="M12"/>
       <c r="N12"/>
@@ -7171,17 +7209,17 @@
       <c r="AB12"/>
       <c r="AC12"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
-      <c r="F13" s="49"/>
+      <c r="F13" s="48"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" s="41"/>
+      <c r="J13" s="40"/>
       <c r="K13"/>
       <c r="M13"/>
       <c r="N13"/>
@@ -7201,17 +7239,17 @@
       <c r="AB13"/>
       <c r="AC13"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14" s="49"/>
+      <c r="F14" s="48"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" s="41"/>
+      <c r="J14" s="40"/>
       <c r="K14"/>
       <c r="M14"/>
       <c r="N14"/>
@@ -7231,17 +7269,17 @@
       <c r="AB14"/>
       <c r="AC14"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15" s="49"/>
+      <c r="F15" s="48"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15" s="41"/>
+      <c r="J15" s="40"/>
       <c r="K15"/>
       <c r="M15"/>
       <c r="N15"/>
@@ -7261,17 +7299,17 @@
       <c r="AB15"/>
       <c r="AC15"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16" s="49"/>
+      <c r="F16" s="48"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16" s="41"/>
+      <c r="J16" s="40"/>
       <c r="K16"/>
       <c r="M16"/>
       <c r="N16"/>
@@ -7291,507 +7329,507 @@
       <c r="AB16"/>
       <c r="AC16"/>
     </row>
-    <row r="17" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="49"/>
-      <c r="J17" s="41"/>
-    </row>
-    <row r="18" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="49"/>
-      <c r="J18" s="41"/>
-    </row>
-    <row r="19" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="49"/>
-      <c r="J19" s="41"/>
-    </row>
-    <row r="20" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="49"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="49"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F22" s="49"/>
-      <c r="J22" s="41"/>
-    </row>
-    <row r="23" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="49"/>
-      <c r="J23" s="41"/>
-    </row>
-    <row r="24" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F24" s="49"/>
-      <c r="J24" s="41"/>
-    </row>
-    <row r="25" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="49"/>
-      <c r="J25" s="41"/>
-    </row>
-    <row r="26" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="49"/>
-      <c r="J26" s="41"/>
-    </row>
-    <row r="27" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F27" s="49"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F28" s="49"/>
-      <c r="J28" s="41"/>
-    </row>
-    <row r="29" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F29" s="49"/>
-      <c r="J29" s="41"/>
-    </row>
-    <row r="30" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="49"/>
-      <c r="J30" s="41"/>
-    </row>
-    <row r="31" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="49"/>
-      <c r="J31" s="41"/>
-    </row>
-    <row r="32" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F32" s="49"/>
-      <c r="J32" s="41"/>
-    </row>
-    <row r="33" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F33" s="49"/>
-      <c r="J33" s="41"/>
-    </row>
-    <row r="34" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F34" s="49"/>
-      <c r="J34" s="41"/>
-    </row>
-    <row r="35" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F35" s="49"/>
-      <c r="J35" s="41"/>
-    </row>
-    <row r="36" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F36" s="49"/>
-      <c r="J36" s="41"/>
-    </row>
-    <row r="37" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F37" s="49"/>
-      <c r="J37" s="41"/>
-    </row>
-    <row r="38" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F38" s="49"/>
-      <c r="J38" s="41"/>
-    </row>
-    <row r="39" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F39" s="49"/>
-      <c r="J39" s="41"/>
-    </row>
-    <row r="40" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F40" s="49"/>
-      <c r="J40" s="41"/>
-    </row>
-    <row r="41" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="49"/>
-      <c r="J41" s="41"/>
-    </row>
-    <row r="42" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F42" s="49"/>
-      <c r="J42" s="41"/>
-    </row>
-    <row r="43" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F43" s="49"/>
-      <c r="J43" s="41"/>
-    </row>
-    <row r="44" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F44" s="49"/>
-      <c r="J44" s="41"/>
-    </row>
-    <row r="45" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F45" s="49"/>
-      <c r="J45" s="41"/>
-    </row>
-    <row r="46" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F46" s="49"/>
-      <c r="J46" s="41"/>
-    </row>
-    <row r="47" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F47" s="49"/>
-      <c r="J47" s="41"/>
-    </row>
-    <row r="48" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="49"/>
-      <c r="J48" s="41"/>
-    </row>
-    <row r="49" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F49" s="49"/>
-      <c r="J49" s="41"/>
-    </row>
-    <row r="50" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F50" s="49"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F51" s="49"/>
-      <c r="J51" s="41"/>
-    </row>
-    <row r="52" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F52" s="49"/>
-      <c r="J52" s="41"/>
-    </row>
-    <row r="53" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F53" s="49"/>
-      <c r="J53" s="41"/>
-    </row>
-    <row r="54" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F54" s="49"/>
-      <c r="J54" s="41"/>
-    </row>
-    <row r="55" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F55" s="49"/>
-      <c r="J55" s="41"/>
-    </row>
-    <row r="56" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F56" s="49"/>
-      <c r="J56" s="41"/>
-    </row>
-    <row r="57" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F57" s="49"/>
-      <c r="J57" s="41"/>
-    </row>
-    <row r="58" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F58" s="49"/>
-      <c r="J58" s="41"/>
+    <row r="17" spans="6:10" customFormat="1">
+      <c r="F17" s="48"/>
+      <c r="J17" s="40"/>
+    </row>
+    <row r="18" spans="6:10" customFormat="1">
+      <c r="F18" s="48"/>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="6:10" customFormat="1">
+      <c r="F19" s="48"/>
+      <c r="J19" s="40"/>
+    </row>
+    <row r="20" spans="6:10" customFormat="1">
+      <c r="F20" s="48"/>
+      <c r="J20" s="40"/>
+    </row>
+    <row r="21" spans="6:10" customFormat="1">
+      <c r="F21" s="48"/>
+      <c r="J21" s="40"/>
+    </row>
+    <row r="22" spans="6:10" customFormat="1">
+      <c r="F22" s="48"/>
+      <c r="J22" s="40"/>
+    </row>
+    <row r="23" spans="6:10" customFormat="1">
+      <c r="F23" s="48"/>
+      <c r="J23" s="40"/>
+    </row>
+    <row r="24" spans="6:10" customFormat="1">
+      <c r="F24" s="48"/>
+      <c r="J24" s="40"/>
+    </row>
+    <row r="25" spans="6:10" customFormat="1">
+      <c r="F25" s="48"/>
+      <c r="J25" s="40"/>
+    </row>
+    <row r="26" spans="6:10" customFormat="1">
+      <c r="F26" s="48"/>
+      <c r="J26" s="40"/>
+    </row>
+    <row r="27" spans="6:10" customFormat="1">
+      <c r="F27" s="48"/>
+      <c r="J27" s="40"/>
+    </row>
+    <row r="28" spans="6:10" customFormat="1">
+      <c r="F28" s="48"/>
+      <c r="J28" s="40"/>
+    </row>
+    <row r="29" spans="6:10" customFormat="1">
+      <c r="F29" s="48"/>
+      <c r="J29" s="40"/>
+    </row>
+    <row r="30" spans="6:10" customFormat="1">
+      <c r="F30" s="48"/>
+      <c r="J30" s="40"/>
+    </row>
+    <row r="31" spans="6:10" customFormat="1">
+      <c r="F31" s="48"/>
+      <c r="J31" s="40"/>
+    </row>
+    <row r="32" spans="6:10" customFormat="1">
+      <c r="F32" s="48"/>
+      <c r="J32" s="40"/>
+    </row>
+    <row r="33" spans="6:10" customFormat="1">
+      <c r="F33" s="48"/>
+      <c r="J33" s="40"/>
+    </row>
+    <row r="34" spans="6:10" customFormat="1">
+      <c r="F34" s="48"/>
+      <c r="J34" s="40"/>
+    </row>
+    <row r="35" spans="6:10" customFormat="1">
+      <c r="F35" s="48"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="6:10" customFormat="1">
+      <c r="F36" s="48"/>
+      <c r="J36" s="40"/>
+    </row>
+    <row r="37" spans="6:10" customFormat="1">
+      <c r="F37" s="48"/>
+      <c r="J37" s="40"/>
+    </row>
+    <row r="38" spans="6:10" customFormat="1">
+      <c r="F38" s="48"/>
+      <c r="J38" s="40"/>
+    </row>
+    <row r="39" spans="6:10" customFormat="1">
+      <c r="F39" s="48"/>
+      <c r="J39" s="40"/>
+    </row>
+    <row r="40" spans="6:10" customFormat="1">
+      <c r="F40" s="48"/>
+      <c r="J40" s="40"/>
+    </row>
+    <row r="41" spans="6:10" customFormat="1">
+      <c r="F41" s="48"/>
+      <c r="J41" s="40"/>
+    </row>
+    <row r="42" spans="6:10" customFormat="1">
+      <c r="F42" s="48"/>
+      <c r="J42" s="40"/>
+    </row>
+    <row r="43" spans="6:10" customFormat="1">
+      <c r="F43" s="48"/>
+      <c r="J43" s="40"/>
+    </row>
+    <row r="44" spans="6:10" customFormat="1">
+      <c r="F44" s="48"/>
+      <c r="J44" s="40"/>
+    </row>
+    <row r="45" spans="6:10" customFormat="1">
+      <c r="F45" s="48"/>
+      <c r="J45" s="40"/>
+    </row>
+    <row r="46" spans="6:10" customFormat="1">
+      <c r="F46" s="48"/>
+      <c r="J46" s="40"/>
+    </row>
+    <row r="47" spans="6:10" customFormat="1">
+      <c r="F47" s="48"/>
+      <c r="J47" s="40"/>
+    </row>
+    <row r="48" spans="6:10" customFormat="1">
+      <c r="F48" s="48"/>
+      <c r="J48" s="40"/>
+    </row>
+    <row r="49" spans="6:28" customFormat="1">
+      <c r="F49" s="48"/>
+      <c r="J49" s="40"/>
+    </row>
+    <row r="50" spans="6:28" customFormat="1">
+      <c r="F50" s="48"/>
+      <c r="J50" s="40"/>
+    </row>
+    <row r="51" spans="6:28" customFormat="1">
+      <c r="F51" s="48"/>
+      <c r="J51" s="40"/>
+    </row>
+    <row r="52" spans="6:28" customFormat="1">
+      <c r="F52" s="48"/>
+      <c r="J52" s="40"/>
+    </row>
+    <row r="53" spans="6:28" customFormat="1">
+      <c r="F53" s="48"/>
+      <c r="J53" s="40"/>
+    </row>
+    <row r="54" spans="6:28" customFormat="1">
+      <c r="F54" s="48"/>
+      <c r="J54" s="40"/>
+    </row>
+    <row r="55" spans="6:28" customFormat="1">
+      <c r="F55" s="48"/>
+      <c r="J55" s="40"/>
+    </row>
+    <row r="56" spans="6:28" customFormat="1">
+      <c r="F56" s="48"/>
+      <c r="J56" s="40"/>
+    </row>
+    <row r="57" spans="6:28" customFormat="1">
+      <c r="F57" s="48"/>
+      <c r="J57" s="40"/>
+    </row>
+    <row r="58" spans="6:28" customFormat="1">
+      <c r="F58" s="48"/>
+      <c r="J58" s="40"/>
       <c r="AB58" s="21"/>
     </row>
-    <row r="59" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F59" s="49"/>
-      <c r="J59" s="41"/>
-    </row>
-    <row r="60" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F60" s="49"/>
-      <c r="J60" s="41"/>
-    </row>
-    <row r="61" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F61" s="49"/>
-      <c r="J61" s="41"/>
-    </row>
-    <row r="62" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F62" s="49"/>
-      <c r="J62" s="41"/>
-    </row>
-    <row r="63" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F63" s="49"/>
-      <c r="J63" s="41"/>
-    </row>
-    <row r="64" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F64" s="49"/>
-      <c r="J64" s="41"/>
-    </row>
-    <row r="65" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F65" s="49"/>
-      <c r="J65" s="41"/>
-    </row>
-    <row r="66" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F66" s="49"/>
-      <c r="J66" s="41"/>
-    </row>
-    <row r="67" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F67" s="49"/>
-      <c r="J67" s="41"/>
-    </row>
-    <row r="68" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F68" s="49"/>
-      <c r="J68" s="41"/>
-    </row>
-    <row r="69" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F69" s="49"/>
-      <c r="J69" s="41"/>
-    </row>
-    <row r="70" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F70" s="49"/>
-      <c r="J70" s="41"/>
-    </row>
-    <row r="71" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F71" s="49"/>
-      <c r="J71" s="41"/>
-    </row>
-    <row r="72" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F72" s="49"/>
-      <c r="J72" s="41"/>
-    </row>
-    <row r="73" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F73" s="49"/>
-      <c r="J73" s="41"/>
+    <row r="59" spans="6:28" customFormat="1">
+      <c r="F59" s="48"/>
+      <c r="J59" s="40"/>
+    </row>
+    <row r="60" spans="6:28" customFormat="1">
+      <c r="F60" s="48"/>
+      <c r="J60" s="40"/>
+    </row>
+    <row r="61" spans="6:28" customFormat="1">
+      <c r="F61" s="48"/>
+      <c r="J61" s="40"/>
+    </row>
+    <row r="62" spans="6:28" customFormat="1">
+      <c r="F62" s="48"/>
+      <c r="J62" s="40"/>
+    </row>
+    <row r="63" spans="6:28" customFormat="1">
+      <c r="F63" s="48"/>
+      <c r="J63" s="40"/>
+    </row>
+    <row r="64" spans="6:28" customFormat="1">
+      <c r="F64" s="48"/>
+      <c r="J64" s="40"/>
+    </row>
+    <row r="65" spans="6:28" customFormat="1">
+      <c r="F65" s="48"/>
+      <c r="J65" s="40"/>
+    </row>
+    <row r="66" spans="6:28" customFormat="1">
+      <c r="F66" s="48"/>
+      <c r="J66" s="40"/>
+    </row>
+    <row r="67" spans="6:28" customFormat="1">
+      <c r="F67" s="48"/>
+      <c r="J67" s="40"/>
+    </row>
+    <row r="68" spans="6:28" customFormat="1">
+      <c r="F68" s="48"/>
+      <c r="J68" s="40"/>
+    </row>
+    <row r="69" spans="6:28" customFormat="1">
+      <c r="F69" s="48"/>
+      <c r="J69" s="40"/>
+    </row>
+    <row r="70" spans="6:28" customFormat="1">
+      <c r="F70" s="48"/>
+      <c r="J70" s="40"/>
+    </row>
+    <row r="71" spans="6:28" customFormat="1">
+      <c r="F71" s="48"/>
+      <c r="J71" s="40"/>
+    </row>
+    <row r="72" spans="6:28" customFormat="1">
+      <c r="F72" s="48"/>
+      <c r="J72" s="40"/>
+    </row>
+    <row r="73" spans="6:28" customFormat="1">
+      <c r="F73" s="48"/>
+      <c r="J73" s="40"/>
       <c r="AB73" s="21"/>
     </row>
-    <row r="74" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F74" s="49"/>
-      <c r="J74" s="41"/>
-    </row>
-    <row r="75" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F75" s="49"/>
-      <c r="J75" s="41"/>
-    </row>
-    <row r="76" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F76" s="49"/>
-      <c r="J76" s="41"/>
-    </row>
-    <row r="77" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F77" s="49"/>
-      <c r="J77" s="41"/>
-    </row>
-    <row r="78" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F78" s="49"/>
-      <c r="J78" s="41"/>
-    </row>
-    <row r="79" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F79" s="49"/>
-      <c r="J79" s="41"/>
-    </row>
-    <row r="80" spans="6:28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F80" s="49"/>
-      <c r="J80" s="41"/>
-    </row>
-    <row r="81" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F81" s="49"/>
-      <c r="J81" s="41"/>
-    </row>
-    <row r="82" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F82" s="49"/>
-      <c r="J82" s="41"/>
-    </row>
-    <row r="83" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F83" s="49"/>
-      <c r="J83" s="41"/>
-    </row>
-    <row r="84" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F84" s="49"/>
-      <c r="J84" s="41"/>
-    </row>
-    <row r="85" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F85" s="49"/>
-      <c r="J85" s="41"/>
-    </row>
-    <row r="86" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F86" s="49"/>
-      <c r="J86" s="41"/>
-    </row>
-    <row r="87" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F87" s="49"/>
-      <c r="J87" s="41"/>
-    </row>
-    <row r="88" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F88" s="49"/>
-      <c r="J88" s="41"/>
-    </row>
-    <row r="89" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F89" s="49"/>
-      <c r="J89" s="41"/>
-    </row>
-    <row r="90" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F90" s="49"/>
-      <c r="J90" s="41"/>
-    </row>
-    <row r="91" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F91" s="49"/>
-      <c r="J91" s="41"/>
-    </row>
-    <row r="92" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F92" s="49"/>
-      <c r="J92" s="41"/>
-    </row>
-    <row r="93" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F93" s="49"/>
-      <c r="J93" s="41"/>
-    </row>
-    <row r="94" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F94" s="49"/>
-      <c r="J94" s="41"/>
-    </row>
-    <row r="95" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F95" s="49"/>
-      <c r="J95" s="41"/>
-    </row>
-    <row r="96" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F96" s="49"/>
-      <c r="J96" s="41"/>
-    </row>
-    <row r="97" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F97" s="49"/>
-      <c r="J97" s="41"/>
-    </row>
-    <row r="98" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F98" s="49"/>
-      <c r="J98" s="41"/>
-    </row>
-    <row r="99" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F99" s="49"/>
-      <c r="J99" s="41"/>
-    </row>
-    <row r="100" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F100" s="49"/>
-      <c r="J100" s="41"/>
-    </row>
-    <row r="101" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F101" s="49"/>
-      <c r="J101" s="41"/>
-    </row>
-    <row r="102" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F102" s="49"/>
-      <c r="J102" s="41"/>
-    </row>
-    <row r="103" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F103" s="49"/>
-      <c r="J103" s="41"/>
-    </row>
-    <row r="104" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F104" s="49"/>
-      <c r="J104" s="41"/>
-    </row>
-    <row r="105" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F105" s="49"/>
-      <c r="J105" s="41"/>
-    </row>
-    <row r="106" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F106" s="49"/>
-      <c r="J106" s="41"/>
-    </row>
-    <row r="107" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F107" s="49"/>
-      <c r="J107" s="41"/>
-    </row>
-    <row r="108" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F108" s="49"/>
-      <c r="J108" s="41"/>
-    </row>
-    <row r="109" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F109" s="49"/>
-      <c r="J109" s="41"/>
-    </row>
-    <row r="110" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F110" s="49"/>
-      <c r="J110" s="41"/>
-    </row>
-    <row r="111" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F111" s="49"/>
-      <c r="J111" s="41"/>
-    </row>
-    <row r="112" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F112" s="49"/>
-      <c r="J112" s="41"/>
-    </row>
-    <row r="113" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F113" s="49"/>
-      <c r="J113" s="41"/>
-    </row>
-    <row r="114" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F114" s="49"/>
-      <c r="J114" s="41"/>
-    </row>
-    <row r="115" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F115" s="49"/>
-      <c r="J115" s="41"/>
-    </row>
-    <row r="116" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F116" s="49"/>
-      <c r="J116" s="41"/>
-    </row>
-    <row r="117" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F117" s="49"/>
-      <c r="J117" s="41"/>
-    </row>
-    <row r="118" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F118" s="49"/>
-      <c r="J118" s="41"/>
-    </row>
-    <row r="119" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F119" s="49"/>
-      <c r="J119" s="41"/>
-    </row>
-    <row r="120" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F120" s="49"/>
-      <c r="J120" s="41"/>
-    </row>
-    <row r="121" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F121" s="49"/>
-      <c r="J121" s="41"/>
-    </row>
-    <row r="122" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F122" s="49"/>
-      <c r="J122" s="41"/>
-    </row>
-    <row r="123" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F123" s="49"/>
-      <c r="J123" s="41"/>
-    </row>
-    <row r="124" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F124" s="49"/>
-      <c r="J124" s="41"/>
-    </row>
-    <row r="125" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F125" s="49"/>
-      <c r="J125" s="41"/>
-    </row>
-    <row r="126" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F126" s="49"/>
-      <c r="J126" s="41"/>
-    </row>
-    <row r="127" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F127" s="49"/>
-      <c r="J127" s="41"/>
-    </row>
-    <row r="128" spans="6:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F128" s="49"/>
-      <c r="J128" s="41"/>
-    </row>
-    <row r="129" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F129" s="49"/>
-      <c r="J129" s="41"/>
-    </row>
-    <row r="130" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F130" s="49"/>
-      <c r="J130" s="41"/>
-    </row>
-    <row r="131" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F131" s="49"/>
-      <c r="J131" s="41"/>
-    </row>
-    <row r="132" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F132" s="49"/>
-      <c r="J132" s="41"/>
-    </row>
-    <row r="133" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F133" s="49"/>
-      <c r="J133" s="41"/>
-    </row>
-    <row r="134" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F134" s="49"/>
-      <c r="J134" s="41"/>
-    </row>
-    <row r="135" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F135" s="49"/>
-      <c r="J135" s="41"/>
-    </row>
-    <row r="136" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F136" s="49"/>
-      <c r="J136" s="41"/>
-    </row>
-    <row r="137" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F137" s="49"/>
-      <c r="J137" s="41"/>
-    </row>
-    <row r="138" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F138" s="49"/>
-      <c r="J138" s="41"/>
-    </row>
-    <row r="139" spans="1:29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F139" s="49"/>
-      <c r="J139" s="41"/>
-    </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:28" customFormat="1">
+      <c r="F74" s="48"/>
+      <c r="J74" s="40"/>
+    </row>
+    <row r="75" spans="6:28" customFormat="1">
+      <c r="F75" s="48"/>
+      <c r="J75" s="40"/>
+    </row>
+    <row r="76" spans="6:28" customFormat="1">
+      <c r="F76" s="48"/>
+      <c r="J76" s="40"/>
+    </row>
+    <row r="77" spans="6:28" customFormat="1">
+      <c r="F77" s="48"/>
+      <c r="J77" s="40"/>
+    </row>
+    <row r="78" spans="6:28" customFormat="1">
+      <c r="F78" s="48"/>
+      <c r="J78" s="40"/>
+    </row>
+    <row r="79" spans="6:28" customFormat="1">
+      <c r="F79" s="48"/>
+      <c r="J79" s="40"/>
+    </row>
+    <row r="80" spans="6:28" customFormat="1">
+      <c r="F80" s="48"/>
+      <c r="J80" s="40"/>
+    </row>
+    <row r="81" spans="6:10" customFormat="1">
+      <c r="F81" s="48"/>
+      <c r="J81" s="40"/>
+    </row>
+    <row r="82" spans="6:10" customFormat="1">
+      <c r="F82" s="48"/>
+      <c r="J82" s="40"/>
+    </row>
+    <row r="83" spans="6:10" customFormat="1">
+      <c r="F83" s="48"/>
+      <c r="J83" s="40"/>
+    </row>
+    <row r="84" spans="6:10" customFormat="1">
+      <c r="F84" s="48"/>
+      <c r="J84" s="40"/>
+    </row>
+    <row r="85" spans="6:10" customFormat="1">
+      <c r="F85" s="48"/>
+      <c r="J85" s="40"/>
+    </row>
+    <row r="86" spans="6:10" customFormat="1">
+      <c r="F86" s="48"/>
+      <c r="J86" s="40"/>
+    </row>
+    <row r="87" spans="6:10" customFormat="1">
+      <c r="F87" s="48"/>
+      <c r="J87" s="40"/>
+    </row>
+    <row r="88" spans="6:10" customFormat="1">
+      <c r="F88" s="48"/>
+      <c r="J88" s="40"/>
+    </row>
+    <row r="89" spans="6:10" customFormat="1">
+      <c r="F89" s="48"/>
+      <c r="J89" s="40"/>
+    </row>
+    <row r="90" spans="6:10" customFormat="1">
+      <c r="F90" s="48"/>
+      <c r="J90" s="40"/>
+    </row>
+    <row r="91" spans="6:10" customFormat="1">
+      <c r="F91" s="48"/>
+      <c r="J91" s="40"/>
+    </row>
+    <row r="92" spans="6:10" customFormat="1">
+      <c r="F92" s="48"/>
+      <c r="J92" s="40"/>
+    </row>
+    <row r="93" spans="6:10" customFormat="1">
+      <c r="F93" s="48"/>
+      <c r="J93" s="40"/>
+    </row>
+    <row r="94" spans="6:10" customFormat="1">
+      <c r="F94" s="48"/>
+      <c r="J94" s="40"/>
+    </row>
+    <row r="95" spans="6:10" customFormat="1">
+      <c r="F95" s="48"/>
+      <c r="J95" s="40"/>
+    </row>
+    <row r="96" spans="6:10" customFormat="1">
+      <c r="F96" s="48"/>
+      <c r="J96" s="40"/>
+    </row>
+    <row r="97" spans="6:10" customFormat="1">
+      <c r="F97" s="48"/>
+      <c r="J97" s="40"/>
+    </row>
+    <row r="98" spans="6:10" customFormat="1">
+      <c r="F98" s="48"/>
+      <c r="J98" s="40"/>
+    </row>
+    <row r="99" spans="6:10" customFormat="1">
+      <c r="F99" s="48"/>
+      <c r="J99" s="40"/>
+    </row>
+    <row r="100" spans="6:10" customFormat="1">
+      <c r="F100" s="48"/>
+      <c r="J100" s="40"/>
+    </row>
+    <row r="101" spans="6:10" customFormat="1">
+      <c r="F101" s="48"/>
+      <c r="J101" s="40"/>
+    </row>
+    <row r="102" spans="6:10" customFormat="1">
+      <c r="F102" s="48"/>
+      <c r="J102" s="40"/>
+    </row>
+    <row r="103" spans="6:10" customFormat="1">
+      <c r="F103" s="48"/>
+      <c r="J103" s="40"/>
+    </row>
+    <row r="104" spans="6:10" customFormat="1">
+      <c r="F104" s="48"/>
+      <c r="J104" s="40"/>
+    </row>
+    <row r="105" spans="6:10" customFormat="1">
+      <c r="F105" s="48"/>
+      <c r="J105" s="40"/>
+    </row>
+    <row r="106" spans="6:10" customFormat="1">
+      <c r="F106" s="48"/>
+      <c r="J106" s="40"/>
+    </row>
+    <row r="107" spans="6:10" customFormat="1">
+      <c r="F107" s="48"/>
+      <c r="J107" s="40"/>
+    </row>
+    <row r="108" spans="6:10" customFormat="1">
+      <c r="F108" s="48"/>
+      <c r="J108" s="40"/>
+    </row>
+    <row r="109" spans="6:10" customFormat="1">
+      <c r="F109" s="48"/>
+      <c r="J109" s="40"/>
+    </row>
+    <row r="110" spans="6:10" customFormat="1">
+      <c r="F110" s="48"/>
+      <c r="J110" s="40"/>
+    </row>
+    <row r="111" spans="6:10" customFormat="1">
+      <c r="F111" s="48"/>
+      <c r="J111" s="40"/>
+    </row>
+    <row r="112" spans="6:10" customFormat="1">
+      <c r="F112" s="48"/>
+      <c r="J112" s="40"/>
+    </row>
+    <row r="113" spans="6:10" customFormat="1">
+      <c r="F113" s="48"/>
+      <c r="J113" s="40"/>
+    </row>
+    <row r="114" spans="6:10" customFormat="1">
+      <c r="F114" s="48"/>
+      <c r="J114" s="40"/>
+    </row>
+    <row r="115" spans="6:10" customFormat="1">
+      <c r="F115" s="48"/>
+      <c r="J115" s="40"/>
+    </row>
+    <row r="116" spans="6:10" customFormat="1">
+      <c r="F116" s="48"/>
+      <c r="J116" s="40"/>
+    </row>
+    <row r="117" spans="6:10" customFormat="1">
+      <c r="F117" s="48"/>
+      <c r="J117" s="40"/>
+    </row>
+    <row r="118" spans="6:10" customFormat="1">
+      <c r="F118" s="48"/>
+      <c r="J118" s="40"/>
+    </row>
+    <row r="119" spans="6:10" customFormat="1">
+      <c r="F119" s="48"/>
+      <c r="J119" s="40"/>
+    </row>
+    <row r="120" spans="6:10" customFormat="1">
+      <c r="F120" s="48"/>
+      <c r="J120" s="40"/>
+    </row>
+    <row r="121" spans="6:10" customFormat="1">
+      <c r="F121" s="48"/>
+      <c r="J121" s="40"/>
+    </row>
+    <row r="122" spans="6:10" customFormat="1">
+      <c r="F122" s="48"/>
+      <c r="J122" s="40"/>
+    </row>
+    <row r="123" spans="6:10" customFormat="1">
+      <c r="F123" s="48"/>
+      <c r="J123" s="40"/>
+    </row>
+    <row r="124" spans="6:10" customFormat="1">
+      <c r="F124" s="48"/>
+      <c r="J124" s="40"/>
+    </row>
+    <row r="125" spans="6:10" customFormat="1">
+      <c r="F125" s="48"/>
+      <c r="J125" s="40"/>
+    </row>
+    <row r="126" spans="6:10" customFormat="1">
+      <c r="F126" s="48"/>
+      <c r="J126" s="40"/>
+    </row>
+    <row r="127" spans="6:10" customFormat="1">
+      <c r="F127" s="48"/>
+      <c r="J127" s="40"/>
+    </row>
+    <row r="128" spans="6:10" customFormat="1">
+      <c r="F128" s="48"/>
+      <c r="J128" s="40"/>
+    </row>
+    <row r="129" spans="1:29" customFormat="1">
+      <c r="F129" s="48"/>
+      <c r="J129" s="40"/>
+    </row>
+    <row r="130" spans="1:29" customFormat="1">
+      <c r="F130" s="48"/>
+      <c r="J130" s="40"/>
+    </row>
+    <row r="131" spans="1:29" customFormat="1">
+      <c r="F131" s="48"/>
+      <c r="J131" s="40"/>
+    </row>
+    <row r="132" spans="1:29" customFormat="1">
+      <c r="F132" s="48"/>
+      <c r="J132" s="40"/>
+    </row>
+    <row r="133" spans="1:29" customFormat="1">
+      <c r="F133" s="48"/>
+      <c r="J133" s="40"/>
+    </row>
+    <row r="134" spans="1:29" customFormat="1">
+      <c r="F134" s="48"/>
+      <c r="J134" s="40"/>
+    </row>
+    <row r="135" spans="1:29" customFormat="1">
+      <c r="F135" s="48"/>
+      <c r="J135" s="40"/>
+    </row>
+    <row r="136" spans="1:29" customFormat="1">
+      <c r="F136" s="48"/>
+      <c r="J136" s="40"/>
+    </row>
+    <row r="137" spans="1:29" customFormat="1">
+      <c r="F137" s="48"/>
+      <c r="J137" s="40"/>
+    </row>
+    <row r="138" spans="1:29" customFormat="1">
+      <c r="F138" s="48"/>
+      <c r="J138" s="40"/>
+    </row>
+    <row r="139" spans="1:29" customFormat="1">
+      <c r="F139" s="48"/>
+      <c r="J139" s="40"/>
+    </row>
+    <row r="140" spans="1:29">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
-      <c r="F140" s="49"/>
+      <c r="F140" s="48"/>
       <c r="H140"/>
       <c r="K140" s="18"/>
       <c r="L140" s="3"/>
@@ -7803,13 +7841,13 @@
       <c r="AB140"/>
       <c r="AC140"/>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
       <c r="E141"/>
-      <c r="F141" s="49"/>
+      <c r="F141" s="48"/>
       <c r="H141"/>
       <c r="K141" s="18"/>
       <c r="L141" s="3"/>
@@ -7821,13 +7859,13 @@
       <c r="AB141"/>
       <c r="AC141"/>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142"/>
-      <c r="F142" s="49"/>
+      <c r="F142" s="48"/>
       <c r="H142"/>
       <c r="K142" s="18"/>
       <c r="L142" s="3"/>
@@ -7839,13 +7877,13 @@
       <c r="AB142"/>
       <c r="AC142"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
       <c r="E143"/>
-      <c r="F143" s="49"/>
+      <c r="F143" s="48"/>
       <c r="H143"/>
       <c r="K143" s="18"/>
       <c r="L143" s="3"/>
@@ -7857,13 +7895,13 @@
       <c r="AB143"/>
       <c r="AC143"/>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
       <c r="D144"/>
       <c r="E144"/>
-      <c r="F144" s="49"/>
+      <c r="F144" s="48"/>
       <c r="H144"/>
       <c r="K144" s="18"/>
       <c r="L144" s="3"/>
@@ -7875,13 +7913,13 @@
       <c r="AB144"/>
       <c r="AC144"/>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
       <c r="E145"/>
-      <c r="F145" s="49"/>
+      <c r="F145" s="48"/>
       <c r="H145"/>
       <c r="K145" s="18"/>
       <c r="L145" s="3"/>
@@ -7893,13 +7931,13 @@
       <c r="AB145"/>
       <c r="AC145"/>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
       <c r="D146"/>
       <c r="E146"/>
-      <c r="F146" s="49"/>
+      <c r="F146" s="48"/>
       <c r="H146"/>
       <c r="K146" s="18"/>
       <c r="L146" s="3"/>
@@ -7911,13 +7949,13 @@
       <c r="AB146"/>
       <c r="AC146"/>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
       <c r="D147"/>
       <c r="E147"/>
-      <c r="F147" s="49"/>
+      <c r="F147" s="48"/>
       <c r="H147"/>
       <c r="K147" s="18"/>
       <c r="L147" s="3"/>
@@ -7929,13 +7967,13 @@
       <c r="AB147"/>
       <c r="AC147"/>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
       <c r="D148"/>
       <c r="E148"/>
-      <c r="F148" s="49"/>
+      <c r="F148" s="48"/>
       <c r="H148"/>
       <c r="K148" s="18"/>
       <c r="L148" s="3"/>
@@ -7947,13 +7985,13 @@
       <c r="AB148"/>
       <c r="AC148"/>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
       <c r="D149"/>
       <c r="E149"/>
-      <c r="F149" s="49"/>
+      <c r="F149" s="48"/>
       <c r="H149"/>
       <c r="K149" s="18"/>
       <c r="L149" s="3"/>
@@ -7965,13 +8003,13 @@
       <c r="AB149"/>
       <c r="AC149"/>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
       <c r="D150"/>
       <c r="E150"/>
-      <c r="F150" s="49"/>
+      <c r="F150" s="48"/>
       <c r="H150"/>
       <c r="K150" s="18"/>
       <c r="L150" s="3"/>
@@ -7983,13 +8021,13 @@
       <c r="AB150"/>
       <c r="AC150"/>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
       <c r="D151"/>
       <c r="E151"/>
-      <c r="F151" s="49"/>
+      <c r="F151" s="48"/>
       <c r="H151"/>
       <c r="K151" s="18"/>
       <c r="L151" s="3"/>
@@ -8001,13 +8039,13 @@
       <c r="AB151"/>
       <c r="AC151"/>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
       <c r="D152"/>
       <c r="E152"/>
-      <c r="F152" s="49"/>
+      <c r="F152" s="48"/>
       <c r="H152"/>
       <c r="K152" s="18"/>
       <c r="L152" s="3"/>
@@ -8019,13 +8057,13 @@
       <c r="AB152"/>
       <c r="AC152"/>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
       <c r="D153"/>
       <c r="E153"/>
-      <c r="F153" s="49"/>
+      <c r="F153" s="48"/>
       <c r="H153"/>
       <c r="K153" s="18"/>
       <c r="L153" s="3"/>
@@ -8037,13 +8075,13 @@
       <c r="AB153"/>
       <c r="AC153"/>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
       <c r="D154"/>
       <c r="E154"/>
-      <c r="F154" s="49"/>
+      <c r="F154" s="48"/>
       <c r="H154"/>
       <c r="K154" s="18"/>
       <c r="L154" s="3"/>
@@ -8055,13 +8093,13 @@
       <c r="AB154"/>
       <c r="AC154"/>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
       <c r="D155"/>
       <c r="E155"/>
-      <c r="F155" s="49"/>
+      <c r="F155" s="48"/>
       <c r="H155"/>
       <c r="K155" s="18"/>
       <c r="L155" s="3"/>
@@ -8073,13 +8111,13 @@
       <c r="AB155"/>
       <c r="AC155"/>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
       <c r="D156"/>
       <c r="E156"/>
-      <c r="F156" s="49"/>
+      <c r="F156" s="48"/>
       <c r="H156"/>
       <c r="K156" s="18"/>
       <c r="L156" s="3"/>
@@ -8091,13 +8129,13 @@
       <c r="AB156"/>
       <c r="AC156"/>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
       <c r="D157"/>
       <c r="E157"/>
-      <c r="F157" s="49"/>
+      <c r="F157" s="48"/>
       <c r="H157"/>
       <c r="K157" s="18"/>
       <c r="L157" s="3"/>
@@ -8109,13 +8147,13 @@
       <c r="AB157"/>
       <c r="AC157"/>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
       <c r="D158"/>
       <c r="E158"/>
-      <c r="F158" s="49"/>
+      <c r="F158" s="48"/>
       <c r="H158"/>
       <c r="K158" s="18"/>
       <c r="L158" s="3"/>
@@ -8127,13 +8165,13 @@
       <c r="AB158"/>
       <c r="AC158"/>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
       <c r="D159"/>
       <c r="E159"/>
-      <c r="F159" s="49"/>
+      <c r="F159" s="48"/>
       <c r="H159"/>
       <c r="K159" s="18"/>
       <c r="L159" s="3"/>
@@ -8145,13 +8183,13 @@
       <c r="AB159"/>
       <c r="AC159"/>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
       <c r="D160"/>
       <c r="E160"/>
-      <c r="F160" s="49"/>
+      <c r="F160" s="48"/>
       <c r="H160"/>
       <c r="K160" s="18"/>
       <c r="L160" s="3"/>
@@ -8163,13 +8201,13 @@
       <c r="AB160"/>
       <c r="AC160"/>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
       <c r="D161"/>
       <c r="E161"/>
-      <c r="F161" s="49"/>
+      <c r="F161" s="48"/>
       <c r="H161"/>
       <c r="K161" s="18"/>
       <c r="L161" s="3"/>
@@ -8181,13 +8219,13 @@
       <c r="AB161"/>
       <c r="AC161"/>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
       <c r="D162"/>
       <c r="E162"/>
-      <c r="F162" s="49"/>
+      <c r="F162" s="48"/>
       <c r="H162"/>
       <c r="K162" s="18"/>
       <c r="L162" s="3"/>
@@ -8199,13 +8237,13 @@
       <c r="AB162"/>
       <c r="AC162"/>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
       <c r="D163"/>
       <c r="E163"/>
-      <c r="F163" s="49"/>
+      <c r="F163" s="48"/>
       <c r="H163"/>
       <c r="K163" s="18"/>
       <c r="L163" s="3"/>
@@ -8217,13 +8255,13 @@
       <c r="AB163"/>
       <c r="AC163"/>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
       <c r="D164"/>
       <c r="E164"/>
-      <c r="F164" s="49"/>
+      <c r="F164" s="48"/>
       <c r="H164"/>
       <c r="K164" s="18"/>
       <c r="L164" s="3"/>
@@ -8235,13 +8273,13 @@
       <c r="AB164"/>
       <c r="AC164"/>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
       <c r="D165"/>
       <c r="E165"/>
-      <c r="F165" s="49"/>
+      <c r="F165" s="48"/>
       <c r="H165"/>
       <c r="K165" s="18"/>
       <c r="L165" s="3"/>
@@ -8253,13 +8291,13 @@
       <c r="AB165"/>
       <c r="AC165"/>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
       <c r="D166"/>
       <c r="E166"/>
-      <c r="F166" s="49"/>
+      <c r="F166" s="48"/>
       <c r="H166"/>
       <c r="K166" s="18"/>
       <c r="L166" s="3"/>
@@ -8271,13 +8309,13 @@
       <c r="AB166"/>
       <c r="AC166"/>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
       <c r="D167"/>
       <c r="E167"/>
-      <c r="F167" s="49"/>
+      <c r="F167" s="48"/>
       <c r="H167"/>
       <c r="K167" s="18"/>
       <c r="L167" s="3"/>
@@ -8289,13 +8327,13 @@
       <c r="AB167"/>
       <c r="AC167"/>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
       <c r="D168"/>
       <c r="E168"/>
-      <c r="F168" s="49"/>
+      <c r="F168" s="48"/>
       <c r="H168"/>
       <c r="K168" s="18"/>
       <c r="L168" s="3"/>
@@ -8307,13 +8345,13 @@
       <c r="AB168"/>
       <c r="AC168"/>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
       <c r="D169"/>
       <c r="E169"/>
-      <c r="F169" s="49"/>
+      <c r="F169" s="48"/>
       <c r="H169"/>
       <c r="K169" s="18"/>
       <c r="L169" s="3"/>
@@ -8325,13 +8363,13 @@
       <c r="AB169"/>
       <c r="AC169"/>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
       <c r="D170"/>
       <c r="E170"/>
-      <c r="F170" s="49"/>
+      <c r="F170" s="48"/>
       <c r="H170"/>
       <c r="K170" s="18"/>
       <c r="L170" s="3"/>
@@ -8343,13 +8381,13 @@
       <c r="AB170"/>
       <c r="AC170"/>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
       <c r="D171"/>
       <c r="E171"/>
-      <c r="F171" s="49"/>
+      <c r="F171" s="48"/>
       <c r="H171"/>
       <c r="K171" s="18"/>
       <c r="L171" s="3"/>
@@ -8361,13 +8399,13 @@
       <c r="AB171"/>
       <c r="AC171"/>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
       <c r="D172"/>
       <c r="E172"/>
-      <c r="F172" s="49"/>
+      <c r="F172" s="48"/>
       <c r="H172"/>
       <c r="K172" s="18"/>
       <c r="L172" s="3"/>
@@ -8379,13 +8417,13 @@
       <c r="AB172"/>
       <c r="AC172"/>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
       <c r="D173"/>
       <c r="E173"/>
-      <c r="F173" s="49"/>
+      <c r="F173" s="48"/>
       <c r="H173"/>
       <c r="K173" s="18"/>
       <c r="L173" s="3"/>
@@ -8397,13 +8435,13 @@
       <c r="AB173"/>
       <c r="AC173"/>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
       <c r="D174"/>
       <c r="E174"/>
-      <c r="F174" s="49"/>
+      <c r="F174" s="48"/>
       <c r="H174"/>
       <c r="K174" s="18"/>
       <c r="L174" s="3"/>
@@ -8415,13 +8453,13 @@
       <c r="AB174"/>
       <c r="AC174"/>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
       <c r="D175"/>
       <c r="E175"/>
-      <c r="F175" s="49"/>
+      <c r="F175" s="48"/>
       <c r="H175"/>
       <c r="K175" s="18"/>
       <c r="L175" s="3"/>
@@ -8433,13 +8471,13 @@
       <c r="AB175"/>
       <c r="AC175"/>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
       <c r="D176"/>
       <c r="E176"/>
-      <c r="F176" s="49"/>
+      <c r="F176" s="48"/>
       <c r="H176"/>
       <c r="K176" s="18"/>
       <c r="L176" s="3"/>
@@ -8451,13 +8489,13 @@
       <c r="AB176"/>
       <c r="AC176"/>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177"/>
       <c r="E177"/>
-      <c r="F177" s="49"/>
+      <c r="F177" s="48"/>
       <c r="H177"/>
       <c r="K177" s="18"/>
       <c r="L177" s="3"/>
@@ -8469,13 +8507,13 @@
       <c r="AB177"/>
       <c r="AC177"/>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
       <c r="D178"/>
       <c r="E178"/>
-      <c r="F178" s="49"/>
+      <c r="F178" s="48"/>
       <c r="H178"/>
       <c r="K178" s="18"/>
       <c r="L178" s="3"/>
@@ -8487,13 +8525,13 @@
       <c r="AB178"/>
       <c r="AC178"/>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179"/>
       <c r="E179"/>
-      <c r="F179" s="49"/>
+      <c r="F179" s="48"/>
       <c r="H179"/>
       <c r="K179" s="18"/>
       <c r="L179" s="3"/>
@@ -8505,13 +8543,13 @@
       <c r="AB179"/>
       <c r="AC179"/>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
       <c r="D180"/>
       <c r="E180"/>
-      <c r="F180" s="49"/>
+      <c r="F180" s="48"/>
       <c r="H180"/>
       <c r="K180" s="18"/>
       <c r="L180" s="3"/>
@@ -8523,13 +8561,13 @@
       <c r="AB180"/>
       <c r="AC180"/>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
       <c r="D181"/>
       <c r="E181"/>
-      <c r="F181" s="49"/>
+      <c r="F181" s="48"/>
       <c r="H181"/>
       <c r="K181" s="18"/>
       <c r="L181" s="3"/>
@@ -8541,13 +8579,13 @@
       <c r="AB181"/>
       <c r="AC181"/>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
       <c r="D182"/>
       <c r="E182"/>
-      <c r="F182" s="49"/>
+      <c r="F182" s="48"/>
       <c r="H182"/>
       <c r="K182" s="18"/>
       <c r="L182" s="3"/>
@@ -8559,13 +8597,13 @@
       <c r="AB182"/>
       <c r="AC182"/>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183"/>
       <c r="E183"/>
-      <c r="F183" s="49"/>
+      <c r="F183" s="48"/>
       <c r="H183"/>
       <c r="K183" s="18"/>
       <c r="L183" s="3"/>
@@ -8577,13 +8615,13 @@
       <c r="AB183"/>
       <c r="AC183"/>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
       <c r="D184"/>
       <c r="E184"/>
-      <c r="F184" s="49"/>
+      <c r="F184" s="48"/>
       <c r="H184"/>
       <c r="K184" s="18"/>
       <c r="L184" s="3"/>
@@ -8595,13 +8633,13 @@
       <c r="AB184"/>
       <c r="AC184"/>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
       <c r="D185"/>
       <c r="E185"/>
-      <c r="F185" s="49"/>
+      <c r="F185" s="48"/>
       <c r="H185"/>
       <c r="K185" s="18"/>
       <c r="L185" s="3"/>
@@ -8613,13 +8651,13 @@
       <c r="AB185"/>
       <c r="AC185"/>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
       <c r="D186"/>
       <c r="E186"/>
-      <c r="F186" s="49"/>
+      <c r="F186" s="48"/>
       <c r="H186"/>
       <c r="K186" s="18"/>
       <c r="L186" s="3"/>
@@ -8631,13 +8669,13 @@
       <c r="AB186"/>
       <c r="AC186"/>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
       <c r="D187"/>
       <c r="E187"/>
-      <c r="F187" s="49"/>
+      <c r="F187" s="48"/>
       <c r="H187"/>
       <c r="K187" s="18"/>
       <c r="L187" s="3"/>
@@ -8649,13 +8687,13 @@
       <c r="AB187"/>
       <c r="AC187"/>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
       <c r="D188"/>
       <c r="E188"/>
-      <c r="F188" s="49"/>
+      <c r="F188" s="48"/>
       <c r="H188"/>
       <c r="K188" s="18"/>
       <c r="L188" s="3"/>
@@ -8667,13 +8705,13 @@
       <c r="AB188"/>
       <c r="AC188"/>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
       <c r="D189"/>
       <c r="E189"/>
-      <c r="F189" s="49"/>
+      <c r="F189" s="48"/>
       <c r="H189"/>
       <c r="K189" s="18"/>
       <c r="L189" s="3"/>
@@ -8685,13 +8723,13 @@
       <c r="AB189"/>
       <c r="AC189"/>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
       <c r="D190"/>
       <c r="E190"/>
-      <c r="F190" s="49"/>
+      <c r="F190" s="48"/>
       <c r="H190"/>
       <c r="K190" s="18"/>
       <c r="L190" s="3"/>
@@ -8703,13 +8741,13 @@
       <c r="AB190"/>
       <c r="AC190"/>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
       <c r="D191"/>
       <c r="E191"/>
-      <c r="F191" s="49"/>
+      <c r="F191" s="48"/>
       <c r="H191"/>
       <c r="K191" s="18"/>
       <c r="L191" s="3"/>
@@ -8721,13 +8759,13 @@
       <c r="AB191"/>
       <c r="AC191"/>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
       <c r="D192"/>
       <c r="E192"/>
-      <c r="F192" s="49"/>
+      <c r="F192" s="48"/>
       <c r="H192"/>
       <c r="K192" s="18"/>
       <c r="L192" s="3"/>
@@ -8739,13 +8777,13 @@
       <c r="AB192"/>
       <c r="AC192"/>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
       <c r="D193"/>
       <c r="E193"/>
-      <c r="F193" s="49"/>
+      <c r="F193" s="48"/>
       <c r="H193"/>
       <c r="K193" s="18"/>
       <c r="L193" s="3"/>
@@ -8757,13 +8795,13 @@
       <c r="AB193"/>
       <c r="AC193"/>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
       <c r="D194"/>
       <c r="E194"/>
-      <c r="F194" s="49"/>
+      <c r="F194" s="48"/>
       <c r="H194"/>
       <c r="K194" s="18"/>
       <c r="L194" s="3"/>
@@ -8775,13 +8813,13 @@
       <c r="AB194"/>
       <c r="AC194"/>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
       <c r="D195"/>
       <c r="E195"/>
-      <c r="F195" s="49"/>
+      <c r="F195" s="48"/>
       <c r="H195"/>
       <c r="K195" s="18"/>
       <c r="L195" s="3"/>
@@ -8793,13 +8831,13 @@
       <c r="AB195"/>
       <c r="AC195"/>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
       <c r="D196"/>
       <c r="E196"/>
-      <c r="F196" s="49"/>
+      <c r="F196" s="48"/>
       <c r="H196"/>
       <c r="K196" s="18"/>
       <c r="L196" s="3"/>
@@ -8811,13 +8849,13 @@
       <c r="AB196"/>
       <c r="AC196"/>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
       <c r="D197"/>
       <c r="E197"/>
-      <c r="F197" s="49"/>
+      <c r="F197" s="48"/>
       <c r="H197"/>
       <c r="K197" s="18"/>
       <c r="L197" s="3"/>
@@ -8829,13 +8867,13 @@
       <c r="AB197"/>
       <c r="AC197"/>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
       <c r="D198"/>
       <c r="E198"/>
-      <c r="F198" s="49"/>
+      <c r="F198" s="48"/>
       <c r="H198"/>
       <c r="K198" s="18"/>
       <c r="L198" s="3"/>
@@ -8847,13 +8885,13 @@
       <c r="AB198"/>
       <c r="AC198"/>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
       <c r="D199"/>
       <c r="E199"/>
-      <c r="F199" s="49"/>
+      <c r="F199" s="48"/>
       <c r="H199"/>
       <c r="K199" s="18"/>
       <c r="L199" s="3"/>
@@ -8865,13 +8903,13 @@
       <c r="AB199"/>
       <c r="AC199"/>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:29">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
       <c r="D200"/>
       <c r="E200"/>
-      <c r="F200" s="49"/>
+      <c r="F200" s="48"/>
       <c r="H200"/>
       <c r="K200" s="18"/>
       <c r="L200" s="3"/>
@@ -8883,13 +8921,13 @@
       <c r="AB200"/>
       <c r="AC200"/>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:29">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
       <c r="D201"/>
       <c r="E201"/>
-      <c r="F201" s="49"/>
+      <c r="F201" s="48"/>
       <c r="H201"/>
       <c r="K201" s="18"/>
       <c r="L201" s="3"/>
@@ -8901,13 +8939,13 @@
       <c r="AB201"/>
       <c r="AC201"/>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
       <c r="D202"/>
       <c r="E202"/>
-      <c r="F202" s="49"/>
+      <c r="F202" s="48"/>
       <c r="H202"/>
       <c r="K202" s="18"/>
       <c r="L202" s="3"/>
@@ -8919,13 +8957,13 @@
       <c r="AB202"/>
       <c r="AC202"/>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:29">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
       <c r="D203"/>
       <c r="E203"/>
-      <c r="F203" s="49"/>
+      <c r="F203" s="48"/>
       <c r="H203"/>
       <c r="K203" s="18"/>
       <c r="L203" s="3"/>
@@ -8937,13 +8975,13 @@
       <c r="AB203"/>
       <c r="AC203"/>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:29">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
       <c r="D204"/>
       <c r="E204"/>
-      <c r="F204" s="49"/>
+      <c r="F204" s="48"/>
       <c r="H204"/>
       <c r="K204" s="18"/>
       <c r="L204" s="3"/>
@@ -8955,13 +8993,13 @@
       <c r="AB204"/>
       <c r="AC204"/>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:29">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
       <c r="D205"/>
       <c r="E205"/>
-      <c r="F205" s="49"/>
+      <c r="F205" s="48"/>
       <c r="H205"/>
       <c r="K205" s="18"/>
       <c r="L205" s="3"/>
@@ -8973,13 +9011,13 @@
       <c r="AB205"/>
       <c r="AC205"/>
     </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:29">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
       <c r="D206"/>
       <c r="E206"/>
-      <c r="F206" s="49"/>
+      <c r="F206" s="48"/>
       <c r="H206"/>
       <c r="K206" s="18"/>
       <c r="L206" s="3"/>
@@ -8991,13 +9029,13 @@
       <c r="AB206"/>
       <c r="AC206"/>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
       <c r="D207"/>
       <c r="E207"/>
-      <c r="F207" s="49"/>
+      <c r="F207" s="48"/>
       <c r="H207"/>
       <c r="K207" s="18"/>
       <c r="L207" s="3"/>
@@ -9009,13 +9047,13 @@
       <c r="AB207"/>
       <c r="AC207"/>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
       <c r="D208"/>
       <c r="E208"/>
-      <c r="F208" s="49"/>
+      <c r="F208" s="48"/>
       <c r="H208"/>
       <c r="K208" s="18"/>
       <c r="L208" s="3"/>
@@ -9027,13 +9065,13 @@
       <c r="AB208"/>
       <c r="AC208"/>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
       <c r="D209"/>
       <c r="E209"/>
-      <c r="F209" s="49"/>
+      <c r="F209" s="48"/>
       <c r="H209"/>
       <c r="K209" s="18"/>
       <c r="L209" s="3"/>
@@ -9045,13 +9083,13 @@
       <c r="AB209"/>
       <c r="AC209"/>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
       <c r="D210"/>
       <c r="E210"/>
-      <c r="F210" s="49"/>
+      <c r="F210" s="48"/>
       <c r="H210"/>
       <c r="K210" s="18"/>
       <c r="L210" s="3"/>
@@ -9063,13 +9101,13 @@
       <c r="AB210"/>
       <c r="AC210"/>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
       <c r="D211"/>
       <c r="E211"/>
-      <c r="F211" s="49"/>
+      <c r="F211" s="48"/>
       <c r="H211"/>
       <c r="K211" s="18"/>
       <c r="L211" s="3"/>
@@ -9081,13 +9119,13 @@
       <c r="AB211"/>
       <c r="AC211"/>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
       <c r="D212"/>
       <c r="E212"/>
-      <c r="F212" s="49"/>
+      <c r="F212" s="48"/>
       <c r="H212"/>
       <c r="K212" s="18"/>
       <c r="L212" s="3"/>
@@ -9099,13 +9137,13 @@
       <c r="AB212"/>
       <c r="AC212"/>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
       <c r="D213"/>
       <c r="E213"/>
-      <c r="F213" s="49"/>
+      <c r="F213" s="48"/>
       <c r="H213"/>
       <c r="K213" s="18"/>
       <c r="L213" s="3"/>
@@ -9117,13 +9155,13 @@
       <c r="AB213"/>
       <c r="AC213"/>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
       <c r="D214"/>
       <c r="E214"/>
-      <c r="F214" s="49"/>
+      <c r="F214" s="48"/>
       <c r="H214"/>
       <c r="K214" s="18"/>
       <c r="L214" s="3"/>
@@ -9135,13 +9173,13 @@
       <c r="AB214"/>
       <c r="AC214"/>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
       <c r="D215"/>
       <c r="E215"/>
-      <c r="F215" s="49"/>
+      <c r="F215" s="48"/>
       <c r="H215"/>
       <c r="K215" s="18"/>
       <c r="L215" s="3"/>
@@ -9153,13 +9191,13 @@
       <c r="AB215"/>
       <c r="AC215"/>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
       <c r="D216"/>
       <c r="E216"/>
-      <c r="F216" s="49"/>
+      <c r="F216" s="48"/>
       <c r="H216"/>
       <c r="K216" s="18"/>
       <c r="L216" s="3"/>
@@ -9171,13 +9209,13 @@
       <c r="AB216"/>
       <c r="AC216"/>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
       <c r="D217"/>
       <c r="E217"/>
-      <c r="F217" s="49"/>
+      <c r="F217" s="48"/>
       <c r="H217"/>
       <c r="K217" s="18"/>
       <c r="L217" s="3"/>
@@ -9189,13 +9227,13 @@
       <c r="AB217"/>
       <c r="AC217"/>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
       <c r="D218"/>
       <c r="E218"/>
-      <c r="F218" s="49"/>
+      <c r="F218" s="48"/>
       <c r="H218"/>
       <c r="K218" s="18"/>
       <c r="L218" s="3"/>
@@ -9207,13 +9245,13 @@
       <c r="AB218"/>
       <c r="AC218"/>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
       <c r="D219"/>
       <c r="E219"/>
-      <c r="F219" s="49"/>
+      <c r="F219" s="48"/>
       <c r="H219"/>
       <c r="K219" s="18"/>
       <c r="L219" s="3"/>
@@ -9225,13 +9263,13 @@
       <c r="AB219"/>
       <c r="AC219"/>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
       <c r="D220"/>
       <c r="E220"/>
-      <c r="F220" s="49"/>
+      <c r="F220" s="48"/>
       <c r="H220"/>
       <c r="K220" s="18"/>
       <c r="L220" s="3"/>
@@ -9243,13 +9281,13 @@
       <c r="AB220"/>
       <c r="AC220"/>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
       <c r="D221"/>
       <c r="E221"/>
-      <c r="F221" s="49"/>
+      <c r="F221" s="48"/>
       <c r="H221"/>
       <c r="K221" s="18"/>
       <c r="L221" s="3"/>
@@ -9261,13 +9299,13 @@
       <c r="AB221"/>
       <c r="AC221"/>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
       <c r="D222"/>
       <c r="E222"/>
-      <c r="F222" s="49"/>
+      <c r="F222" s="48"/>
       <c r="H222"/>
       <c r="K222" s="18"/>
       <c r="L222" s="3"/>
@@ -9279,13 +9317,13 @@
       <c r="AB222" s="21"/>
       <c r="AC222"/>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
       <c r="D223"/>
       <c r="E223"/>
-      <c r="F223" s="49"/>
+      <c r="F223" s="48"/>
       <c r="H223"/>
       <c r="K223" s="18"/>
       <c r="L223" s="3"/>
@@ -9297,13 +9335,13 @@
       <c r="AB223"/>
       <c r="AC223"/>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
       <c r="D224"/>
       <c r="E224"/>
-      <c r="F224" s="49"/>
+      <c r="F224" s="48"/>
       <c r="H224"/>
       <c r="K224" s="18"/>
       <c r="L224" s="3"/>
@@ -9315,13 +9353,13 @@
       <c r="AB224"/>
       <c r="AC224"/>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
       <c r="D225"/>
       <c r="E225"/>
-      <c r="F225" s="49"/>
+      <c r="F225" s="48"/>
       <c r="H225"/>
       <c r="K225" s="18"/>
       <c r="L225" s="3"/>
@@ -9333,13 +9371,13 @@
       <c r="AB225"/>
       <c r="AC225"/>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
       <c r="D226"/>
       <c r="E226"/>
-      <c r="F226" s="49"/>
+      <c r="F226" s="48"/>
       <c r="H226"/>
       <c r="K226" s="18"/>
       <c r="L226" s="3"/>
@@ -9351,13 +9389,13 @@
       <c r="AB226"/>
       <c r="AC226"/>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227"/>
       <c r="E227"/>
-      <c r="F227" s="49"/>
+      <c r="F227" s="48"/>
       <c r="H227"/>
       <c r="K227" s="18"/>
       <c r="L227" s="3"/>
@@ -9369,13 +9407,13 @@
       <c r="AB227"/>
       <c r="AC227"/>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
       <c r="D228"/>
       <c r="E228"/>
-      <c r="F228" s="49"/>
+      <c r="F228" s="48"/>
       <c r="H228"/>
       <c r="K228" s="18"/>
       <c r="L228" s="3"/>
@@ -9387,13 +9425,13 @@
       <c r="AB228"/>
       <c r="AC228"/>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
       <c r="D229"/>
       <c r="E229"/>
-      <c r="F229" s="49"/>
+      <c r="F229" s="48"/>
       <c r="H229"/>
       <c r="K229" s="18"/>
       <c r="L229" s="3"/>
@@ -9405,13 +9443,13 @@
       <c r="AB229"/>
       <c r="AC229"/>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
       <c r="D230"/>
       <c r="E230"/>
-      <c r="F230" s="49"/>
+      <c r="F230" s="48"/>
       <c r="H230"/>
       <c r="K230" s="18"/>
       <c r="L230" s="3"/>
@@ -9423,13 +9461,13 @@
       <c r="AB230"/>
       <c r="AC230"/>
     </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
       <c r="D231"/>
       <c r="E231"/>
-      <c r="F231" s="49"/>
+      <c r="F231" s="48"/>
       <c r="H231"/>
       <c r="K231" s="18"/>
       <c r="L231" s="3"/>
@@ -9441,13 +9479,13 @@
       <c r="AB231"/>
       <c r="AC231"/>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
       <c r="D232"/>
       <c r="E232"/>
-      <c r="F232" s="49"/>
+      <c r="F232" s="48"/>
       <c r="H232"/>
       <c r="K232" s="18"/>
       <c r="L232" s="3"/>
@@ -9459,13 +9497,13 @@
       <c r="AB232"/>
       <c r="AC232"/>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
       <c r="D233"/>
       <c r="E233"/>
-      <c r="F233" s="49"/>
+      <c r="F233" s="48"/>
       <c r="H233"/>
       <c r="K233" s="18"/>
       <c r="L233" s="3"/>
@@ -9477,13 +9515,13 @@
       <c r="AB233"/>
       <c r="AC233"/>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29">
       <c r="A234"/>
       <c r="B234"/>
       <c r="C234"/>
       <c r="D234"/>
       <c r="E234"/>
-      <c r="F234" s="49"/>
+      <c r="F234" s="48"/>
       <c r="H234"/>
       <c r="K234" s="18"/>
       <c r="L234" s="3"/>
@@ -9495,13 +9533,13 @@
       <c r="AB234"/>
       <c r="AC234"/>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:29">
       <c r="A235"/>
       <c r="B235"/>
       <c r="C235"/>
       <c r="D235"/>
       <c r="E235"/>
-      <c r="F235" s="49"/>
+      <c r="F235" s="48"/>
       <c r="H235"/>
       <c r="K235" s="18"/>
       <c r="L235" s="3"/>
@@ -9513,13 +9551,13 @@
       <c r="AB235"/>
       <c r="AC235"/>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29">
       <c r="A236"/>
       <c r="B236"/>
       <c r="C236"/>
       <c r="D236"/>
       <c r="E236"/>
-      <c r="F236" s="49"/>
+      <c r="F236" s="48"/>
       <c r="H236"/>
       <c r="K236" s="18"/>
       <c r="L236" s="3"/>
@@ -9531,13 +9569,13 @@
       <c r="AB236"/>
       <c r="AC236"/>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29">
       <c r="A237"/>
       <c r="B237"/>
       <c r="C237"/>
       <c r="D237"/>
       <c r="E237"/>
-      <c r="F237" s="49"/>
+      <c r="F237" s="48"/>
       <c r="H237"/>
       <c r="K237" s="18"/>
       <c r="L237" s="3"/>
@@ -9549,13 +9587,13 @@
       <c r="AB237"/>
       <c r="AC237"/>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29">
       <c r="A238"/>
       <c r="B238"/>
       <c r="C238"/>
       <c r="D238"/>
       <c r="E238"/>
-      <c r="F238" s="49"/>
+      <c r="F238" s="48"/>
       <c r="H238"/>
       <c r="K238" s="18"/>
       <c r="L238" s="3"/>
@@ -9567,13 +9605,13 @@
       <c r="AB238"/>
       <c r="AC238"/>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29">
       <c r="A239"/>
       <c r="B239"/>
       <c r="C239"/>
       <c r="D239"/>
       <c r="E239"/>
-      <c r="F239" s="49"/>
+      <c r="F239" s="48"/>
       <c r="H239"/>
       <c r="K239" s="18"/>
       <c r="L239" s="3"/>
@@ -9585,13 +9623,13 @@
       <c r="AB239"/>
       <c r="AC239"/>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29">
       <c r="A240"/>
       <c r="B240"/>
       <c r="C240"/>
       <c r="D240"/>
       <c r="E240"/>
-      <c r="F240" s="49"/>
+      <c r="F240" s="48"/>
       <c r="H240"/>
       <c r="K240" s="18"/>
       <c r="L240" s="3"/>
@@ -9603,13 +9641,13 @@
       <c r="AB240"/>
       <c r="AC240"/>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:29">
       <c r="A241"/>
       <c r="B241"/>
       <c r="C241"/>
       <c r="D241"/>
       <c r="E241"/>
-      <c r="F241" s="49"/>
+      <c r="F241" s="48"/>
       <c r="H241"/>
       <c r="K241" s="18"/>
       <c r="L241" s="3"/>
@@ -9621,13 +9659,13 @@
       <c r="AB241"/>
       <c r="AC241"/>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:29">
       <c r="A242"/>
       <c r="B242"/>
       <c r="C242"/>
       <c r="D242"/>
       <c r="E242"/>
-      <c r="F242" s="49"/>
+      <c r="F242" s="48"/>
       <c r="H242"/>
       <c r="K242" s="18"/>
       <c r="L242" s="3"/>
@@ -9639,13 +9677,13 @@
       <c r="AB242"/>
       <c r="AC242"/>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:29">
       <c r="A243"/>
       <c r="B243"/>
       <c r="C243"/>
       <c r="D243"/>
       <c r="E243"/>
-      <c r="F243" s="49"/>
+      <c r="F243" s="48"/>
       <c r="H243"/>
       <c r="K243" s="18"/>
       <c r="L243" s="3"/>
@@ -9657,13 +9695,13 @@
       <c r="AB243"/>
       <c r="AC243"/>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:29">
       <c r="A244"/>
       <c r="B244"/>
       <c r="C244"/>
       <c r="D244"/>
       <c r="E244"/>
-      <c r="F244" s="49"/>
+      <c r="F244" s="48"/>
       <c r="H244"/>
       <c r="K244" s="18"/>
       <c r="L244" s="3"/>
@@ -9675,13 +9713,13 @@
       <c r="AB244"/>
       <c r="AC244"/>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:29">
       <c r="A245"/>
       <c r="B245"/>
       <c r="C245"/>
       <c r="D245"/>
       <c r="E245"/>
-      <c r="F245" s="49"/>
+      <c r="F245" s="48"/>
       <c r="H245"/>
       <c r="K245" s="18"/>
       <c r="L245" s="3"/>
@@ -9693,13 +9731,13 @@
       <c r="AB245"/>
       <c r="AC245"/>
     </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:29">
       <c r="A246"/>
       <c r="B246"/>
       <c r="C246"/>
       <c r="D246"/>
       <c r="E246"/>
-      <c r="F246" s="49"/>
+      <c r="F246" s="48"/>
       <c r="H246"/>
       <c r="K246" s="18"/>
       <c r="L246" s="3"/>
@@ -9711,13 +9749,13 @@
       <c r="AB246"/>
       <c r="AC246"/>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:29">
       <c r="A247"/>
       <c r="B247"/>
       <c r="C247"/>
       <c r="D247"/>
       <c r="E247"/>
-      <c r="F247" s="49"/>
+      <c r="F247" s="48"/>
       <c r="H247"/>
       <c r="K247" s="18"/>
       <c r="L247" s="3"/>
@@ -9729,13 +9767,13 @@
       <c r="AB247"/>
       <c r="AC247"/>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:29">
       <c r="A248"/>
       <c r="B248"/>
       <c r="C248"/>
       <c r="D248"/>
       <c r="E248"/>
-      <c r="F248" s="49"/>
+      <c r="F248" s="48"/>
       <c r="H248"/>
       <c r="K248" s="18"/>
       <c r="L248" s="3"/>
@@ -9747,13 +9785,13 @@
       <c r="AB248"/>
       <c r="AC248"/>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29">
       <c r="A249"/>
       <c r="B249"/>
       <c r="C249"/>
       <c r="D249"/>
       <c r="E249"/>
-      <c r="F249" s="49"/>
+      <c r="F249" s="48"/>
       <c r="H249"/>
       <c r="K249" s="18"/>
       <c r="L249" s="3"/>
@@ -9765,13 +9803,13 @@
       <c r="AB249"/>
       <c r="AC249"/>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29">
       <c r="A250"/>
       <c r="B250"/>
       <c r="C250"/>
       <c r="D250"/>
       <c r="E250"/>
-      <c r="F250" s="49"/>
+      <c r="F250" s="48"/>
       <c r="H250"/>
       <c r="K250" s="18"/>
       <c r="L250" s="3"/>
@@ -9783,13 +9821,13 @@
       <c r="AB250"/>
       <c r="AC250"/>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29">
       <c r="A251"/>
       <c r="B251"/>
       <c r="C251"/>
       <c r="D251"/>
       <c r="E251"/>
-      <c r="F251" s="49"/>
+      <c r="F251" s="48"/>
       <c r="H251"/>
       <c r="K251" s="18"/>
       <c r="L251" s="3"/>
@@ -9801,13 +9839,13 @@
       <c r="AB251"/>
       <c r="AC251"/>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:29">
       <c r="A252"/>
       <c r="B252"/>
       <c r="C252"/>
       <c r="D252"/>
       <c r="E252"/>
-      <c r="F252" s="49"/>
+      <c r="F252" s="48"/>
       <c r="H252"/>
       <c r="K252" s="18"/>
       <c r="L252" s="3"/>
@@ -9819,13 +9857,13 @@
       <c r="AB252"/>
       <c r="AC252"/>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:29">
       <c r="A253"/>
       <c r="B253"/>
       <c r="C253"/>
       <c r="D253"/>
       <c r="E253"/>
-      <c r="F253" s="49"/>
+      <c r="F253" s="48"/>
       <c r="H253"/>
       <c r="K253" s="18"/>
       <c r="L253" s="3"/>
@@ -9837,13 +9875,13 @@
       <c r="AB253"/>
       <c r="AC253"/>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29">
       <c r="A254"/>
       <c r="B254"/>
       <c r="C254"/>
       <c r="D254"/>
       <c r="E254"/>
-      <c r="F254" s="49"/>
+      <c r="F254" s="48"/>
       <c r="H254"/>
       <c r="K254" s="18"/>
       <c r="L254" s="3"/>
@@ -9855,13 +9893,13 @@
       <c r="AB254"/>
       <c r="AC254"/>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29">
       <c r="A255"/>
       <c r="B255"/>
       <c r="C255"/>
       <c r="D255"/>
       <c r="E255"/>
-      <c r="F255" s="49"/>
+      <c r="F255" s="48"/>
       <c r="H255"/>
       <c r="K255" s="18"/>
       <c r="L255" s="3"/>
@@ -9873,13 +9911,13 @@
       <c r="AB255"/>
       <c r="AC255"/>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29">
       <c r="A256"/>
       <c r="B256"/>
       <c r="C256"/>
       <c r="D256"/>
       <c r="E256"/>
-      <c r="F256" s="49"/>
+      <c r="F256" s="48"/>
       <c r="H256"/>
       <c r="K256" s="18"/>
       <c r="L256" s="3"/>
@@ -9891,13 +9929,13 @@
       <c r="AB256"/>
       <c r="AC256"/>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29">
       <c r="A257"/>
       <c r="B257"/>
       <c r="C257"/>
       <c r="D257"/>
       <c r="E257"/>
-      <c r="F257" s="49"/>
+      <c r="F257" s="48"/>
       <c r="H257"/>
       <c r="K257" s="18"/>
       <c r="L257" s="3"/>
@@ -9909,13 +9947,13 @@
       <c r="AB257"/>
       <c r="AC257"/>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29">
       <c r="A258"/>
       <c r="B258"/>
       <c r="C258"/>
       <c r="D258"/>
       <c r="E258"/>
-      <c r="F258" s="49"/>
+      <c r="F258" s="48"/>
       <c r="H258"/>
       <c r="K258" s="18"/>
       <c r="L258" s="3"/>
@@ -9927,13 +9965,13 @@
       <c r="AB258"/>
       <c r="AC258"/>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29">
       <c r="A259"/>
       <c r="B259"/>
       <c r="C259"/>
       <c r="D259"/>
       <c r="E259"/>
-      <c r="F259" s="49"/>
+      <c r="F259" s="48"/>
       <c r="H259"/>
       <c r="K259" s="18"/>
       <c r="L259" s="3"/>
@@ -9945,13 +9983,13 @@
       <c r="AB259"/>
       <c r="AC259"/>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29">
       <c r="A260"/>
       <c r="B260"/>
       <c r="C260"/>
       <c r="D260"/>
       <c r="E260"/>
-      <c r="F260" s="49"/>
+      <c r="F260" s="48"/>
       <c r="H260"/>
       <c r="K260" s="18"/>
       <c r="L260" s="3"/>
@@ -9963,13 +10001,13 @@
       <c r="AB260"/>
       <c r="AC260"/>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29">
       <c r="A261"/>
       <c r="B261"/>
       <c r="C261"/>
       <c r="D261"/>
       <c r="E261"/>
-      <c r="F261" s="49"/>
+      <c r="F261" s="48"/>
       <c r="H261"/>
       <c r="K261" s="18"/>
       <c r="L261" s="3"/>
@@ -9981,13 +10019,13 @@
       <c r="AB261"/>
       <c r="AC261"/>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29">
       <c r="A262"/>
       <c r="B262"/>
       <c r="C262"/>
       <c r="D262"/>
       <c r="E262"/>
-      <c r="F262" s="49"/>
+      <c r="F262" s="48"/>
       <c r="H262"/>
       <c r="K262" s="18"/>
       <c r="L262" s="3"/>
@@ -9999,13 +10037,13 @@
       <c r="AB262"/>
       <c r="AC262"/>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29">
       <c r="A263"/>
       <c r="B263"/>
       <c r="C263"/>
       <c r="D263"/>
       <c r="E263"/>
-      <c r="F263" s="49"/>
+      <c r="F263" s="48"/>
       <c r="H263"/>
       <c r="K263" s="18"/>
       <c r="L263" s="3"/>
@@ -10017,13 +10055,13 @@
       <c r="AB263"/>
       <c r="AC263"/>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29">
       <c r="A264"/>
       <c r="B264"/>
       <c r="C264"/>
       <c r="D264"/>
       <c r="E264"/>
-      <c r="F264" s="49"/>
+      <c r="F264" s="48"/>
       <c r="H264"/>
       <c r="K264" s="18"/>
       <c r="L264" s="3"/>
@@ -10035,13 +10073,13 @@
       <c r="AB264"/>
       <c r="AC264"/>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29">
       <c r="A265"/>
       <c r="B265"/>
       <c r="C265"/>
       <c r="D265"/>
       <c r="E265"/>
-      <c r="F265" s="49"/>
+      <c r="F265" s="48"/>
       <c r="H265"/>
       <c r="K265" s="18"/>
       <c r="L265" s="3"/>
@@ -10053,13 +10091,13 @@
       <c r="AB265"/>
       <c r="AC265"/>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29">
       <c r="A266"/>
       <c r="B266"/>
       <c r="C266"/>
       <c r="D266"/>
       <c r="E266"/>
-      <c r="F266" s="49"/>
+      <c r="F266" s="48"/>
       <c r="H266"/>
       <c r="K266" s="18"/>
       <c r="L266" s="3"/>
@@ -10071,13 +10109,13 @@
       <c r="AB266"/>
       <c r="AC266"/>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29">
       <c r="A267"/>
       <c r="B267"/>
       <c r="C267"/>
       <c r="D267"/>
       <c r="E267"/>
-      <c r="F267" s="49"/>
+      <c r="F267" s="48"/>
       <c r="H267"/>
       <c r="K267" s="18"/>
       <c r="L267" s="3"/>
@@ -10089,13 +10127,13 @@
       <c r="AB267"/>
       <c r="AC267"/>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29">
       <c r="A268"/>
       <c r="B268"/>
       <c r="C268"/>
       <c r="D268"/>
       <c r="E268"/>
-      <c r="F268" s="49"/>
+      <c r="F268" s="48"/>
       <c r="H268"/>
       <c r="K268" s="18"/>
       <c r="L268" s="3"/>
@@ -10107,13 +10145,13 @@
       <c r="AB268"/>
       <c r="AC268"/>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29">
       <c r="A269"/>
       <c r="B269"/>
       <c r="C269"/>
       <c r="D269"/>
       <c r="E269"/>
-      <c r="F269" s="49"/>
+      <c r="F269" s="48"/>
       <c r="H269"/>
       <c r="K269" s="18"/>
       <c r="L269" s="3"/>
@@ -10125,13 +10163,13 @@
       <c r="AB269"/>
       <c r="AC269"/>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29">
       <c r="A270"/>
       <c r="B270"/>
       <c r="C270"/>
       <c r="D270"/>
       <c r="E270"/>
-      <c r="F270" s="49"/>
+      <c r="F270" s="48"/>
       <c r="H270"/>
       <c r="K270" s="18"/>
       <c r="L270" s="3"/>
@@ -10143,13 +10181,13 @@
       <c r="AB270"/>
       <c r="AC270"/>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29">
       <c r="A271"/>
       <c r="B271"/>
       <c r="C271"/>
       <c r="D271"/>
       <c r="E271"/>
-      <c r="F271" s="49"/>
+      <c r="F271" s="48"/>
       <c r="H271"/>
       <c r="K271" s="18"/>
       <c r="L271" s="3"/>
@@ -10161,13 +10199,13 @@
       <c r="AB271"/>
       <c r="AC271"/>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29">
       <c r="A272"/>
       <c r="B272"/>
       <c r="C272"/>
       <c r="D272"/>
       <c r="E272"/>
-      <c r="F272" s="49"/>
+      <c r="F272" s="48"/>
       <c r="H272"/>
       <c r="K272" s="18"/>
       <c r="L272" s="3"/>
@@ -10179,13 +10217,13 @@
       <c r="AB272"/>
       <c r="AC272"/>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29">
       <c r="A273"/>
       <c r="B273"/>
       <c r="C273"/>
       <c r="D273"/>
       <c r="E273"/>
-      <c r="F273" s="49"/>
+      <c r="F273" s="48"/>
       <c r="H273"/>
       <c r="K273" s="18"/>
       <c r="L273" s="3"/>
@@ -10197,13 +10235,13 @@
       <c r="AB273"/>
       <c r="AC273"/>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29">
       <c r="A274"/>
       <c r="B274"/>
       <c r="C274"/>
       <c r="D274"/>
       <c r="E274"/>
-      <c r="F274" s="49"/>
+      <c r="F274" s="48"/>
       <c r="H274"/>
       <c r="K274" s="18"/>
       <c r="L274" s="3"/>
@@ -10215,13 +10253,13 @@
       <c r="AB274"/>
       <c r="AC274"/>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29">
       <c r="A275"/>
       <c r="B275"/>
       <c r="C275"/>
       <c r="D275"/>
       <c r="E275"/>
-      <c r="F275" s="49"/>
+      <c r="F275" s="48"/>
       <c r="H275"/>
       <c r="K275" s="18"/>
       <c r="L275" s="3"/>
@@ -10233,13 +10271,13 @@
       <c r="AB275"/>
       <c r="AC275"/>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:29">
       <c r="A276"/>
       <c r="B276"/>
       <c r="C276"/>
       <c r="D276"/>
       <c r="E276"/>
-      <c r="F276" s="49"/>
+      <c r="F276" s="48"/>
       <c r="H276"/>
       <c r="K276" s="18"/>
       <c r="L276" s="3"/>
@@ -10251,13 +10289,13 @@
       <c r="AB276"/>
       <c r="AC276"/>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:29">
       <c r="A277"/>
       <c r="B277"/>
       <c r="C277"/>
       <c r="D277"/>
       <c r="E277"/>
-      <c r="F277" s="49"/>
+      <c r="F277" s="48"/>
       <c r="H277"/>
       <c r="K277" s="18"/>
       <c r="L277" s="3"/>
@@ -10269,13 +10307,13 @@
       <c r="AB277"/>
       <c r="AC277"/>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:29">
       <c r="A278"/>
       <c r="B278"/>
       <c r="C278"/>
       <c r="D278"/>
       <c r="E278"/>
-      <c r="F278" s="49"/>
+      <c r="F278" s="48"/>
       <c r="H278"/>
       <c r="K278" s="18"/>
       <c r="L278" s="3"/>
@@ -10287,13 +10325,13 @@
       <c r="AB278"/>
       <c r="AC278"/>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:29">
       <c r="A279"/>
       <c r="B279"/>
       <c r="C279"/>
       <c r="D279"/>
       <c r="E279"/>
-      <c r="F279" s="49"/>
+      <c r="F279" s="48"/>
       <c r="H279"/>
       <c r="K279" s="18"/>
       <c r="L279" s="3"/>
@@ -10305,13 +10343,13 @@
       <c r="AB279"/>
       <c r="AC279"/>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:29">
       <c r="A280"/>
       <c r="B280"/>
       <c r="C280"/>
       <c r="D280"/>
       <c r="E280"/>
-      <c r="F280" s="49"/>
+      <c r="F280" s="48"/>
       <c r="H280"/>
       <c r="K280" s="18"/>
       <c r="L280" s="3"/>
@@ -10323,13 +10361,13 @@
       <c r="AB280"/>
       <c r="AC280"/>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29">
       <c r="A281"/>
       <c r="B281"/>
       <c r="C281"/>
       <c r="D281"/>
       <c r="E281"/>
-      <c r="F281" s="49"/>
+      <c r="F281" s="48"/>
       <c r="H281"/>
       <c r="K281" s="18"/>
       <c r="L281" s="3"/>
@@ -10341,13 +10379,13 @@
       <c r="AB281"/>
       <c r="AC281"/>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:29">
       <c r="A282"/>
       <c r="B282"/>
       <c r="C282"/>
       <c r="D282"/>
       <c r="E282"/>
-      <c r="F282" s="49"/>
+      <c r="F282" s="48"/>
       <c r="H282"/>
       <c r="K282" s="18"/>
       <c r="L282" s="3"/>
@@ -10359,13 +10397,13 @@
       <c r="AB282"/>
       <c r="AC282"/>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:29">
       <c r="A283"/>
       <c r="B283"/>
       <c r="C283"/>
       <c r="D283"/>
       <c r="E283"/>
-      <c r="F283" s="49"/>
+      <c r="F283" s="48"/>
       <c r="H283"/>
       <c r="K283" s="18"/>
       <c r="L283" s="3"/>
@@ -10377,13 +10415,13 @@
       <c r="AB283"/>
       <c r="AC283"/>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29">
       <c r="A284"/>
       <c r="B284"/>
       <c r="C284"/>
       <c r="D284"/>
       <c r="E284"/>
-      <c r="F284" s="49"/>
+      <c r="F284" s="48"/>
       <c r="H284"/>
       <c r="K284" s="18"/>
       <c r="L284" s="3"/>
@@ -10395,13 +10433,13 @@
       <c r="AB284"/>
       <c r="AC284"/>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:29">
       <c r="A285"/>
       <c r="B285"/>
       <c r="C285"/>
       <c r="D285"/>
       <c r="E285"/>
-      <c r="F285" s="49"/>
+      <c r="F285" s="48"/>
       <c r="H285"/>
       <c r="K285" s="18"/>
       <c r="L285" s="3"/>
@@ -10413,13 +10451,13 @@
       <c r="AB285"/>
       <c r="AC285"/>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:29">
       <c r="A286"/>
       <c r="B286"/>
       <c r="C286"/>
       <c r="D286"/>
       <c r="E286"/>
-      <c r="F286" s="49"/>
+      <c r="F286" s="48"/>
       <c r="H286"/>
       <c r="K286" s="18"/>
       <c r="L286" s="3"/>
@@ -10431,13 +10469,13 @@
       <c r="AB286"/>
       <c r="AC286"/>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:29">
       <c r="A287"/>
       <c r="B287"/>
       <c r="C287"/>
       <c r="D287"/>
       <c r="E287"/>
-      <c r="F287" s="49"/>
+      <c r="F287" s="48"/>
       <c r="H287"/>
       <c r="K287" s="18"/>
       <c r="L287" s="3"/>
@@ -10449,13 +10487,13 @@
       <c r="AB287"/>
       <c r="AC287"/>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:29">
       <c r="A288"/>
       <c r="B288"/>
       <c r="C288"/>
       <c r="D288"/>
       <c r="E288"/>
-      <c r="F288" s="49"/>
+      <c r="F288" s="48"/>
       <c r="H288"/>
       <c r="K288" s="18"/>
       <c r="L288" s="3"/>
@@ -10467,13 +10505,13 @@
       <c r="AB288"/>
       <c r="AC288"/>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29">
       <c r="A289"/>
       <c r="B289"/>
       <c r="C289"/>
       <c r="D289"/>
       <c r="E289"/>
-      <c r="F289" s="49"/>
+      <c r="F289" s="48"/>
       <c r="H289"/>
       <c r="K289" s="18"/>
       <c r="L289" s="3"/>
@@ -10485,13 +10523,13 @@
       <c r="AB289"/>
       <c r="AC289"/>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29">
       <c r="A290"/>
       <c r="B290"/>
       <c r="C290"/>
       <c r="D290"/>
       <c r="E290"/>
-      <c r="F290" s="49"/>
+      <c r="F290" s="48"/>
       <c r="H290"/>
       <c r="K290" s="18"/>
       <c r="L290" s="3"/>
@@ -10503,13 +10541,13 @@
       <c r="AB290"/>
       <c r="AC290"/>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29">
       <c r="A291"/>
       <c r="B291"/>
       <c r="C291"/>
       <c r="D291"/>
       <c r="E291"/>
-      <c r="F291" s="49"/>
+      <c r="F291" s="48"/>
       <c r="H291"/>
       <c r="K291" s="18"/>
       <c r="L291" s="3"/>
@@ -10521,13 +10559,13 @@
       <c r="AB291"/>
       <c r="AC291"/>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29">
       <c r="A292"/>
       <c r="B292"/>
       <c r="C292"/>
       <c r="D292"/>
       <c r="E292"/>
-      <c r="F292" s="49"/>
+      <c r="F292" s="48"/>
       <c r="H292"/>
       <c r="K292" s="18"/>
       <c r="L292" s="3"/>
@@ -10539,13 +10577,13 @@
       <c r="AB292"/>
       <c r="AC292"/>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29">
       <c r="A293"/>
       <c r="B293"/>
       <c r="C293"/>
       <c r="D293"/>
       <c r="E293"/>
-      <c r="F293" s="49"/>
+      <c r="F293" s="48"/>
       <c r="H293"/>
       <c r="K293" s="18"/>
       <c r="L293" s="3"/>
@@ -10557,13 +10595,13 @@
       <c r="AB293"/>
       <c r="AC293"/>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29">
       <c r="A294"/>
       <c r="B294"/>
       <c r="C294"/>
       <c r="D294"/>
       <c r="E294"/>
-      <c r="F294" s="49"/>
+      <c r="F294" s="48"/>
       <c r="H294"/>
       <c r="K294" s="18"/>
       <c r="L294" s="3"/>
@@ -10575,13 +10613,13 @@
       <c r="AB294"/>
       <c r="AC294"/>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29">
       <c r="A295"/>
       <c r="B295"/>
       <c r="C295"/>
       <c r="D295"/>
       <c r="E295"/>
-      <c r="F295" s="49"/>
+      <c r="F295" s="48"/>
       <c r="H295"/>
       <c r="K295" s="18"/>
       <c r="L295" s="3"/>
@@ -10593,13 +10631,13 @@
       <c r="AB295"/>
       <c r="AC295"/>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29">
       <c r="A296"/>
       <c r="B296"/>
       <c r="C296"/>
       <c r="D296"/>
       <c r="E296"/>
-      <c r="F296" s="49"/>
+      <c r="F296" s="48"/>
       <c r="H296"/>
       <c r="K296" s="18"/>
       <c r="L296" s="3"/>
@@ -10611,13 +10649,13 @@
       <c r="AB296"/>
       <c r="AC296"/>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29">
       <c r="A297"/>
       <c r="B297"/>
       <c r="C297"/>
       <c r="D297"/>
       <c r="E297"/>
-      <c r="F297" s="49"/>
+      <c r="F297" s="48"/>
       <c r="H297"/>
       <c r="K297" s="18"/>
       <c r="L297" s="3"/>
@@ -10629,13 +10667,13 @@
       <c r="AB297"/>
       <c r="AC297"/>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29">
       <c r="A298"/>
       <c r="B298"/>
       <c r="C298"/>
       <c r="D298"/>
       <c r="E298"/>
-      <c r="F298" s="49"/>
+      <c r="F298" s="48"/>
       <c r="H298"/>
       <c r="K298" s="18"/>
       <c r="L298" s="3"/>
@@ -10647,13 +10685,13 @@
       <c r="AB298"/>
       <c r="AC298"/>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29">
       <c r="A299"/>
       <c r="B299"/>
       <c r="C299"/>
       <c r="D299"/>
       <c r="E299"/>
-      <c r="F299" s="49"/>
+      <c r="F299" s="48"/>
       <c r="H299"/>
       <c r="K299" s="18"/>
       <c r="L299" s="3"/>
@@ -10665,13 +10703,13 @@
       <c r="AB299"/>
       <c r="AC299"/>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29">
       <c r="A300"/>
       <c r="B300"/>
       <c r="C300"/>
       <c r="D300"/>
       <c r="E300"/>
-      <c r="F300" s="49"/>
+      <c r="F300" s="48"/>
       <c r="H300"/>
       <c r="K300" s="18"/>
       <c r="L300" s="3"/>
@@ -10683,13 +10721,13 @@
       <c r="AB300"/>
       <c r="AC300"/>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29">
       <c r="A301"/>
       <c r="B301"/>
       <c r="C301"/>
       <c r="D301"/>
       <c r="E301"/>
-      <c r="F301" s="49"/>
+      <c r="F301" s="48"/>
       <c r="H301"/>
       <c r="K301" s="18"/>
       <c r="L301" s="3"/>
@@ -10701,13 +10739,13 @@
       <c r="AB301"/>
       <c r="AC301"/>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29">
       <c r="A302"/>
       <c r="B302"/>
       <c r="C302"/>
       <c r="D302"/>
       <c r="E302"/>
-      <c r="F302" s="49"/>
+      <c r="F302" s="48"/>
       <c r="H302"/>
       <c r="K302" s="18"/>
       <c r="L302" s="3"/>
@@ -10719,13 +10757,13 @@
       <c r="AB302"/>
       <c r="AC302"/>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29">
       <c r="A303"/>
       <c r="B303"/>
       <c r="C303"/>
       <c r="D303"/>
       <c r="E303"/>
-      <c r="F303" s="49"/>
+      <c r="F303" s="48"/>
       <c r="H303"/>
       <c r="K303" s="18"/>
       <c r="L303" s="3"/>
@@ -10737,13 +10775,13 @@
       <c r="AB303"/>
       <c r="AC303"/>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29">
       <c r="A304"/>
       <c r="B304"/>
       <c r="C304"/>
       <c r="D304"/>
       <c r="E304"/>
-      <c r="F304" s="49"/>
+      <c r="F304" s="48"/>
       <c r="H304"/>
       <c r="K304" s="18"/>
       <c r="L304" s="3"/>
@@ -10755,13 +10793,13 @@
       <c r="AB304"/>
       <c r="AC304"/>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29">
       <c r="A305"/>
       <c r="B305"/>
       <c r="C305"/>
       <c r="D305"/>
       <c r="E305"/>
-      <c r="F305" s="49"/>
+      <c r="F305" s="48"/>
       <c r="H305"/>
       <c r="K305" s="18"/>
       <c r="L305" s="3"/>
@@ -10773,13 +10811,13 @@
       <c r="AB305"/>
       <c r="AC305"/>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29">
       <c r="A306"/>
       <c r="B306"/>
       <c r="C306"/>
       <c r="D306"/>
       <c r="E306"/>
-      <c r="F306" s="49"/>
+      <c r="F306" s="48"/>
       <c r="H306"/>
       <c r="K306" s="18"/>
       <c r="L306" s="3"/>
@@ -10791,13 +10829,13 @@
       <c r="AB306"/>
       <c r="AC306"/>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29">
       <c r="A307"/>
       <c r="B307"/>
       <c r="C307"/>
       <c r="D307"/>
       <c r="E307"/>
-      <c r="F307" s="49"/>
+      <c r="F307" s="48"/>
       <c r="H307"/>
       <c r="K307" s="18"/>
       <c r="L307" s="3"/>
@@ -10809,13 +10847,13 @@
       <c r="AB307" s="21"/>
       <c r="AC307"/>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29">
       <c r="A308"/>
       <c r="B308"/>
       <c r="C308"/>
       <c r="D308"/>
       <c r="E308"/>
-      <c r="F308" s="49"/>
+      <c r="F308" s="48"/>
       <c r="H308"/>
       <c r="K308" s="18"/>
       <c r="L308" s="3"/>
@@ -10827,13 +10865,13 @@
       <c r="AB308"/>
       <c r="AC308"/>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:29">
       <c r="A309"/>
       <c r="B309"/>
       <c r="C309"/>
       <c r="D309"/>
       <c r="E309"/>
-      <c r="F309" s="49"/>
+      <c r="F309" s="48"/>
       <c r="H309"/>
       <c r="K309" s="18"/>
       <c r="L309" s="3"/>
@@ -10845,13 +10883,13 @@
       <c r="AB309"/>
       <c r="AC309"/>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:29">
       <c r="A310"/>
       <c r="B310"/>
       <c r="C310"/>
       <c r="D310"/>
       <c r="E310"/>
-      <c r="F310" s="49"/>
+      <c r="F310" s="48"/>
       <c r="H310"/>
       <c r="K310" s="18"/>
       <c r="L310" s="3"/>
@@ -10863,13 +10901,13 @@
       <c r="AB310"/>
       <c r="AC310"/>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:29">
       <c r="A311"/>
       <c r="B311"/>
       <c r="C311"/>
       <c r="D311"/>
       <c r="E311"/>
-      <c r="F311" s="49"/>
+      <c r="F311" s="48"/>
       <c r="H311"/>
       <c r="K311" s="18"/>
       <c r="L311" s="3"/>
@@ -10881,13 +10919,13 @@
       <c r="AB311"/>
       <c r="AC311"/>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:29">
       <c r="A312"/>
       <c r="B312"/>
       <c r="C312"/>
       <c r="D312"/>
       <c r="E312"/>
-      <c r="F312" s="49"/>
+      <c r="F312" s="48"/>
       <c r="H312"/>
       <c r="K312" s="18"/>
       <c r="L312" s="3"/>
@@ -10899,13 +10937,13 @@
       <c r="AB312"/>
       <c r="AC312"/>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:29">
       <c r="A313"/>
       <c r="B313"/>
       <c r="C313"/>
       <c r="D313"/>
       <c r="E313"/>
-      <c r="F313" s="49"/>
+      <c r="F313" s="48"/>
       <c r="H313"/>
       <c r="K313" s="18"/>
       <c r="L313" s="3"/>
@@ -10917,13 +10955,13 @@
       <c r="AB313"/>
       <c r="AC313"/>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:29">
       <c r="A314"/>
       <c r="B314"/>
       <c r="C314"/>
       <c r="D314"/>
       <c r="E314"/>
-      <c r="F314" s="49"/>
+      <c r="F314" s="48"/>
       <c r="H314"/>
       <c r="K314" s="18"/>
       <c r="L314" s="3"/>
@@ -10935,13 +10973,13 @@
       <c r="AB314"/>
       <c r="AC314"/>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:29">
       <c r="A315"/>
       <c r="B315"/>
       <c r="C315"/>
       <c r="D315"/>
       <c r="E315"/>
-      <c r="F315" s="49"/>
+      <c r="F315" s="48"/>
       <c r="H315"/>
       <c r="K315" s="18"/>
       <c r="L315" s="3"/>
@@ -10953,13 +10991,13 @@
       <c r="AB315"/>
       <c r="AC315"/>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:29">
       <c r="A316"/>
       <c r="B316"/>
       <c r="C316"/>
       <c r="D316"/>
       <c r="E316"/>
-      <c r="F316" s="49"/>
+      <c r="F316" s="48"/>
       <c r="H316"/>
       <c r="K316" s="18"/>
       <c r="L316" s="3"/>
@@ -10971,13 +11009,13 @@
       <c r="AB316"/>
       <c r="AC316"/>
     </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:29">
       <c r="A317"/>
       <c r="B317"/>
       <c r="C317"/>
       <c r="D317"/>
       <c r="E317"/>
-      <c r="F317" s="49"/>
+      <c r="F317" s="48"/>
       <c r="H317"/>
       <c r="K317" s="18"/>
       <c r="L317" s="3"/>
@@ -10989,13 +11027,13 @@
       <c r="AB317"/>
       <c r="AC317"/>
     </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:29">
       <c r="A318"/>
       <c r="B318"/>
       <c r="C318"/>
       <c r="D318"/>
       <c r="E318"/>
-      <c r="F318" s="49"/>
+      <c r="F318" s="48"/>
       <c r="H318"/>
       <c r="K318" s="18"/>
       <c r="L318" s="3"/>
@@ -11007,13 +11045,13 @@
       <c r="AB318"/>
       <c r="AC318"/>
     </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:29">
       <c r="A319"/>
       <c r="B319"/>
       <c r="C319"/>
       <c r="D319"/>
       <c r="E319"/>
-      <c r="F319" s="49"/>
+      <c r="F319" s="48"/>
       <c r="H319"/>
       <c r="K319" s="18"/>
       <c r="L319" s="3"/>
@@ -11025,13 +11063,13 @@
       <c r="AB319"/>
       <c r="AC319"/>
     </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:29">
       <c r="A320"/>
       <c r="B320"/>
       <c r="C320"/>
       <c r="D320"/>
       <c r="E320"/>
-      <c r="F320" s="49"/>
+      <c r="F320" s="48"/>
       <c r="H320"/>
       <c r="K320" s="18"/>
       <c r="L320" s="3"/>
@@ -11043,13 +11081,13 @@
       <c r="AB320"/>
       <c r="AC320"/>
     </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:29">
       <c r="A321"/>
       <c r="B321"/>
       <c r="C321"/>
       <c r="D321"/>
       <c r="E321"/>
-      <c r="F321" s="49"/>
+      <c r="F321" s="48"/>
       <c r="H321"/>
       <c r="K321" s="18"/>
       <c r="L321" s="3"/>
@@ -11061,13 +11099,13 @@
       <c r="AB321"/>
       <c r="AC321"/>
     </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:29">
       <c r="A322"/>
       <c r="B322"/>
       <c r="C322"/>
       <c r="D322"/>
       <c r="E322"/>
-      <c r="F322" s="49"/>
+      <c r="F322" s="48"/>
       <c r="H322"/>
       <c r="K322" s="18"/>
       <c r="L322" s="3"/>
@@ -11079,13 +11117,13 @@
       <c r="AB322"/>
       <c r="AC322"/>
     </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:29">
       <c r="A323"/>
       <c r="B323"/>
       <c r="C323"/>
       <c r="D323"/>
       <c r="E323"/>
-      <c r="F323" s="49"/>
+      <c r="F323" s="48"/>
       <c r="H323"/>
       <c r="K323" s="18"/>
       <c r="L323" s="3"/>
@@ -11097,13 +11135,13 @@
       <c r="AB323"/>
       <c r="AC323"/>
     </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:29">
       <c r="A324"/>
       <c r="B324"/>
       <c r="C324"/>
       <c r="D324"/>
       <c r="E324"/>
-      <c r="F324" s="49"/>
+      <c r="F324" s="48"/>
       <c r="H324"/>
       <c r="K324" s="18"/>
       <c r="L324" s="3"/>
@@ -11115,13 +11153,13 @@
       <c r="AB324"/>
       <c r="AC324"/>
     </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:29">
       <c r="A325"/>
       <c r="B325"/>
       <c r="C325"/>
       <c r="D325"/>
       <c r="E325"/>
-      <c r="F325" s="49"/>
+      <c r="F325" s="48"/>
       <c r="H325"/>
       <c r="K325" s="18"/>
       <c r="L325" s="3"/>
@@ -11133,13 +11171,13 @@
       <c r="AB325"/>
       <c r="AC325"/>
     </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:29">
       <c r="A326"/>
       <c r="B326"/>
       <c r="C326"/>
       <c r="D326"/>
       <c r="E326"/>
-      <c r="F326" s="49"/>
+      <c r="F326" s="48"/>
       <c r="H326"/>
       <c r="K326" s="18"/>
       <c r="L326" s="3"/>
@@ -11151,13 +11189,13 @@
       <c r="AB326"/>
       <c r="AC326"/>
     </row>
-    <row r="327" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:29">
       <c r="A327"/>
       <c r="B327"/>
       <c r="C327"/>
       <c r="D327"/>
       <c r="E327"/>
-      <c r="F327" s="49"/>
+      <c r="F327" s="48"/>
       <c r="H327"/>
       <c r="K327" s="18"/>
       <c r="L327" s="3"/>
@@ -11169,13 +11207,13 @@
       <c r="AB327"/>
       <c r="AC327"/>
     </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:29">
       <c r="A328"/>
       <c r="B328"/>
       <c r="C328"/>
       <c r="D328"/>
       <c r="E328"/>
-      <c r="F328" s="49"/>
+      <c r="F328" s="48"/>
       <c r="H328"/>
       <c r="K328" s="18"/>
       <c r="L328" s="3"/>
@@ -11187,13 +11225,13 @@
       <c r="AB328"/>
       <c r="AC328"/>
     </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:29">
       <c r="A329"/>
       <c r="B329"/>
       <c r="C329"/>
       <c r="D329"/>
       <c r="E329"/>
-      <c r="F329" s="49"/>
+      <c r="F329" s="48"/>
       <c r="H329"/>
       <c r="K329" s="18"/>
       <c r="L329" s="3"/>
@@ -11205,13 +11243,13 @@
       <c r="AB329"/>
       <c r="AC329"/>
     </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:29">
       <c r="A330"/>
       <c r="B330"/>
       <c r="C330"/>
       <c r="D330"/>
       <c r="E330"/>
-      <c r="F330" s="49"/>
+      <c r="F330" s="48"/>
       <c r="H330"/>
       <c r="K330" s="18"/>
       <c r="L330" s="3"/>
@@ -11223,13 +11261,13 @@
       <c r="AB330"/>
       <c r="AC330"/>
     </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:29">
       <c r="A331"/>
       <c r="B331"/>
       <c r="C331"/>
       <c r="D331"/>
       <c r="E331"/>
-      <c r="F331" s="49"/>
+      <c r="F331" s="48"/>
       <c r="H331"/>
       <c r="K331" s="18"/>
       <c r="L331" s="3"/>
@@ -11241,13 +11279,13 @@
       <c r="AB331"/>
       <c r="AC331"/>
     </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:29">
       <c r="A332"/>
       <c r="B332"/>
       <c r="C332"/>
       <c r="D332"/>
       <c r="E332"/>
-      <c r="F332" s="49"/>
+      <c r="F332" s="48"/>
       <c r="H332"/>
       <c r="K332" s="18"/>
       <c r="L332" s="3"/>
@@ -11259,13 +11297,13 @@
       <c r="AB332"/>
       <c r="AC332"/>
     </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:29">
       <c r="A333"/>
       <c r="B333"/>
       <c r="C333"/>
       <c r="D333"/>
       <c r="E333"/>
-      <c r="F333" s="49"/>
+      <c r="F333" s="48"/>
       <c r="H333"/>
       <c r="K333" s="18"/>
       <c r="L333" s="3"/>
@@ -11277,13 +11315,13 @@
       <c r="AB333"/>
       <c r="AC333"/>
     </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:29">
       <c r="A334"/>
       <c r="B334"/>
       <c r="C334"/>
       <c r="D334"/>
       <c r="E334"/>
-      <c r="F334" s="49"/>
+      <c r="F334" s="48"/>
       <c r="H334"/>
       <c r="K334" s="18"/>
       <c r="L334" s="3"/>
@@ -11295,13 +11333,13 @@
       <c r="AB334"/>
       <c r="AC334"/>
     </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:29">
       <c r="A335"/>
       <c r="B335"/>
       <c r="C335"/>
       <c r="D335"/>
       <c r="E335"/>
-      <c r="F335" s="49"/>
+      <c r="F335" s="48"/>
       <c r="H335"/>
       <c r="K335" s="18"/>
       <c r="L335" s="3"/>
@@ -11313,13 +11351,13 @@
       <c r="AB335"/>
       <c r="AC335"/>
     </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:29">
       <c r="A336"/>
       <c r="B336"/>
       <c r="C336"/>
       <c r="D336"/>
       <c r="E336"/>
-      <c r="F336" s="49"/>
+      <c r="F336" s="48"/>
       <c r="H336"/>
       <c r="K336" s="18"/>
       <c r="L336" s="3"/>
@@ -11331,13 +11369,13 @@
       <c r="AB336"/>
       <c r="AC336"/>
     </row>
-    <row r="337" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:29">
       <c r="A337"/>
       <c r="B337"/>
       <c r="C337"/>
       <c r="D337"/>
       <c r="E337"/>
-      <c r="F337" s="49"/>
+      <c r="F337" s="48"/>
       <c r="H337"/>
       <c r="K337" s="18"/>
       <c r="L337" s="3"/>
@@ -11349,13 +11387,13 @@
       <c r="AB337"/>
       <c r="AC337"/>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:29">
       <c r="A338"/>
       <c r="B338"/>
       <c r="C338"/>
       <c r="D338"/>
       <c r="E338"/>
-      <c r="F338" s="49"/>
+      <c r="F338" s="48"/>
       <c r="H338"/>
       <c r="K338" s="18"/>
       <c r="L338" s="3"/>
@@ -11367,13 +11405,13 @@
       <c r="AB338"/>
       <c r="AC338"/>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:29">
       <c r="A339"/>
       <c r="B339"/>
       <c r="C339"/>
       <c r="D339"/>
       <c r="E339"/>
-      <c r="F339" s="49"/>
+      <c r="F339" s="48"/>
       <c r="H339"/>
       <c r="K339" s="18"/>
       <c r="L339" s="3"/>
@@ -11385,13 +11423,13 @@
       <c r="AB339"/>
       <c r="AC339"/>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:29">
       <c r="A340"/>
       <c r="B340"/>
       <c r="C340"/>
       <c r="D340"/>
       <c r="E340"/>
-      <c r="F340" s="49"/>
+      <c r="F340" s="48"/>
       <c r="H340"/>
       <c r="K340" s="18"/>
       <c r="L340" s="3"/>
@@ -11403,13 +11441,13 @@
       <c r="AB340"/>
       <c r="AC340"/>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:29">
       <c r="A341"/>
       <c r="B341"/>
       <c r="C341"/>
       <c r="D341"/>
       <c r="E341"/>
-      <c r="F341" s="49"/>
+      <c r="F341" s="48"/>
       <c r="H341"/>
       <c r="K341" s="18"/>
       <c r="L341" s="3"/>
@@ -11421,13 +11459,13 @@
       <c r="AB341"/>
       <c r="AC341"/>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:29">
       <c r="A342"/>
       <c r="B342"/>
       <c r="C342"/>
       <c r="D342"/>
       <c r="E342"/>
-      <c r="F342" s="49"/>
+      <c r="F342" s="48"/>
       <c r="H342"/>
       <c r="K342" s="18"/>
       <c r="L342" s="3"/>
@@ -11439,13 +11477,13 @@
       <c r="AB342"/>
       <c r="AC342"/>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:29">
       <c r="A343"/>
       <c r="B343"/>
       <c r="C343"/>
       <c r="D343"/>
       <c r="E343"/>
-      <c r="F343" s="49"/>
+      <c r="F343" s="48"/>
       <c r="H343"/>
       <c r="K343" s="18"/>
       <c r="L343" s="3"/>
@@ -11457,13 +11495,13 @@
       <c r="AB343"/>
       <c r="AC343"/>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:29">
       <c r="A344"/>
       <c r="B344"/>
       <c r="C344"/>
       <c r="D344"/>
       <c r="E344"/>
-      <c r="F344" s="49"/>
+      <c r="F344" s="48"/>
       <c r="H344"/>
       <c r="K344" s="18"/>
       <c r="L344" s="3"/>
@@ -11475,13 +11513,13 @@
       <c r="AB344"/>
       <c r="AC344"/>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:29">
       <c r="A345"/>
       <c r="B345"/>
       <c r="C345"/>
       <c r="D345"/>
       <c r="E345"/>
-      <c r="F345" s="49"/>
+      <c r="F345" s="48"/>
       <c r="H345"/>
       <c r="K345" s="18"/>
       <c r="L345" s="3"/>
@@ -11493,13 +11531,13 @@
       <c r="AB345"/>
       <c r="AC345"/>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:29">
       <c r="A346"/>
       <c r="B346"/>
       <c r="C346"/>
       <c r="D346"/>
       <c r="E346"/>
-      <c r="F346" s="49"/>
+      <c r="F346" s="48"/>
       <c r="H346"/>
       <c r="K346" s="18"/>
       <c r="L346" s="3"/>
@@ -11511,13 +11549,13 @@
       <c r="AB346"/>
       <c r="AC346"/>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:29">
       <c r="A347"/>
       <c r="B347"/>
       <c r="C347"/>
       <c r="D347"/>
       <c r="E347"/>
-      <c r="F347" s="49"/>
+      <c r="F347" s="48"/>
       <c r="H347"/>
       <c r="K347" s="18"/>
       <c r="L347" s="3"/>
@@ -11529,13 +11567,13 @@
       <c r="AB347"/>
       <c r="AC347"/>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:29">
       <c r="A348"/>
       <c r="B348"/>
       <c r="C348"/>
       <c r="D348"/>
       <c r="E348"/>
-      <c r="F348" s="49"/>
+      <c r="F348" s="48"/>
       <c r="H348"/>
       <c r="K348" s="18"/>
       <c r="L348" s="3"/>
@@ -11547,13 +11585,13 @@
       <c r="AB348"/>
       <c r="AC348"/>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:29">
       <c r="A349"/>
       <c r="B349"/>
       <c r="C349"/>
       <c r="D349"/>
       <c r="E349"/>
-      <c r="F349" s="49"/>
+      <c r="F349" s="48"/>
       <c r="H349"/>
       <c r="K349" s="18"/>
       <c r="L349" s="3"/>
@@ -11565,13 +11603,13 @@
       <c r="AB349"/>
       <c r="AC349"/>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:29">
       <c r="A350"/>
       <c r="B350"/>
       <c r="C350"/>
       <c r="D350"/>
       <c r="E350"/>
-      <c r="F350" s="49"/>
+      <c r="F350" s="48"/>
       <c r="H350"/>
       <c r="K350" s="18"/>
       <c r="L350" s="3"/>
@@ -11583,13 +11621,13 @@
       <c r="AB350"/>
       <c r="AC350"/>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:29">
       <c r="A351"/>
       <c r="B351"/>
       <c r="C351"/>
       <c r="D351"/>
       <c r="E351"/>
-      <c r="F351" s="49"/>
+      <c r="F351" s="48"/>
       <c r="H351"/>
       <c r="K351" s="18"/>
       <c r="L351" s="3"/>
@@ -11601,13 +11639,13 @@
       <c r="AB351"/>
       <c r="AC351"/>
     </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:29">
       <c r="A352"/>
       <c r="B352"/>
       <c r="C352"/>
       <c r="D352"/>
       <c r="E352"/>
-      <c r="F352" s="49"/>
+      <c r="F352" s="48"/>
       <c r="H352"/>
       <c r="K352" s="18"/>
       <c r="L352" s="3"/>
@@ -11619,13 +11657,13 @@
       <c r="AB352"/>
       <c r="AC352"/>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:29">
       <c r="A353"/>
       <c r="B353"/>
       <c r="C353"/>
       <c r="D353"/>
       <c r="E353"/>
-      <c r="F353" s="49"/>
+      <c r="F353" s="48"/>
       <c r="H353"/>
       <c r="K353" s="18"/>
       <c r="L353" s="3"/>
@@ -11637,13 +11675,13 @@
       <c r="AB353"/>
       <c r="AC353"/>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:29">
       <c r="A354"/>
       <c r="B354"/>
       <c r="C354"/>
       <c r="D354"/>
       <c r="E354"/>
-      <c r="F354" s="49"/>
+      <c r="F354" s="48"/>
       <c r="H354"/>
       <c r="K354" s="18"/>
       <c r="L354" s="3"/>
@@ -11655,13 +11693,13 @@
       <c r="AB354"/>
       <c r="AC354"/>
     </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:29">
       <c r="A355"/>
       <c r="B355"/>
       <c r="C355"/>
       <c r="D355"/>
       <c r="E355"/>
-      <c r="F355" s="49"/>
+      <c r="F355" s="48"/>
       <c r="H355"/>
       <c r="K355" s="18"/>
       <c r="L355" s="3"/>
@@ -11673,13 +11711,13 @@
       <c r="AB355"/>
       <c r="AC355"/>
     </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:29">
       <c r="A356"/>
       <c r="B356"/>
       <c r="C356"/>
       <c r="D356"/>
       <c r="E356"/>
-      <c r="F356" s="49"/>
+      <c r="F356" s="48"/>
       <c r="H356"/>
       <c r="K356" s="18"/>
       <c r="L356" s="3"/>
@@ -11691,13 +11729,13 @@
       <c r="AB356"/>
       <c r="AC356"/>
     </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:29">
       <c r="A357"/>
       <c r="B357"/>
       <c r="C357"/>
       <c r="D357"/>
       <c r="E357"/>
-      <c r="F357" s="49"/>
+      <c r="F357" s="48"/>
       <c r="H357"/>
       <c r="K357" s="18"/>
       <c r="L357" s="3"/>
@@ -11709,13 +11747,13 @@
       <c r="AB357"/>
       <c r="AC357"/>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:29">
       <c r="A358"/>
       <c r="B358"/>
       <c r="C358"/>
       <c r="D358"/>
       <c r="E358"/>
-      <c r="F358" s="49"/>
+      <c r="F358" s="48"/>
       <c r="H358"/>
       <c r="K358" s="18"/>
       <c r="L358" s="3"/>
@@ -11727,13 +11765,13 @@
       <c r="AB358"/>
       <c r="AC358"/>
     </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:29">
       <c r="A359"/>
       <c r="B359"/>
       <c r="C359"/>
       <c r="D359"/>
       <c r="E359"/>
-      <c r="F359" s="49"/>
+      <c r="F359" s="48"/>
       <c r="H359"/>
       <c r="K359" s="18"/>
       <c r="L359" s="3"/>
@@ -11745,13 +11783,13 @@
       <c r="AB359"/>
       <c r="AC359"/>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:29">
       <c r="A360"/>
       <c r="B360"/>
       <c r="C360"/>
       <c r="D360"/>
       <c r="E360"/>
-      <c r="F360" s="49"/>
+      <c r="F360" s="48"/>
       <c r="H360"/>
       <c r="K360" s="18"/>
       <c r="L360" s="3"/>
@@ -11763,13 +11801,13 @@
       <c r="AB360"/>
       <c r="AC360"/>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:29">
       <c r="A361"/>
       <c r="B361"/>
       <c r="C361"/>
       <c r="D361"/>
       <c r="E361"/>
-      <c r="F361" s="49"/>
+      <c r="F361" s="48"/>
       <c r="H361"/>
       <c r="K361" s="18"/>
       <c r="L361" s="3"/>
@@ -11781,13 +11819,13 @@
       <c r="AB361"/>
       <c r="AC361"/>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:29">
       <c r="A362"/>
       <c r="B362"/>
       <c r="C362"/>
       <c r="D362"/>
       <c r="E362"/>
-      <c r="F362" s="49"/>
+      <c r="F362" s="48"/>
       <c r="H362"/>
       <c r="K362" s="18"/>
       <c r="L362" s="3"/>
@@ -11799,13 +11837,13 @@
       <c r="AB362"/>
       <c r="AC362"/>
     </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:29">
       <c r="A363"/>
       <c r="B363"/>
       <c r="C363"/>
       <c r="D363"/>
       <c r="E363"/>
-      <c r="F363" s="49"/>
+      <c r="F363" s="48"/>
       <c r="H363"/>
       <c r="K363" s="18"/>
       <c r="L363" s="3"/>
@@ -11817,13 +11855,13 @@
       <c r="AB363"/>
       <c r="AC363"/>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:29">
       <c r="A364"/>
       <c r="B364"/>
       <c r="C364"/>
       <c r="D364"/>
       <c r="E364"/>
-      <c r="F364" s="49"/>
+      <c r="F364" s="48"/>
       <c r="H364"/>
       <c r="K364" s="18"/>
       <c r="L364" s="3"/>
@@ -11835,13 +11873,13 @@
       <c r="AB364"/>
       <c r="AC364"/>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:29">
       <c r="A365"/>
       <c r="B365"/>
       <c r="C365"/>
       <c r="D365"/>
       <c r="E365"/>
-      <c r="F365" s="49"/>
+      <c r="F365" s="48"/>
       <c r="H365"/>
       <c r="K365" s="18"/>
       <c r="L365" s="3"/>
@@ -11853,13 +11891,13 @@
       <c r="AB365"/>
       <c r="AC365"/>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:29">
       <c r="A366"/>
       <c r="B366"/>
       <c r="C366"/>
       <c r="D366"/>
       <c r="E366"/>
-      <c r="F366" s="49"/>
+      <c r="F366" s="48"/>
       <c r="H366"/>
       <c r="K366" s="18"/>
       <c r="L366" s="3"/>
@@ -11871,13 +11909,13 @@
       <c r="AB366"/>
       <c r="AC366"/>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:29">
       <c r="A367"/>
       <c r="B367"/>
       <c r="C367"/>
       <c r="D367"/>
       <c r="E367"/>
-      <c r="F367" s="49"/>
+      <c r="F367" s="48"/>
       <c r="H367"/>
       <c r="K367" s="18"/>
       <c r="L367" s="3"/>
@@ -11889,13 +11927,13 @@
       <c r="AB367"/>
       <c r="AC367"/>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:29">
       <c r="A368"/>
       <c r="B368"/>
       <c r="C368"/>
       <c r="D368"/>
       <c r="E368"/>
-      <c r="F368" s="49"/>
+      <c r="F368" s="48"/>
       <c r="H368"/>
       <c r="K368" s="18"/>
       <c r="L368" s="3"/>
@@ -11907,13 +11945,13 @@
       <c r="AB368"/>
       <c r="AC368"/>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:29">
       <c r="A369"/>
       <c r="B369"/>
       <c r="C369"/>
       <c r="D369"/>
       <c r="E369"/>
-      <c r="F369" s="49"/>
+      <c r="F369" s="48"/>
       <c r="H369"/>
       <c r="K369" s="18"/>
       <c r="L369" s="3"/>
@@ -11925,13 +11963,13 @@
       <c r="AB369"/>
       <c r="AC369"/>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:29">
       <c r="A370"/>
       <c r="B370"/>
       <c r="C370"/>
       <c r="D370"/>
       <c r="E370"/>
-      <c r="F370" s="49"/>
+      <c r="F370" s="48"/>
       <c r="H370"/>
       <c r="K370" s="18"/>
       <c r="L370" s="3"/>
@@ -11943,13 +11981,13 @@
       <c r="AB370"/>
       <c r="AC370"/>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:29">
       <c r="A371"/>
       <c r="B371"/>
       <c r="C371"/>
       <c r="D371"/>
       <c r="E371"/>
-      <c r="F371" s="49"/>
+      <c r="F371" s="48"/>
       <c r="H371"/>
       <c r="K371" s="18"/>
       <c r="L371" s="3"/>
@@ -11961,13 +11999,13 @@
       <c r="AB371"/>
       <c r="AC371"/>
     </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:29">
       <c r="A372"/>
       <c r="B372"/>
       <c r="C372"/>
       <c r="D372"/>
       <c r="E372"/>
-      <c r="F372" s="49"/>
+      <c r="F372" s="48"/>
       <c r="H372"/>
       <c r="K372" s="18"/>
       <c r="L372" s="3"/>
@@ -11979,13 +12017,13 @@
       <c r="AB372"/>
       <c r="AC372"/>
     </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:29">
       <c r="A373"/>
       <c r="B373"/>
       <c r="C373"/>
       <c r="D373"/>
       <c r="E373"/>
-      <c r="F373" s="49"/>
+      <c r="F373" s="48"/>
       <c r="H373"/>
       <c r="K373" s="18"/>
       <c r="L373" s="3"/>
@@ -11997,13 +12035,13 @@
       <c r="AB373"/>
       <c r="AC373"/>
     </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:29">
       <c r="A374"/>
       <c r="B374"/>
       <c r="C374"/>
       <c r="D374"/>
       <c r="E374"/>
-      <c r="F374" s="49"/>
+      <c r="F374" s="48"/>
       <c r="H374"/>
       <c r="K374" s="18"/>
       <c r="L374" s="3"/>
@@ -12015,13 +12053,13 @@
       <c r="AB374"/>
       <c r="AC374"/>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:29">
       <c r="A375"/>
       <c r="B375"/>
       <c r="C375"/>
       <c r="D375"/>
       <c r="E375"/>
-      <c r="F375" s="49"/>
+      <c r="F375" s="48"/>
       <c r="H375"/>
       <c r="K375" s="18"/>
       <c r="L375" s="3"/>
@@ -12033,13 +12071,13 @@
       <c r="AB375"/>
       <c r="AC375"/>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:29">
       <c r="A376"/>
       <c r="B376"/>
       <c r="C376"/>
       <c r="D376"/>
       <c r="E376"/>
-      <c r="F376" s="49"/>
+      <c r="F376" s="48"/>
       <c r="H376"/>
       <c r="K376" s="18"/>
       <c r="L376" s="3"/>
@@ -12051,13 +12089,13 @@
       <c r="AB376"/>
       <c r="AC376"/>
     </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:29">
       <c r="A377"/>
       <c r="B377"/>
       <c r="C377"/>
       <c r="D377"/>
       <c r="E377"/>
-      <c r="F377" s="49"/>
+      <c r="F377" s="48"/>
       <c r="H377"/>
       <c r="K377" s="18"/>
       <c r="L377" s="3"/>
@@ -12069,13 +12107,13 @@
       <c r="AB377"/>
       <c r="AC377"/>
     </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:29">
       <c r="A378"/>
       <c r="B378"/>
       <c r="C378"/>
       <c r="D378"/>
       <c r="E378"/>
-      <c r="F378" s="49"/>
+      <c r="F378" s="48"/>
       <c r="H378"/>
       <c r="K378" s="18"/>
       <c r="L378" s="3"/>
@@ -12087,13 +12125,13 @@
       <c r="AB378"/>
       <c r="AC378"/>
     </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:29">
       <c r="A379"/>
       <c r="B379"/>
       <c r="C379"/>
       <c r="D379"/>
       <c r="E379"/>
-      <c r="F379" s="49"/>
+      <c r="F379" s="48"/>
       <c r="H379"/>
       <c r="K379" s="18"/>
       <c r="L379" s="3"/>
@@ -12105,13 +12143,13 @@
       <c r="AB379"/>
       <c r="AC379"/>
     </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:29">
       <c r="A380"/>
       <c r="B380"/>
       <c r="C380"/>
       <c r="D380"/>
       <c r="E380"/>
-      <c r="F380" s="49"/>
+      <c r="F380" s="48"/>
       <c r="H380"/>
       <c r="K380" s="18"/>
       <c r="L380" s="3"/>
@@ -12123,13 +12161,13 @@
       <c r="AB380"/>
       <c r="AC380"/>
     </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:29">
       <c r="A381"/>
       <c r="B381"/>
       <c r="C381"/>
       <c r="D381"/>
       <c r="E381"/>
-      <c r="F381" s="49"/>
+      <c r="F381" s="48"/>
       <c r="H381"/>
       <c r="K381" s="18"/>
       <c r="L381" s="3"/>
@@ -12141,13 +12179,13 @@
       <c r="AB381"/>
       <c r="AC381"/>
     </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:29">
       <c r="A382"/>
       <c r="B382"/>
       <c r="C382"/>
       <c r="D382"/>
       <c r="E382"/>
-      <c r="F382" s="49"/>
+      <c r="F382" s="48"/>
       <c r="H382"/>
       <c r="K382" s="18"/>
       <c r="L382" s="3"/>
@@ -12159,13 +12197,13 @@
       <c r="AB382"/>
       <c r="AC382"/>
     </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:29">
       <c r="A383"/>
       <c r="B383"/>
       <c r="C383"/>
       <c r="D383"/>
       <c r="E383"/>
-      <c r="F383" s="49"/>
+      <c r="F383" s="48"/>
       <c r="H383"/>
       <c r="K383" s="18"/>
       <c r="L383" s="3"/>
@@ -12177,13 +12215,13 @@
       <c r="AB383"/>
       <c r="AC383"/>
     </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:29">
       <c r="A384"/>
       <c r="B384"/>
       <c r="C384"/>
       <c r="D384"/>
       <c r="E384"/>
-      <c r="F384" s="49"/>
+      <c r="F384" s="48"/>
       <c r="H384"/>
       <c r="K384" s="18"/>
       <c r="L384" s="3"/>
@@ -12195,13 +12233,13 @@
       <c r="AB384"/>
       <c r="AC384"/>
     </row>
-    <row r="385" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:29">
       <c r="A385"/>
       <c r="B385"/>
       <c r="C385"/>
       <c r="D385"/>
       <c r="E385"/>
-      <c r="F385" s="49"/>
+      <c r="F385" s="48"/>
       <c r="H385"/>
       <c r="K385" s="18"/>
       <c r="L385" s="3"/>
@@ -12213,13 +12251,13 @@
       <c r="AB385"/>
       <c r="AC385"/>
     </row>
-    <row r="386" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:29">
       <c r="A386"/>
       <c r="B386"/>
       <c r="C386"/>
       <c r="D386"/>
       <c r="E386"/>
-      <c r="F386" s="49"/>
+      <c r="F386" s="48"/>
       <c r="H386"/>
       <c r="K386" s="18"/>
       <c r="L386" s="3"/>
@@ -12231,13 +12269,13 @@
       <c r="AB386"/>
       <c r="AC386"/>
     </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:29">
       <c r="A387"/>
       <c r="B387"/>
       <c r="C387"/>
       <c r="D387"/>
       <c r="E387"/>
-      <c r="F387" s="49"/>
+      <c r="F387" s="48"/>
       <c r="H387"/>
       <c r="K387" s="18"/>
       <c r="L387" s="3"/>
@@ -12249,13 +12287,13 @@
       <c r="AB387"/>
       <c r="AC387"/>
     </row>
-    <row r="388" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:29">
       <c r="A388"/>
       <c r="B388"/>
       <c r="C388"/>
       <c r="D388"/>
       <c r="E388"/>
-      <c r="F388" s="49"/>
+      <c r="F388" s="48"/>
       <c r="H388"/>
       <c r="K388" s="18"/>
       <c r="L388" s="3"/>
@@ -12267,13 +12305,13 @@
       <c r="AB388"/>
       <c r="AC388"/>
     </row>
-    <row r="389" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:29">
       <c r="A389"/>
       <c r="B389"/>
       <c r="C389"/>
       <c r="D389"/>
       <c r="E389"/>
-      <c r="F389" s="49"/>
+      <c r="F389" s="48"/>
       <c r="H389"/>
       <c r="K389" s="18"/>
       <c r="L389" s="3"/>
@@ -12285,13 +12323,13 @@
       <c r="AB389"/>
       <c r="AC389"/>
     </row>
-    <row r="390" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:29">
       <c r="A390"/>
       <c r="B390"/>
       <c r="C390"/>
       <c r="D390"/>
       <c r="E390"/>
-      <c r="F390" s="49"/>
+      <c r="F390" s="48"/>
       <c r="H390"/>
       <c r="K390" s="18"/>
       <c r="L390" s="3"/>
@@ -12303,13 +12341,13 @@
       <c r="AB390"/>
       <c r="AC390"/>
     </row>
-    <row r="391" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:29">
       <c r="A391"/>
       <c r="B391"/>
       <c r="C391"/>
       <c r="D391"/>
       <c r="E391"/>
-      <c r="F391" s="49"/>
+      <c r="F391" s="48"/>
       <c r="H391"/>
       <c r="K391" s="18"/>
       <c r="L391" s="3"/>
@@ -12321,13 +12359,13 @@
       <c r="AB391"/>
       <c r="AC391"/>
     </row>
-    <row r="392" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:29">
       <c r="A392"/>
       <c r="B392"/>
       <c r="C392"/>
       <c r="D392"/>
       <c r="E392"/>
-      <c r="F392" s="49"/>
+      <c r="F392" s="48"/>
       <c r="H392"/>
       <c r="K392" s="18"/>
       <c r="L392" s="3"/>
@@ -12339,13 +12377,13 @@
       <c r="AB392"/>
       <c r="AC392"/>
     </row>
-    <row r="393" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:29">
       <c r="A393"/>
       <c r="B393"/>
       <c r="C393"/>
       <c r="D393"/>
       <c r="E393"/>
-      <c r="F393" s="49"/>
+      <c r="F393" s="48"/>
       <c r="H393"/>
       <c r="K393" s="18"/>
       <c r="L393" s="3"/>
@@ -12357,13 +12395,13 @@
       <c r="AB393"/>
       <c r="AC393"/>
     </row>
-    <row r="394" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:29">
       <c r="A394"/>
       <c r="B394"/>
       <c r="C394"/>
       <c r="D394"/>
       <c r="E394"/>
-      <c r="F394" s="49"/>
+      <c r="F394" s="48"/>
       <c r="H394"/>
       <c r="K394" s="18"/>
       <c r="L394" s="3"/>
@@ -12375,13 +12413,13 @@
       <c r="AB394"/>
       <c r="AC394"/>
     </row>
-    <row r="395" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:29">
       <c r="A395"/>
       <c r="B395"/>
       <c r="C395"/>
       <c r="D395"/>
       <c r="E395"/>
-      <c r="F395" s="49"/>
+      <c r="F395" s="48"/>
       <c r="H395"/>
       <c r="K395" s="18"/>
       <c r="L395" s="3"/>
@@ -12393,13 +12431,13 @@
       <c r="AB395"/>
       <c r="AC395"/>
     </row>
-    <row r="396" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:29">
       <c r="A396"/>
       <c r="B396"/>
       <c r="C396"/>
       <c r="D396"/>
       <c r="E396"/>
-      <c r="F396" s="49"/>
+      <c r="F396" s="48"/>
       <c r="H396"/>
       <c r="K396" s="18"/>
       <c r="L396" s="3"/>
@@ -12411,13 +12449,13 @@
       <c r="AB396"/>
       <c r="AC396"/>
     </row>
-    <row r="397" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:29">
       <c r="A397"/>
       <c r="B397"/>
       <c r="C397"/>
       <c r="D397"/>
       <c r="E397"/>
-      <c r="F397" s="49"/>
+      <c r="F397" s="48"/>
       <c r="H397"/>
       <c r="K397" s="18"/>
       <c r="L397" s="3"/>
@@ -12429,13 +12467,13 @@
       <c r="AB397"/>
       <c r="AC397"/>
     </row>
-    <row r="398" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:29">
       <c r="A398"/>
       <c r="B398"/>
       <c r="C398"/>
       <c r="D398"/>
       <c r="E398"/>
-      <c r="F398" s="49"/>
+      <c r="F398" s="48"/>
       <c r="H398"/>
       <c r="K398" s="18"/>
       <c r="L398" s="3"/>
@@ -12447,13 +12485,13 @@
       <c r="AB398"/>
       <c r="AC398"/>
     </row>
-    <row r="399" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:29">
       <c r="A399"/>
       <c r="B399"/>
       <c r="C399"/>
       <c r="D399"/>
       <c r="E399"/>
-      <c r="F399" s="49"/>
+      <c r="F399" s="48"/>
       <c r="H399"/>
       <c r="K399" s="18"/>
       <c r="L399" s="3"/>
@@ -12465,13 +12503,13 @@
       <c r="AB399"/>
       <c r="AC399"/>
     </row>
-    <row r="400" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:29">
       <c r="A400"/>
       <c r="B400"/>
       <c r="C400"/>
       <c r="D400"/>
       <c r="E400"/>
-      <c r="F400" s="49"/>
+      <c r="F400" s="48"/>
       <c r="H400"/>
       <c r="K400" s="18"/>
       <c r="L400" s="3"/>
@@ -12483,13 +12521,13 @@
       <c r="AB400"/>
       <c r="AC400"/>
     </row>
-    <row r="401" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:29">
       <c r="A401"/>
       <c r="B401"/>
       <c r="C401"/>
       <c r="D401"/>
       <c r="E401"/>
-      <c r="F401" s="49"/>
+      <c r="F401" s="48"/>
       <c r="H401"/>
       <c r="K401" s="18"/>
       <c r="L401" s="3"/>
@@ -12501,13 +12539,13 @@
       <c r="AB401"/>
       <c r="AC401"/>
     </row>
-    <row r="402" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:29">
       <c r="A402"/>
       <c r="B402"/>
       <c r="C402"/>
       <c r="D402"/>
       <c r="E402"/>
-      <c r="F402" s="49"/>
+      <c r="F402" s="48"/>
       <c r="H402"/>
       <c r="K402" s="18"/>
       <c r="L402" s="3"/>
@@ -12519,13 +12557,13 @@
       <c r="AB402"/>
       <c r="AC402"/>
     </row>
-    <row r="403" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:29">
       <c r="A403"/>
       <c r="B403"/>
       <c r="C403"/>
       <c r="D403"/>
       <c r="E403"/>
-      <c r="F403" s="49"/>
+      <c r="F403" s="48"/>
       <c r="H403"/>
       <c r="K403" s="18"/>
       <c r="L403" s="3"/>
@@ -12537,13 +12575,13 @@
       <c r="AB403"/>
       <c r="AC403"/>
     </row>
-    <row r="404" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:29">
       <c r="A404"/>
       <c r="B404"/>
       <c r="C404"/>
       <c r="D404"/>
       <c r="E404"/>
-      <c r="F404" s="49"/>
+      <c r="F404" s="48"/>
       <c r="H404"/>
       <c r="K404" s="18"/>
       <c r="L404" s="3"/>
@@ -12555,13 +12593,13 @@
       <c r="AB404"/>
       <c r="AC404"/>
     </row>
-    <row r="405" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:29">
       <c r="A405"/>
       <c r="B405"/>
       <c r="C405"/>
       <c r="D405"/>
       <c r="E405"/>
-      <c r="F405" s="49"/>
+      <c r="F405" s="48"/>
       <c r="H405"/>
       <c r="K405" s="18"/>
       <c r="L405" s="3"/>
@@ -12573,13 +12611,13 @@
       <c r="AB405"/>
       <c r="AC405"/>
     </row>
-    <row r="406" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:29">
       <c r="A406"/>
       <c r="B406"/>
       <c r="C406"/>
       <c r="D406"/>
       <c r="E406"/>
-      <c r="F406" s="49"/>
+      <c r="F406" s="48"/>
       <c r="H406"/>
       <c r="K406" s="18"/>
       <c r="L406" s="3"/>
@@ -12591,13 +12629,13 @@
       <c r="AB406"/>
       <c r="AC406"/>
     </row>
-    <row r="407" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:29">
       <c r="A407"/>
       <c r="B407"/>
       <c r="C407"/>
       <c r="D407"/>
       <c r="E407"/>
-      <c r="F407" s="49"/>
+      <c r="F407" s="48"/>
       <c r="H407"/>
       <c r="K407" s="18"/>
       <c r="L407" s="3"/>
@@ -12609,13 +12647,13 @@
       <c r="AB407"/>
       <c r="AC407"/>
     </row>
-    <row r="408" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:29">
       <c r="A408"/>
       <c r="B408"/>
       <c r="C408"/>
       <c r="D408"/>
       <c r="E408"/>
-      <c r="F408" s="49"/>
+      <c r="F408" s="48"/>
       <c r="H408"/>
       <c r="K408" s="18"/>
       <c r="L408" s="3"/>
@@ -12627,13 +12665,13 @@
       <c r="AB408"/>
       <c r="AC408"/>
     </row>
-    <row r="409" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:29">
       <c r="A409"/>
       <c r="B409"/>
       <c r="C409"/>
       <c r="D409"/>
       <c r="E409"/>
-      <c r="F409" s="49"/>
+      <c r="F409" s="48"/>
       <c r="H409"/>
       <c r="K409" s="18"/>
       <c r="L409" s="3"/>
@@ -12645,13 +12683,13 @@
       <c r="AB409"/>
       <c r="AC409"/>
     </row>
-    <row r="410" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:29">
       <c r="A410"/>
       <c r="B410"/>
       <c r="C410"/>
       <c r="D410"/>
       <c r="E410"/>
-      <c r="F410" s="49"/>
+      <c r="F410" s="48"/>
       <c r="H410"/>
       <c r="K410" s="18"/>
       <c r="L410" s="3"/>
@@ -12663,13 +12701,13 @@
       <c r="AB410"/>
       <c r="AC410"/>
     </row>
-    <row r="411" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:29">
       <c r="A411"/>
       <c r="B411"/>
       <c r="C411"/>
       <c r="D411"/>
       <c r="E411"/>
-      <c r="F411" s="49"/>
+      <c r="F411" s="48"/>
       <c r="H411"/>
       <c r="K411" s="18"/>
       <c r="L411" s="3"/>
@@ -12681,13 +12719,13 @@
       <c r="AB411"/>
       <c r="AC411"/>
     </row>
-    <row r="412" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:29">
       <c r="A412"/>
       <c r="B412"/>
       <c r="C412"/>
       <c r="D412"/>
       <c r="E412"/>
-      <c r="F412" s="49"/>
+      <c r="F412" s="48"/>
       <c r="H412"/>
       <c r="K412" s="18"/>
       <c r="L412" s="3"/>
@@ -12699,13 +12737,13 @@
       <c r="AB412"/>
       <c r="AC412"/>
     </row>
-    <row r="413" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:29">
       <c r="A413"/>
       <c r="B413"/>
       <c r="C413"/>
       <c r="D413"/>
       <c r="E413"/>
-      <c r="F413" s="49"/>
+      <c r="F413" s="48"/>
       <c r="H413"/>
       <c r="K413" s="18"/>
       <c r="L413" s="3"/>
@@ -12717,13 +12755,13 @@
       <c r="AB413"/>
       <c r="AC413"/>
     </row>
-    <row r="414" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:29">
       <c r="A414"/>
       <c r="B414"/>
       <c r="C414"/>
       <c r="D414"/>
       <c r="E414"/>
-      <c r="F414" s="49"/>
+      <c r="F414" s="48"/>
       <c r="H414"/>
       <c r="K414" s="18"/>
       <c r="L414" s="3"/>
@@ -12735,13 +12773,13 @@
       <c r="AB414"/>
       <c r="AC414"/>
     </row>
-    <row r="415" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:29">
       <c r="A415"/>
       <c r="B415"/>
       <c r="C415"/>
       <c r="D415"/>
       <c r="E415"/>
-      <c r="F415" s="49"/>
+      <c r="F415" s="48"/>
       <c r="H415"/>
       <c r="K415" s="18"/>
       <c r="L415" s="3"/>
@@ -12753,13 +12791,13 @@
       <c r="AB415"/>
       <c r="AC415"/>
     </row>
-    <row r="416" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:29">
       <c r="A416"/>
       <c r="B416"/>
       <c r="C416"/>
       <c r="D416"/>
       <c r="E416"/>
-      <c r="F416" s="49"/>
+      <c r="F416" s="48"/>
       <c r="H416"/>
       <c r="K416" s="18"/>
       <c r="L416" s="3"/>
@@ -12771,13 +12809,13 @@
       <c r="AB416"/>
       <c r="AC416"/>
     </row>
-    <row r="417" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:29">
       <c r="A417"/>
       <c r="B417"/>
       <c r="C417"/>
       <c r="D417"/>
       <c r="E417"/>
-      <c r="F417" s="49"/>
+      <c r="F417" s="48"/>
       <c r="H417"/>
       <c r="K417" s="18"/>
       <c r="L417" s="3"/>
@@ -12789,13 +12827,13 @@
       <c r="AB417"/>
       <c r="AC417"/>
     </row>
-    <row r="418" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:29">
       <c r="A418"/>
       <c r="B418"/>
       <c r="C418"/>
       <c r="D418"/>
       <c r="E418"/>
-      <c r="F418" s="49"/>
+      <c r="F418" s="48"/>
       <c r="H418"/>
       <c r="K418" s="18"/>
       <c r="L418" s="3"/>
@@ -12807,13 +12845,13 @@
       <c r="AB418"/>
       <c r="AC418"/>
     </row>
-    <row r="419" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:29">
       <c r="A419"/>
       <c r="B419"/>
       <c r="C419"/>
       <c r="D419"/>
       <c r="E419"/>
-      <c r="F419" s="49"/>
+      <c r="F419" s="48"/>
       <c r="H419"/>
       <c r="K419" s="18"/>
       <c r="L419" s="3"/>
@@ -12825,13 +12863,13 @@
       <c r="AB419"/>
       <c r="AC419"/>
     </row>
-    <row r="420" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:29">
       <c r="A420"/>
       <c r="B420"/>
       <c r="C420"/>
       <c r="D420"/>
       <c r="E420"/>
-      <c r="F420" s="49"/>
+      <c r="F420" s="48"/>
       <c r="H420"/>
       <c r="K420" s="18"/>
       <c r="L420" s="3"/>
@@ -12843,13 +12881,13 @@
       <c r="AB420"/>
       <c r="AC420"/>
     </row>
-    <row r="421" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:29">
       <c r="A421"/>
       <c r="B421"/>
       <c r="C421"/>
       <c r="D421"/>
       <c r="E421"/>
-      <c r="F421" s="49"/>
+      <c r="F421" s="48"/>
       <c r="H421"/>
       <c r="K421" s="18"/>
       <c r="L421" s="3"/>
@@ -12861,13 +12899,13 @@
       <c r="AB421"/>
       <c r="AC421"/>
     </row>
-    <row r="422" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:29">
       <c r="A422"/>
       <c r="B422"/>
       <c r="C422"/>
       <c r="D422"/>
       <c r="E422"/>
-      <c r="F422" s="49"/>
+      <c r="F422" s="48"/>
       <c r="H422"/>
       <c r="K422" s="18"/>
       <c r="L422" s="3"/>
@@ -12879,13 +12917,13 @@
       <c r="AB422"/>
       <c r="AC422"/>
     </row>
-    <row r="423" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:29">
       <c r="A423"/>
       <c r="B423"/>
       <c r="C423"/>
       <c r="D423"/>
       <c r="E423"/>
-      <c r="F423" s="49"/>
+      <c r="F423" s="48"/>
       <c r="H423"/>
       <c r="K423" s="18"/>
       <c r="L423" s="3"/>
@@ -12897,13 +12935,13 @@
       <c r="AB423"/>
       <c r="AC423"/>
     </row>
-    <row r="424" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:29">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
       <c r="D424"/>
       <c r="E424"/>
-      <c r="F424" s="49"/>
+      <c r="F424" s="48"/>
       <c r="H424"/>
       <c r="K424" s="18"/>
       <c r="L424" s="3"/>
@@ -12915,13 +12953,13 @@
       <c r="AB424"/>
       <c r="AC424"/>
     </row>
-    <row r="425" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:29">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
       <c r="D425"/>
       <c r="E425"/>
-      <c r="F425" s="49"/>
+      <c r="F425" s="48"/>
       <c r="H425"/>
       <c r="K425" s="18"/>
       <c r="L425" s="3"/>
@@ -12933,13 +12971,13 @@
       <c r="AB425"/>
       <c r="AC425"/>
     </row>
-    <row r="426" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:29">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
       <c r="D426"/>
       <c r="E426"/>
-      <c r="F426" s="49"/>
+      <c r="F426" s="48"/>
       <c r="H426"/>
       <c r="K426" s="18"/>
       <c r="L426" s="3"/>
@@ -12951,13 +12989,13 @@
       <c r="AB426"/>
       <c r="AC426"/>
     </row>
-    <row r="427" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:29">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
       <c r="D427"/>
       <c r="E427"/>
-      <c r="F427" s="49"/>
+      <c r="F427" s="48"/>
       <c r="H427"/>
       <c r="K427" s="18"/>
       <c r="L427" s="3"/>
@@ -12969,13 +13007,13 @@
       <c r="AB427"/>
       <c r="AC427"/>
     </row>
-    <row r="428" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:29">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
       <c r="D428"/>
       <c r="E428"/>
-      <c r="F428" s="49"/>
+      <c r="F428" s="48"/>
       <c r="H428"/>
       <c r="K428" s="18"/>
       <c r="L428" s="3"/>
@@ -12987,13 +13025,13 @@
       <c r="AB428"/>
       <c r="AC428"/>
     </row>
-    <row r="429" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:29">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
       <c r="D429"/>
       <c r="E429"/>
-      <c r="F429" s="49"/>
+      <c r="F429" s="48"/>
       <c r="H429"/>
       <c r="K429" s="18"/>
       <c r="L429" s="3"/>
@@ -13005,13 +13043,13 @@
       <c r="AB429"/>
       <c r="AC429"/>
     </row>
-    <row r="430" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:29">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
       <c r="D430"/>
       <c r="E430"/>
-      <c r="F430" s="49"/>
+      <c r="F430" s="48"/>
       <c r="H430"/>
       <c r="K430" s="18"/>
       <c r="L430" s="3"/>
@@ -13023,13 +13061,13 @@
       <c r="AB430"/>
       <c r="AC430"/>
     </row>
-    <row r="431" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:29">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
       <c r="D431"/>
       <c r="E431"/>
-      <c r="F431" s="49"/>
+      <c r="F431" s="48"/>
       <c r="H431"/>
       <c r="K431" s="18"/>
       <c r="L431" s="3"/>
@@ -13041,13 +13079,13 @@
       <c r="AB431"/>
       <c r="AC431"/>
     </row>
-    <row r="432" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:29">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
       <c r="D432"/>
       <c r="E432"/>
-      <c r="F432" s="49"/>
+      <c r="F432" s="48"/>
       <c r="H432"/>
       <c r="K432" s="18"/>
       <c r="L432" s="3"/>
@@ -13059,13 +13097,13 @@
       <c r="AB432"/>
       <c r="AC432"/>
     </row>
-    <row r="433" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:29">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
       <c r="D433"/>
       <c r="E433"/>
-      <c r="F433" s="49"/>
+      <c r="F433" s="48"/>
       <c r="H433"/>
       <c r="K433" s="18"/>
       <c r="L433" s="3"/>
@@ -13077,13 +13115,13 @@
       <c r="AB433"/>
       <c r="AC433"/>
     </row>
-    <row r="434" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:29">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
       <c r="D434"/>
       <c r="E434"/>
-      <c r="F434" s="49"/>
+      <c r="F434" s="48"/>
       <c r="H434"/>
       <c r="K434" s="18"/>
       <c r="L434" s="3"/>
@@ -13095,13 +13133,13 @@
       <c r="AB434"/>
       <c r="AC434"/>
     </row>
-    <row r="435" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:29">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
       <c r="D435"/>
       <c r="E435"/>
-      <c r="F435" s="49"/>
+      <c r="F435" s="48"/>
       <c r="H435"/>
       <c r="K435" s="18"/>
       <c r="L435" s="3"/>
@@ -13113,13 +13151,13 @@
       <c r="AB435"/>
       <c r="AC435"/>
     </row>
-    <row r="436" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:29">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
       <c r="D436"/>
       <c r="E436"/>
-      <c r="F436" s="49"/>
+      <c r="F436" s="48"/>
       <c r="H436"/>
       <c r="K436" s="18"/>
       <c r="L436" s="3"/>
@@ -13131,13 +13169,13 @@
       <c r="AB436"/>
       <c r="AC436"/>
     </row>
-    <row r="437" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:29">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
       <c r="D437"/>
       <c r="E437"/>
-      <c r="F437" s="49"/>
+      <c r="F437" s="48"/>
       <c r="H437"/>
       <c r="K437" s="18"/>
       <c r="L437" s="3"/>
@@ -13149,13 +13187,13 @@
       <c r="AB437"/>
       <c r="AC437"/>
     </row>
-    <row r="438" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:29">
       <c r="A438"/>
       <c r="B438"/>
       <c r="C438"/>
       <c r="D438"/>
       <c r="E438"/>
-      <c r="F438" s="49"/>
+      <c r="F438" s="48"/>
       <c r="H438"/>
       <c r="K438" s="18"/>
       <c r="L438" s="3"/>
@@ -13167,13 +13205,13 @@
       <c r="AB438"/>
       <c r="AC438"/>
     </row>
-    <row r="439" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:29">
       <c r="A439"/>
       <c r="B439"/>
       <c r="C439"/>
       <c r="D439"/>
       <c r="E439"/>
-      <c r="F439" s="49"/>
+      <c r="F439" s="48"/>
       <c r="H439"/>
       <c r="K439" s="18"/>
       <c r="L439" s="3"/>
@@ -13185,13 +13223,13 @@
       <c r="AB439"/>
       <c r="AC439"/>
     </row>
-    <row r="440" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:29">
       <c r="A440"/>
       <c r="B440"/>
       <c r="C440"/>
       <c r="D440"/>
       <c r="E440"/>
-      <c r="F440" s="49"/>
+      <c r="F440" s="48"/>
       <c r="H440"/>
       <c r="K440" s="18"/>
       <c r="L440" s="3"/>
@@ -13203,13 +13241,13 @@
       <c r="AB440"/>
       <c r="AC440"/>
     </row>
-    <row r="441" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:29">
       <c r="A441"/>
       <c r="B441"/>
       <c r="C441"/>
       <c r="D441"/>
       <c r="E441"/>
-      <c r="F441" s="49"/>
+      <c r="F441" s="48"/>
       <c r="H441"/>
       <c r="K441" s="18"/>
       <c r="L441" s="3"/>
@@ -13221,13 +13259,13 @@
       <c r="AB441"/>
       <c r="AC441"/>
     </row>
-    <row r="442" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:29">
       <c r="A442"/>
       <c r="B442"/>
       <c r="C442"/>
       <c r="D442"/>
       <c r="E442"/>
-      <c r="F442" s="49"/>
+      <c r="F442" s="48"/>
       <c r="H442"/>
       <c r="K442" s="18"/>
       <c r="L442" s="3"/>
@@ -13239,13 +13277,13 @@
       <c r="AB442"/>
       <c r="AC442"/>
     </row>
-    <row r="443" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:29">
       <c r="A443"/>
       <c r="B443"/>
       <c r="C443"/>
       <c r="D443"/>
       <c r="E443"/>
-      <c r="F443" s="49"/>
+      <c r="F443" s="48"/>
       <c r="H443"/>
       <c r="K443" s="18"/>
       <c r="L443" s="3"/>
@@ -13257,13 +13295,13 @@
       <c r="AB443"/>
       <c r="AC443"/>
     </row>
-    <row r="444" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:29">
       <c r="A444"/>
       <c r="B444"/>
       <c r="C444"/>
       <c r="D444"/>
       <c r="E444"/>
-      <c r="F444" s="49"/>
+      <c r="F444" s="48"/>
       <c r="H444"/>
       <c r="K444" s="18"/>
       <c r="L444" s="3"/>
@@ -13275,13 +13313,13 @@
       <c r="AB444"/>
       <c r="AC444"/>
     </row>
-    <row r="445" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:29">
       <c r="A445"/>
       <c r="B445"/>
       <c r="C445"/>
       <c r="D445"/>
       <c r="E445"/>
-      <c r="F445" s="49"/>
+      <c r="F445" s="48"/>
       <c r="H445"/>
       <c r="K445" s="18"/>
       <c r="L445" s="3"/>
@@ -13293,13 +13331,13 @@
       <c r="AB445"/>
       <c r="AC445"/>
     </row>
-    <row r="446" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:29">
       <c r="A446"/>
       <c r="B446"/>
       <c r="C446"/>
       <c r="D446"/>
       <c r="E446"/>
-      <c r="F446" s="49"/>
+      <c r="F446" s="48"/>
       <c r="H446"/>
       <c r="K446" s="18"/>
       <c r="L446" s="3"/>
@@ -13311,13 +13349,13 @@
       <c r="AB446"/>
       <c r="AC446"/>
     </row>
-    <row r="447" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:29">
       <c r="A447"/>
       <c r="B447"/>
       <c r="C447"/>
       <c r="D447"/>
       <c r="E447"/>
-      <c r="F447" s="49"/>
+      <c r="F447" s="48"/>
       <c r="H447"/>
       <c r="K447" s="18"/>
       <c r="L447" s="3"/>
@@ -13329,13 +13367,13 @@
       <c r="AB447"/>
       <c r="AC447"/>
     </row>
-    <row r="448" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:29">
       <c r="A448"/>
       <c r="B448"/>
       <c r="C448"/>
       <c r="D448"/>
       <c r="E448"/>
-      <c r="F448" s="49"/>
+      <c r="F448" s="48"/>
       <c r="H448"/>
       <c r="K448" s="18"/>
       <c r="L448" s="3"/>
@@ -13347,13 +13385,13 @@
       <c r="AB448"/>
       <c r="AC448"/>
     </row>
-    <row r="449" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:29">
       <c r="A449"/>
       <c r="B449"/>
       <c r="C449"/>
       <c r="D449"/>
       <c r="E449"/>
-      <c r="F449" s="49"/>
+      <c r="F449" s="48"/>
       <c r="H449"/>
       <c r="K449" s="18"/>
       <c r="L449" s="3"/>
@@ -13365,13 +13403,13 @@
       <c r="AB449"/>
       <c r="AC449"/>
     </row>
-    <row r="450" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:29">
       <c r="A450"/>
       <c r="B450"/>
       <c r="C450"/>
       <c r="D450"/>
       <c r="E450"/>
-      <c r="F450" s="49"/>
+      <c r="F450" s="48"/>
       <c r="H450"/>
       <c r="K450" s="18"/>
       <c r="L450" s="3"/>
@@ -13383,13 +13421,13 @@
       <c r="AB450"/>
       <c r="AC450"/>
     </row>
-    <row r="451" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:29">
       <c r="A451"/>
       <c r="B451"/>
       <c r="C451"/>
       <c r="D451"/>
       <c r="E451"/>
-      <c r="F451" s="49"/>
+      <c r="F451" s="48"/>
       <c r="H451"/>
       <c r="K451" s="18"/>
       <c r="L451" s="3"/>
@@ -13401,13 +13439,13 @@
       <c r="AB451"/>
       <c r="AC451"/>
     </row>
-    <row r="452" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:29">
       <c r="A452"/>
       <c r="B452"/>
       <c r="C452"/>
       <c r="D452"/>
       <c r="E452"/>
-      <c r="F452" s="49"/>
+      <c r="F452" s="48"/>
       <c r="H452"/>
       <c r="K452" s="18"/>
       <c r="L452" s="3"/>
@@ -13419,13 +13457,13 @@
       <c r="AB452"/>
       <c r="AC452"/>
     </row>
-    <row r="453" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:29">
       <c r="A453"/>
       <c r="B453"/>
       <c r="C453"/>
       <c r="D453"/>
       <c r="E453"/>
-      <c r="F453" s="49"/>
+      <c r="F453" s="48"/>
       <c r="H453"/>
       <c r="K453" s="18"/>
       <c r="L453" s="3"/>
@@ -13437,13 +13475,13 @@
       <c r="AB453"/>
       <c r="AC453"/>
     </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:29">
       <c r="A454"/>
       <c r="B454"/>
       <c r="C454"/>
       <c r="D454"/>
       <c r="E454"/>
-      <c r="F454" s="49"/>
+      <c r="F454" s="48"/>
       <c r="H454"/>
       <c r="K454" s="18"/>
       <c r="L454" s="3"/>
@@ -13455,13 +13493,13 @@
       <c r="AB454"/>
       <c r="AC454"/>
     </row>
-    <row r="455" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:29">
       <c r="A455"/>
       <c r="B455"/>
       <c r="C455"/>
       <c r="D455"/>
       <c r="E455"/>
-      <c r="F455" s="49"/>
+      <c r="F455" s="48"/>
       <c r="H455"/>
       <c r="K455" s="18"/>
       <c r="L455" s="3"/>
@@ -13473,13 +13511,13 @@
       <c r="AB455"/>
       <c r="AC455"/>
     </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:29">
       <c r="A456"/>
       <c r="B456"/>
       <c r="C456"/>
       <c r="D456"/>
       <c r="E456"/>
-      <c r="F456" s="49"/>
+      <c r="F456" s="48"/>
       <c r="H456"/>
       <c r="K456" s="18"/>
       <c r="L456" s="3"/>
@@ -13491,13 +13529,13 @@
       <c r="AB456"/>
       <c r="AC456"/>
     </row>
-    <row r="457" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:29">
       <c r="A457"/>
       <c r="B457"/>
       <c r="C457"/>
       <c r="D457"/>
       <c r="E457"/>
-      <c r="F457" s="49"/>
+      <c r="F457" s="48"/>
       <c r="H457"/>
       <c r="K457" s="18"/>
       <c r="L457" s="3"/>
@@ -13509,13 +13547,13 @@
       <c r="AB457"/>
       <c r="AC457"/>
     </row>
-    <row r="458" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:29">
       <c r="A458"/>
       <c r="B458"/>
       <c r="C458"/>
       <c r="D458"/>
       <c r="E458"/>
-      <c r="F458" s="49"/>
+      <c r="F458" s="48"/>
       <c r="H458"/>
       <c r="K458" s="18"/>
       <c r="L458" s="3"/>
@@ -13527,13 +13565,13 @@
       <c r="AB458"/>
       <c r="AC458"/>
     </row>
-    <row r="459" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:29">
       <c r="A459"/>
       <c r="B459"/>
       <c r="C459"/>
       <c r="D459"/>
       <c r="E459"/>
-      <c r="F459" s="49"/>
+      <c r="F459" s="48"/>
       <c r="H459"/>
       <c r="K459" s="18"/>
       <c r="L459" s="3"/>
@@ -13545,13 +13583,13 @@
       <c r="AB459"/>
       <c r="AC459"/>
     </row>
-    <row r="460" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:29">
       <c r="A460"/>
       <c r="B460"/>
       <c r="C460"/>
       <c r="D460"/>
       <c r="E460"/>
-      <c r="F460" s="49"/>
+      <c r="F460" s="48"/>
       <c r="H460"/>
       <c r="K460" s="18"/>
       <c r="L460" s="3"/>
@@ -13563,13 +13601,13 @@
       <c r="AB460"/>
       <c r="AC460"/>
     </row>
-    <row r="461" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:29">
       <c r="A461"/>
       <c r="B461"/>
       <c r="C461"/>
       <c r="D461"/>
       <c r="E461"/>
-      <c r="F461" s="49"/>
+      <c r="F461" s="48"/>
       <c r="H461"/>
       <c r="K461" s="18"/>
       <c r="L461" s="3"/>
@@ -13581,13 +13619,13 @@
       <c r="AB461"/>
       <c r="AC461"/>
     </row>
-    <row r="462" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:29">
       <c r="A462"/>
       <c r="B462"/>
       <c r="C462"/>
       <c r="D462"/>
       <c r="E462"/>
-      <c r="F462" s="49"/>
+      <c r="F462" s="48"/>
       <c r="H462"/>
       <c r="K462" s="18"/>
       <c r="L462" s="3"/>
@@ -13599,13 +13637,13 @@
       <c r="AB462"/>
       <c r="AC462"/>
     </row>
-    <row r="463" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:29">
       <c r="A463"/>
       <c r="B463"/>
       <c r="C463"/>
       <c r="D463"/>
       <c r="E463"/>
-      <c r="F463" s="49"/>
+      <c r="F463" s="48"/>
       <c r="H463"/>
       <c r="K463" s="18"/>
       <c r="L463" s="3"/>
@@ -13617,13 +13655,13 @@
       <c r="AB463"/>
       <c r="AC463"/>
     </row>
-    <row r="464" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:29">
       <c r="A464"/>
       <c r="B464"/>
       <c r="C464"/>
       <c r="D464"/>
       <c r="E464"/>
-      <c r="F464" s="49"/>
+      <c r="F464" s="48"/>
       <c r="H464"/>
       <c r="K464" s="18"/>
       <c r="L464" s="3"/>
@@ -13635,13 +13673,13 @@
       <c r="AB464"/>
       <c r="AC464"/>
     </row>
-    <row r="465" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:29">
       <c r="A465"/>
       <c r="B465"/>
       <c r="C465"/>
       <c r="D465"/>
       <c r="E465"/>
-      <c r="F465" s="49"/>
+      <c r="F465" s="48"/>
       <c r="H465"/>
       <c r="K465" s="18"/>
       <c r="L465" s="3"/>
@@ -13653,13 +13691,13 @@
       <c r="AB465"/>
       <c r="AC465"/>
     </row>
-    <row r="466" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:29">
       <c r="A466"/>
       <c r="B466"/>
       <c r="C466"/>
       <c r="D466"/>
       <c r="E466"/>
-      <c r="F466" s="49"/>
+      <c r="F466" s="48"/>
       <c r="H466"/>
       <c r="K466" s="18"/>
       <c r="L466" s="3"/>
@@ -13671,13 +13709,13 @@
       <c r="AB466"/>
       <c r="AC466"/>
     </row>
-    <row r="467" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:29">
       <c r="A467"/>
       <c r="B467"/>
       <c r="C467"/>
       <c r="D467"/>
       <c r="E467"/>
-      <c r="F467" s="49"/>
+      <c r="F467" s="48"/>
       <c r="H467"/>
       <c r="K467" s="18"/>
       <c r="L467" s="3"/>
@@ -13689,13 +13727,13 @@
       <c r="AB467"/>
       <c r="AC467"/>
     </row>
-    <row r="468" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:29">
       <c r="A468"/>
       <c r="B468"/>
       <c r="C468"/>
       <c r="D468"/>
       <c r="E468"/>
-      <c r="F468" s="49"/>
+      <c r="F468" s="48"/>
       <c r="H468"/>
       <c r="K468" s="18"/>
       <c r="L468" s="3"/>
@@ -13707,13 +13745,13 @@
       <c r="AB468"/>
       <c r="AC468"/>
     </row>
-    <row r="469" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:29">
       <c r="A469"/>
       <c r="B469"/>
       <c r="C469"/>
       <c r="D469"/>
       <c r="E469"/>
-      <c r="F469" s="49"/>
+      <c r="F469" s="48"/>
       <c r="H469"/>
       <c r="K469" s="18"/>
       <c r="L469" s="3"/>
@@ -13725,13 +13763,13 @@
       <c r="AB469"/>
       <c r="AC469"/>
     </row>
-    <row r="470" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:29">
       <c r="A470"/>
       <c r="B470"/>
       <c r="C470"/>
       <c r="D470"/>
       <c r="E470"/>
-      <c r="F470" s="49"/>
+      <c r="F470" s="48"/>
       <c r="H470"/>
       <c r="K470" s="18"/>
       <c r="L470" s="3"/>
@@ -13743,13 +13781,13 @@
       <c r="AB470"/>
       <c r="AC470"/>
     </row>
-    <row r="471" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:29">
       <c r="A471"/>
       <c r="B471"/>
       <c r="C471"/>
       <c r="D471"/>
       <c r="E471"/>
-      <c r="F471" s="49"/>
+      <c r="F471" s="48"/>
       <c r="H471"/>
       <c r="K471" s="18"/>
       <c r="L471" s="3"/>
@@ -13761,13 +13799,13 @@
       <c r="AB471"/>
       <c r="AC471"/>
     </row>
-    <row r="472" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:29">
       <c r="A472"/>
       <c r="B472"/>
       <c r="C472"/>
       <c r="D472"/>
       <c r="E472"/>
-      <c r="F472" s="49"/>
+      <c r="F472" s="48"/>
       <c r="H472"/>
       <c r="K472" s="18"/>
       <c r="L472" s="3"/>
@@ -13779,13 +13817,13 @@
       <c r="AB472"/>
       <c r="AC472"/>
     </row>
-    <row r="473" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:29">
       <c r="A473"/>
       <c r="B473"/>
       <c r="C473"/>
       <c r="D473"/>
       <c r="E473"/>
-      <c r="F473" s="49"/>
+      <c r="F473" s="48"/>
       <c r="H473"/>
       <c r="K473" s="18"/>
       <c r="L473" s="3"/>
@@ -13797,13 +13835,13 @@
       <c r="AB473"/>
       <c r="AC473"/>
     </row>
-    <row r="474" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:29">
       <c r="A474"/>
       <c r="B474"/>
       <c r="C474"/>
       <c r="D474"/>
       <c r="E474"/>
-      <c r="F474" s="49"/>
+      <c r="F474" s="48"/>
       <c r="H474"/>
       <c r="K474" s="18"/>
       <c r="L474" s="3"/>
@@ -13815,13 +13853,13 @@
       <c r="AB474"/>
       <c r="AC474"/>
     </row>
-    <row r="475" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:29">
       <c r="A475"/>
       <c r="B475"/>
       <c r="C475"/>
       <c r="D475"/>
       <c r="E475"/>
-      <c r="F475" s="49"/>
+      <c r="F475" s="48"/>
       <c r="H475"/>
       <c r="K475" s="18"/>
       <c r="L475" s="3"/>
@@ -13833,13 +13871,13 @@
       <c r="AB475"/>
       <c r="AC475"/>
     </row>
-    <row r="476" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:29">
       <c r="A476"/>
       <c r="B476"/>
       <c r="C476"/>
       <c r="D476"/>
       <c r="E476"/>
-      <c r="F476" s="49"/>
+      <c r="F476" s="48"/>
       <c r="H476"/>
       <c r="K476" s="18"/>
       <c r="L476" s="3"/>
@@ -13851,13 +13889,13 @@
       <c r="AB476"/>
       <c r="AC476"/>
     </row>
-    <row r="477" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:29">
       <c r="A477"/>
       <c r="B477"/>
       <c r="C477"/>
       <c r="D477"/>
       <c r="E477"/>
-      <c r="F477" s="49"/>
+      <c r="F477" s="48"/>
       <c r="H477"/>
       <c r="K477" s="18"/>
       <c r="L477" s="3"/>
@@ -13869,13 +13907,13 @@
       <c r="AB477"/>
       <c r="AC477"/>
     </row>
-    <row r="478" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:29">
       <c r="A478"/>
       <c r="B478"/>
       <c r="C478"/>
       <c r="D478"/>
       <c r="E478"/>
-      <c r="F478" s="49"/>
+      <c r="F478" s="48"/>
       <c r="H478"/>
       <c r="K478" s="18"/>
       <c r="L478" s="3"/>
@@ -13887,13 +13925,13 @@
       <c r="AB478"/>
       <c r="AC478"/>
     </row>
-    <row r="479" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:29">
       <c r="A479"/>
       <c r="B479"/>
       <c r="C479"/>
       <c r="D479"/>
       <c r="E479"/>
-      <c r="F479" s="49"/>
+      <c r="F479" s="48"/>
       <c r="H479"/>
       <c r="K479" s="18"/>
       <c r="L479" s="3"/>
@@ -13905,13 +13943,13 @@
       <c r="AB479"/>
       <c r="AC479"/>
     </row>
-    <row r="480" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:29">
       <c r="A480"/>
       <c r="B480"/>
       <c r="C480"/>
       <c r="D480"/>
       <c r="E480"/>
-      <c r="F480" s="49"/>
+      <c r="F480" s="48"/>
       <c r="H480"/>
       <c r="K480" s="18"/>
       <c r="L480" s="3"/>
@@ -13923,13 +13961,13 @@
       <c r="AB480"/>
       <c r="AC480"/>
     </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:29">
       <c r="A481"/>
       <c r="B481"/>
       <c r="C481"/>
       <c r="D481"/>
       <c r="E481"/>
-      <c r="F481" s="49"/>
+      <c r="F481" s="48"/>
       <c r="H481"/>
       <c r="K481" s="18"/>
       <c r="L481" s="3"/>
@@ -13941,13 +13979,13 @@
       <c r="AB481"/>
       <c r="AC481"/>
     </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:29">
       <c r="A482"/>
       <c r="B482"/>
       <c r="C482"/>
       <c r="D482"/>
       <c r="E482"/>
-      <c r="F482" s="49"/>
+      <c r="F482" s="48"/>
       <c r="H482"/>
       <c r="K482" s="18"/>
       <c r="L482" s="3"/>
@@ -13959,13 +13997,13 @@
       <c r="AB482"/>
       <c r="AC482"/>
     </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:29">
       <c r="A483"/>
       <c r="B483"/>
       <c r="C483"/>
       <c r="D483"/>
       <c r="E483"/>
-      <c r="F483" s="49"/>
+      <c r="F483" s="48"/>
       <c r="H483"/>
       <c r="K483" s="18"/>
       <c r="L483" s="3"/>
@@ -13977,13 +14015,13 @@
       <c r="AB483"/>
       <c r="AC483"/>
     </row>
-    <row r="484" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:29">
       <c r="A484"/>
       <c r="B484"/>
       <c r="C484"/>
       <c r="D484"/>
       <c r="E484"/>
-      <c r="F484" s="49"/>
+      <c r="F484" s="48"/>
       <c r="H484"/>
       <c r="K484" s="18"/>
       <c r="L484" s="3"/>
@@ -13995,13 +14033,13 @@
       <c r="AB484"/>
       <c r="AC484"/>
     </row>
-    <row r="485" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:29">
       <c r="A485"/>
       <c r="B485"/>
       <c r="C485"/>
       <c r="D485"/>
       <c r="E485"/>
-      <c r="F485" s="49"/>
+      <c r="F485" s="48"/>
       <c r="H485"/>
       <c r="K485" s="18"/>
       <c r="L485" s="3"/>
@@ -14013,13 +14051,13 @@
       <c r="AB485" s="21"/>
       <c r="AC485"/>
     </row>
-    <row r="486" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:29">
       <c r="A486"/>
       <c r="B486"/>
       <c r="C486"/>
       <c r="D486"/>
       <c r="E486"/>
-      <c r="F486" s="49"/>
+      <c r="F486" s="48"/>
       <c r="H486"/>
       <c r="K486" s="18"/>
       <c r="L486" s="3"/>
@@ -14031,13 +14069,13 @@
       <c r="AB486" s="21"/>
       <c r="AC486"/>
     </row>
-    <row r="487" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:29">
       <c r="A487"/>
       <c r="B487"/>
       <c r="C487"/>
       <c r="D487"/>
       <c r="E487"/>
-      <c r="F487" s="49"/>
+      <c r="F487" s="48"/>
       <c r="H487"/>
       <c r="K487" s="18"/>
       <c r="L487" s="3"/>
@@ -14049,13 +14087,13 @@
       <c r="AB487" s="21"/>
       <c r="AC487"/>
     </row>
-    <row r="488" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:29">
       <c r="A488"/>
       <c r="B488"/>
       <c r="C488"/>
       <c r="D488"/>
       <c r="E488"/>
-      <c r="F488" s="49"/>
+      <c r="F488" s="48"/>
       <c r="H488"/>
       <c r="K488" s="18"/>
       <c r="L488" s="3"/>
@@ -14067,13 +14105,13 @@
       <c r="AB488" s="21"/>
       <c r="AC488"/>
     </row>
-    <row r="489" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:29">
       <c r="A489"/>
       <c r="B489"/>
       <c r="C489"/>
       <c r="D489"/>
       <c r="E489"/>
-      <c r="F489" s="49"/>
+      <c r="F489" s="48"/>
       <c r="H489"/>
       <c r="K489" s="18"/>
       <c r="L489" s="3"/>
@@ -14085,13 +14123,13 @@
       <c r="AB489" s="21"/>
       <c r="AC489"/>
     </row>
-    <row r="490" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:29">
       <c r="A490"/>
       <c r="B490"/>
       <c r="C490"/>
       <c r="D490"/>
       <c r="E490"/>
-      <c r="F490" s="49"/>
+      <c r="F490" s="48"/>
       <c r="H490"/>
       <c r="K490" s="18"/>
       <c r="L490" s="3"/>
@@ -14103,13 +14141,13 @@
       <c r="AB490" s="21"/>
       <c r="AC490"/>
     </row>
-    <row r="491" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:29">
       <c r="A491"/>
       <c r="B491"/>
       <c r="C491"/>
       <c r="D491"/>
       <c r="E491"/>
-      <c r="F491" s="49"/>
+      <c r="F491" s="48"/>
       <c r="H491"/>
       <c r="K491" s="18"/>
       <c r="L491" s="3"/>
@@ -14121,13 +14159,13 @@
       <c r="AB491" s="21"/>
       <c r="AC491"/>
     </row>
-    <row r="492" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:29">
       <c r="A492"/>
       <c r="B492"/>
       <c r="C492"/>
       <c r="D492"/>
       <c r="E492"/>
-      <c r="F492" s="49"/>
+      <c r="F492" s="48"/>
       <c r="H492"/>
       <c r="K492" s="18"/>
       <c r="L492" s="3"/>
@@ -14139,13 +14177,13 @@
       <c r="AB492" s="21"/>
       <c r="AC492"/>
     </row>
-    <row r="493" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:29">
       <c r="A493"/>
       <c r="B493"/>
       <c r="C493"/>
       <c r="D493"/>
       <c r="E493"/>
-      <c r="F493" s="49"/>
+      <c r="F493" s="48"/>
       <c r="H493"/>
       <c r="K493" s="18"/>
       <c r="L493" s="3"/>
@@ -14157,13 +14195,13 @@
       <c r="AB493" s="21"/>
       <c r="AC493"/>
     </row>
-    <row r="494" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:29">
       <c r="A494"/>
       <c r="B494"/>
       <c r="C494"/>
       <c r="D494"/>
       <c r="E494"/>
-      <c r="F494" s="49"/>
+      <c r="F494" s="48"/>
       <c r="H494"/>
       <c r="K494" s="18"/>
       <c r="L494" s="3"/>
@@ -14175,13 +14213,13 @@
       <c r="AB494" s="21"/>
       <c r="AC494"/>
     </row>
-    <row r="495" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:29">
       <c r="A495"/>
       <c r="B495"/>
       <c r="C495"/>
       <c r="D495"/>
       <c r="E495"/>
-      <c r="F495" s="49"/>
+      <c r="F495" s="48"/>
       <c r="H495"/>
       <c r="K495" s="18"/>
       <c r="L495" s="3"/>
@@ -14193,13 +14231,13 @@
       <c r="AB495" s="21"/>
       <c r="AC495"/>
     </row>
-    <row r="496" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:29">
       <c r="A496"/>
       <c r="B496"/>
       <c r="C496"/>
       <c r="D496"/>
       <c r="E496"/>
-      <c r="F496" s="49"/>
+      <c r="F496" s="48"/>
       <c r="H496"/>
       <c r="K496" s="18"/>
       <c r="L496" s="3"/>
@@ -14211,13 +14249,13 @@
       <c r="AB496"/>
       <c r="AC496"/>
     </row>
-    <row r="497" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:29">
       <c r="A497"/>
       <c r="B497"/>
       <c r="C497"/>
       <c r="D497"/>
       <c r="E497"/>
-      <c r="F497" s="49"/>
+      <c r="F497" s="48"/>
       <c r="H497"/>
       <c r="K497" s="18"/>
       <c r="L497" s="3"/>
@@ -14229,13 +14267,13 @@
       <c r="AB497"/>
       <c r="AC497"/>
     </row>
-    <row r="498" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:29">
       <c r="A498"/>
       <c r="B498"/>
       <c r="C498"/>
       <c r="D498"/>
       <c r="E498"/>
-      <c r="F498" s="49"/>
+      <c r="F498" s="48"/>
       <c r="H498"/>
       <c r="K498" s="18"/>
       <c r="L498" s="3"/>
@@ -14247,13 +14285,13 @@
       <c r="AB498"/>
       <c r="AC498"/>
     </row>
-    <row r="499" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:29">
       <c r="A499"/>
       <c r="B499"/>
       <c r="C499"/>
       <c r="D499"/>
       <c r="E499"/>
-      <c r="F499" s="49"/>
+      <c r="F499" s="48"/>
       <c r="H499"/>
       <c r="K499" s="18"/>
       <c r="L499" s="3"/>
@@ -14265,13 +14303,13 @@
       <c r="AB499"/>
       <c r="AC499"/>
     </row>
-    <row r="500" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:29">
       <c r="A500"/>
       <c r="B500"/>
       <c r="C500"/>
       <c r="D500"/>
       <c r="E500"/>
-      <c r="F500" s="49"/>
+      <c r="F500" s="48"/>
       <c r="H500"/>
       <c r="K500" s="18"/>
       <c r="L500" s="3"/>
@@ -14283,13 +14321,13 @@
       <c r="AB500"/>
       <c r="AC500"/>
     </row>
-    <row r="501" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:29">
       <c r="A501"/>
       <c r="B501"/>
       <c r="C501"/>
       <c r="D501"/>
       <c r="E501"/>
-      <c r="F501" s="49"/>
+      <c r="F501" s="48"/>
       <c r="H501"/>
       <c r="K501" s="18"/>
       <c r="L501" s="3"/>
@@ -14301,13 +14339,13 @@
       <c r="AB501"/>
       <c r="AC501"/>
     </row>
-    <row r="502" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:29">
       <c r="A502"/>
       <c r="B502"/>
       <c r="C502"/>
       <c r="D502"/>
       <c r="E502"/>
-      <c r="F502" s="49"/>
+      <c r="F502" s="48"/>
       <c r="H502"/>
       <c r="K502" s="18"/>
       <c r="L502" s="3"/>
@@ -14319,13 +14357,13 @@
       <c r="AB502"/>
       <c r="AC502"/>
     </row>
-    <row r="503" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:29">
       <c r="A503"/>
       <c r="B503"/>
       <c r="C503"/>
       <c r="D503"/>
       <c r="E503"/>
-      <c r="F503" s="49"/>
+      <c r="F503" s="48"/>
       <c r="H503"/>
       <c r="K503" s="18"/>
       <c r="L503" s="3"/>
@@ -14337,13 +14375,13 @@
       <c r="AB503"/>
       <c r="AC503"/>
     </row>
-    <row r="504" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:29">
       <c r="A504"/>
       <c r="B504"/>
       <c r="C504"/>
       <c r="D504"/>
       <c r="E504"/>
-      <c r="F504" s="49"/>
+      <c r="F504" s="48"/>
       <c r="H504"/>
       <c r="K504" s="18"/>
       <c r="L504" s="3"/>
@@ -14355,13 +14393,13 @@
       <c r="AB504"/>
       <c r="AC504"/>
     </row>
-    <row r="505" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:29">
       <c r="A505"/>
       <c r="B505"/>
       <c r="C505"/>
       <c r="D505"/>
       <c r="E505"/>
-      <c r="F505" s="49"/>
+      <c r="F505" s="48"/>
       <c r="H505"/>
       <c r="K505" s="18"/>
       <c r="L505" s="3"/>
@@ -14373,13 +14411,13 @@
       <c r="AB505"/>
       <c r="AC505"/>
     </row>
-    <row r="506" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:29">
       <c r="A506"/>
       <c r="B506"/>
       <c r="C506"/>
       <c r="D506"/>
       <c r="E506"/>
-      <c r="F506" s="49"/>
+      <c r="F506" s="48"/>
       <c r="H506"/>
       <c r="K506" s="18"/>
       <c r="L506" s="3"/>
@@ -14391,13 +14429,13 @@
       <c r="AB506"/>
       <c r="AC506"/>
     </row>
-    <row r="507" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:29">
       <c r="A507"/>
       <c r="B507"/>
       <c r="C507"/>
       <c r="D507"/>
       <c r="E507"/>
-      <c r="F507" s="49"/>
+      <c r="F507" s="48"/>
       <c r="H507"/>
       <c r="K507" s="18"/>
       <c r="L507" s="3"/>
@@ -14409,13 +14447,13 @@
       <c r="AB507"/>
       <c r="AC507"/>
     </row>
-    <row r="508" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:29">
       <c r="A508"/>
       <c r="B508"/>
       <c r="C508"/>
       <c r="D508"/>
       <c r="E508"/>
-      <c r="F508" s="49"/>
+      <c r="F508" s="48"/>
       <c r="H508"/>
       <c r="K508" s="18"/>
       <c r="L508" s="3"/>
@@ -14427,13 +14465,13 @@
       <c r="AB508"/>
       <c r="AC508"/>
     </row>
-    <row r="509" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:29">
       <c r="A509"/>
       <c r="B509"/>
       <c r="C509"/>
       <c r="D509"/>
       <c r="E509"/>
-      <c r="F509" s="49"/>
+      <c r="F509" s="48"/>
       <c r="H509"/>
       <c r="K509" s="18"/>
       <c r="L509" s="3"/>
@@ -14445,13 +14483,13 @@
       <c r="AB509"/>
       <c r="AC509"/>
     </row>
-    <row r="510" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:29">
       <c r="A510"/>
       <c r="B510"/>
       <c r="C510"/>
       <c r="D510"/>
       <c r="E510"/>
-      <c r="F510" s="49"/>
+      <c r="F510" s="48"/>
       <c r="H510"/>
       <c r="K510" s="18"/>
       <c r="L510" s="3"/>
@@ -14463,13 +14501,13 @@
       <c r="AB510"/>
       <c r="AC510"/>
     </row>
-    <row r="511" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:29">
       <c r="A511"/>
       <c r="B511"/>
       <c r="C511"/>
       <c r="D511"/>
       <c r="E511"/>
-      <c r="F511" s="49"/>
+      <c r="F511" s="48"/>
       <c r="H511"/>
       <c r="K511" s="18"/>
       <c r="L511" s="3"/>
@@ -14481,13 +14519,13 @@
       <c r="AB511"/>
       <c r="AC511"/>
     </row>
-    <row r="512" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:29">
       <c r="A512"/>
       <c r="B512"/>
       <c r="C512"/>
       <c r="D512"/>
       <c r="E512"/>
-      <c r="F512" s="49"/>
+      <c r="F512" s="48"/>
       <c r="H512"/>
       <c r="K512" s="18"/>
       <c r="L512" s="3"/>
@@ -14499,13 +14537,13 @@
       <c r="AB512"/>
       <c r="AC512"/>
     </row>
-    <row r="513" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:29">
       <c r="A513"/>
       <c r="B513"/>
       <c r="C513"/>
       <c r="D513"/>
       <c r="E513"/>
-      <c r="F513" s="49"/>
+      <c r="F513" s="48"/>
       <c r="H513"/>
       <c r="K513" s="18"/>
       <c r="L513" s="3"/>
@@ -14517,13 +14555,13 @@
       <c r="AB513"/>
       <c r="AC513"/>
     </row>
-    <row r="514" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:29">
       <c r="A514"/>
       <c r="B514"/>
       <c r="C514"/>
       <c r="D514"/>
       <c r="E514"/>
-      <c r="F514" s="49"/>
+      <c r="F514" s="48"/>
       <c r="H514"/>
       <c r="K514" s="18"/>
       <c r="L514" s="3"/>
@@ -14535,13 +14573,13 @@
       <c r="AB514" s="21"/>
       <c r="AC514"/>
     </row>
-    <row r="515" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:29">
       <c r="A515"/>
       <c r="B515"/>
       <c r="C515"/>
       <c r="D515"/>
       <c r="E515"/>
-      <c r="F515" s="49"/>
+      <c r="F515" s="48"/>
       <c r="H515"/>
       <c r="K515" s="18"/>
       <c r="L515" s="3"/>
@@ -14553,13 +14591,13 @@
       <c r="AB515" s="21"/>
       <c r="AC515"/>
     </row>
-    <row r="516" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:29">
       <c r="A516"/>
       <c r="B516"/>
       <c r="C516"/>
       <c r="D516"/>
       <c r="E516"/>
-      <c r="F516" s="49"/>
+      <c r="F516" s="48"/>
       <c r="H516"/>
       <c r="K516" s="18"/>
       <c r="L516" s="3"/>
@@ -14571,13 +14609,13 @@
       <c r="AB516" s="21"/>
       <c r="AC516"/>
     </row>
-    <row r="517" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:29">
       <c r="A517"/>
       <c r="B517"/>
       <c r="C517"/>
       <c r="D517"/>
       <c r="E517"/>
-      <c r="F517" s="49"/>
+      <c r="F517" s="48"/>
       <c r="H517"/>
       <c r="K517" s="18"/>
       <c r="L517" s="3"/>
@@ -14589,13 +14627,13 @@
       <c r="AB517" s="21"/>
       <c r="AC517"/>
     </row>
-    <row r="518" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:29">
       <c r="A518"/>
       <c r="B518"/>
       <c r="C518"/>
       <c r="D518"/>
       <c r="E518"/>
-      <c r="F518" s="49"/>
+      <c r="F518" s="48"/>
       <c r="H518"/>
       <c r="K518" s="18"/>
       <c r="L518" s="3"/>
@@ -14607,13 +14645,13 @@
       <c r="AB518" s="21"/>
       <c r="AC518"/>
     </row>
-    <row r="519" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:29">
       <c r="A519"/>
       <c r="B519"/>
       <c r="C519"/>
       <c r="D519"/>
       <c r="E519"/>
-      <c r="F519" s="49"/>
+      <c r="F519" s="48"/>
       <c r="H519"/>
       <c r="K519" s="18"/>
       <c r="L519" s="3"/>
@@ -14625,13 +14663,13 @@
       <c r="AB519" s="21"/>
       <c r="AC519"/>
     </row>
-    <row r="520" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:29">
       <c r="A520"/>
       <c r="B520"/>
       <c r="C520"/>
       <c r="D520"/>
       <c r="E520"/>
-      <c r="F520" s="49"/>
+      <c r="F520" s="48"/>
       <c r="H520"/>
       <c r="K520" s="18"/>
       <c r="L520" s="3"/>
@@ -14643,13 +14681,13 @@
       <c r="AB520" s="21"/>
       <c r="AC520"/>
     </row>
-    <row r="521" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:29">
       <c r="A521"/>
       <c r="B521"/>
       <c r="C521"/>
       <c r="D521"/>
       <c r="E521"/>
-      <c r="F521" s="49"/>
+      <c r="F521" s="48"/>
       <c r="H521"/>
       <c r="K521" s="18"/>
       <c r="L521" s="3"/>
@@ -14661,13 +14699,13 @@
       <c r="AB521"/>
       <c r="AC521"/>
     </row>
-    <row r="522" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:29">
       <c r="A522"/>
       <c r="B522"/>
       <c r="C522"/>
       <c r="D522"/>
       <c r="E522"/>
-      <c r="F522" s="49"/>
+      <c r="F522" s="48"/>
       <c r="H522"/>
       <c r="K522" s="18"/>
       <c r="L522" s="3"/>
@@ -14679,13 +14717,13 @@
       <c r="AB522"/>
       <c r="AC522"/>
     </row>
-    <row r="523" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:29">
       <c r="A523"/>
       <c r="B523"/>
       <c r="C523"/>
       <c r="D523"/>
       <c r="E523"/>
-      <c r="F523" s="49"/>
+      <c r="F523" s="48"/>
       <c r="H523"/>
       <c r="K523" s="18"/>
       <c r="L523" s="3"/>
@@ -14697,13 +14735,13 @@
       <c r="AB523"/>
       <c r="AC523"/>
     </row>
-    <row r="524" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:29">
       <c r="A524"/>
       <c r="B524"/>
       <c r="C524"/>
       <c r="D524"/>
       <c r="E524"/>
-      <c r="F524" s="49"/>
+      <c r="F524" s="48"/>
       <c r="H524"/>
       <c r="K524" s="18"/>
       <c r="L524" s="3"/>
@@ -14715,13 +14753,13 @@
       <c r="AB524"/>
       <c r="AC524"/>
     </row>
-    <row r="525" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:29">
       <c r="A525"/>
       <c r="B525"/>
       <c r="C525"/>
       <c r="D525"/>
       <c r="E525"/>
-      <c r="F525" s="49"/>
+      <c r="F525" s="48"/>
       <c r="H525"/>
       <c r="K525" s="18"/>
       <c r="L525" s="3"/>
@@ -14733,13 +14771,13 @@
       <c r="AB525"/>
       <c r="AC525"/>
     </row>
-    <row r="526" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:29">
       <c r="A526"/>
       <c r="B526"/>
       <c r="C526"/>
       <c r="D526"/>
       <c r="E526"/>
-      <c r="F526" s="49"/>
+      <c r="F526" s="48"/>
       <c r="H526"/>
       <c r="K526" s="18"/>
       <c r="L526" s="3"/>
@@ -14751,13 +14789,13 @@
       <c r="AB526"/>
       <c r="AC526"/>
     </row>
-    <row r="527" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:29">
       <c r="A527"/>
       <c r="B527"/>
       <c r="C527"/>
       <c r="D527"/>
       <c r="E527"/>
-      <c r="F527" s="49"/>
+      <c r="F527" s="48"/>
       <c r="H527"/>
       <c r="K527" s="18"/>
       <c r="L527" s="3"/>
@@ -14769,13 +14807,13 @@
       <c r="AB527"/>
       <c r="AC527"/>
     </row>
-    <row r="528" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:29">
       <c r="A528"/>
       <c r="B528"/>
       <c r="C528"/>
       <c r="D528"/>
       <c r="E528"/>
-      <c r="F528" s="49"/>
+      <c r="F528" s="48"/>
       <c r="H528"/>
       <c r="K528" s="18"/>
       <c r="L528" s="3"/>
@@ -14787,13 +14825,13 @@
       <c r="AB528"/>
       <c r="AC528"/>
     </row>
-    <row r="529" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:29">
       <c r="A529"/>
       <c r="B529"/>
       <c r="C529"/>
       <c r="D529"/>
       <c r="E529"/>
-      <c r="F529" s="49"/>
+      <c r="F529" s="48"/>
       <c r="H529"/>
       <c r="K529" s="18"/>
       <c r="L529" s="3"/>
@@ -14805,13 +14843,13 @@
       <c r="AB529"/>
       <c r="AC529"/>
     </row>
-    <row r="530" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:29">
       <c r="A530"/>
       <c r="B530"/>
       <c r="C530"/>
       <c r="D530"/>
       <c r="E530"/>
-      <c r="F530" s="49"/>
+      <c r="F530" s="48"/>
       <c r="H530"/>
       <c r="K530" s="18"/>
       <c r="L530" s="3"/>
@@ -14823,13 +14861,13 @@
       <c r="AB530"/>
       <c r="AC530"/>
     </row>
-    <row r="531" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:29">
       <c r="A531"/>
       <c r="B531"/>
       <c r="C531"/>
       <c r="D531"/>
       <c r="E531"/>
-      <c r="F531" s="49"/>
+      <c r="F531" s="48"/>
       <c r="H531"/>
       <c r="K531" s="18"/>
       <c r="L531" s="3"/>
@@ -14841,13 +14879,13 @@
       <c r="AB531"/>
       <c r="AC531"/>
     </row>
-    <row r="532" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:29">
       <c r="A532"/>
       <c r="B532"/>
       <c r="C532"/>
       <c r="D532"/>
       <c r="E532"/>
-      <c r="F532" s="49"/>
+      <c r="F532" s="48"/>
       <c r="H532"/>
       <c r="K532" s="18"/>
       <c r="L532" s="3"/>
@@ -14859,13 +14897,13 @@
       <c r="AB532"/>
       <c r="AC532"/>
     </row>
-    <row r="533" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:29">
       <c r="A533"/>
       <c r="B533"/>
       <c r="C533"/>
       <c r="D533"/>
       <c r="E533"/>
-      <c r="F533" s="49"/>
+      <c r="F533" s="48"/>
       <c r="H533"/>
       <c r="K533" s="18"/>
       <c r="L533" s="3"/>
@@ -14877,13 +14915,13 @@
       <c r="AB533"/>
       <c r="AC533"/>
     </row>
-    <row r="534" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:29">
       <c r="A534"/>
       <c r="B534"/>
       <c r="C534"/>
       <c r="D534"/>
       <c r="E534"/>
-      <c r="F534" s="49"/>
+      <c r="F534" s="48"/>
       <c r="H534"/>
       <c r="K534" s="18"/>
       <c r="L534" s="3"/>
@@ -14895,13 +14933,13 @@
       <c r="AB534"/>
       <c r="AC534"/>
     </row>
-    <row r="535" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:29">
       <c r="A535"/>
       <c r="B535"/>
       <c r="C535"/>
       <c r="D535"/>
       <c r="E535"/>
-      <c r="F535" s="49"/>
+      <c r="F535" s="48"/>
       <c r="H535"/>
       <c r="K535" s="18"/>
       <c r="L535" s="3"/>
@@ -14913,13 +14951,13 @@
       <c r="AB535"/>
       <c r="AC535"/>
     </row>
-    <row r="536" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:29">
       <c r="A536"/>
       <c r="B536"/>
       <c r="C536"/>
       <c r="D536"/>
       <c r="E536"/>
-      <c r="F536" s="49"/>
+      <c r="F536" s="48"/>
       <c r="H536"/>
       <c r="K536" s="18"/>
       <c r="L536" s="3"/>
@@ -14931,13 +14969,13 @@
       <c r="AB536"/>
       <c r="AC536"/>
     </row>
-    <row r="537" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:29">
       <c r="A537"/>
       <c r="B537"/>
       <c r="C537"/>
       <c r="D537"/>
       <c r="E537"/>
-      <c r="F537" s="49"/>
+      <c r="F537" s="48"/>
       <c r="H537"/>
       <c r="K537" s="18"/>
       <c r="L537" s="3"/>
@@ -14949,13 +14987,13 @@
       <c r="AB537"/>
       <c r="AC537"/>
     </row>
-    <row r="538" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:29">
       <c r="A538"/>
       <c r="B538"/>
       <c r="C538"/>
       <c r="D538"/>
       <c r="E538"/>
-      <c r="F538" s="49"/>
+      <c r="F538" s="48"/>
       <c r="H538"/>
       <c r="K538" s="18"/>
       <c r="L538" s="3"/>
@@ -14967,13 +15005,13 @@
       <c r="AB538"/>
       <c r="AC538"/>
     </row>
-    <row r="539" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:29">
       <c r="A539"/>
       <c r="B539"/>
       <c r="C539"/>
       <c r="D539"/>
       <c r="E539"/>
-      <c r="F539" s="49"/>
+      <c r="F539" s="48"/>
       <c r="H539"/>
       <c r="K539" s="18"/>
       <c r="L539" s="3"/>
@@ -14985,13 +15023,13 @@
       <c r="AB539"/>
       <c r="AC539"/>
     </row>
-    <row r="540" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:29">
       <c r="A540"/>
       <c r="B540"/>
       <c r="C540"/>
       <c r="D540"/>
       <c r="E540"/>
-      <c r="F540" s="49"/>
+      <c r="F540" s="48"/>
       <c r="H540"/>
       <c r="W540"/>
       <c r="X540"/>
@@ -15001,13 +15039,13 @@
       <c r="AB540"/>
       <c r="AC540"/>
     </row>
-    <row r="541" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:29">
       <c r="A541"/>
       <c r="B541"/>
       <c r="C541"/>
       <c r="D541"/>
       <c r="E541"/>
-      <c r="F541" s="49"/>
+      <c r="F541" s="48"/>
       <c r="H541"/>
       <c r="W541"/>
       <c r="X541"/>
@@ -15017,13 +15055,13 @@
       <c r="AB541"/>
       <c r="AC541"/>
     </row>
-    <row r="542" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:29">
       <c r="A542"/>
       <c r="B542"/>
       <c r="C542"/>
       <c r="D542"/>
       <c r="E542"/>
-      <c r="F542" s="49"/>
+      <c r="F542" s="48"/>
       <c r="H542"/>
       <c r="W542"/>
       <c r="X542"/>
@@ -15033,13 +15071,13 @@
       <c r="AB542"/>
       <c r="AC542"/>
     </row>
-    <row r="543" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:29">
       <c r="A543"/>
       <c r="B543"/>
       <c r="C543"/>
       <c r="D543"/>
       <c r="E543"/>
-      <c r="F543" s="49"/>
+      <c r="F543" s="48"/>
       <c r="H543"/>
       <c r="W543"/>
       <c r="X543"/>
@@ -15049,13 +15087,13 @@
       <c r="AB543"/>
       <c r="AC543"/>
     </row>
-    <row r="544" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:29">
       <c r="A544"/>
       <c r="B544"/>
       <c r="C544"/>
       <c r="D544"/>
       <c r="E544"/>
-      <c r="F544" s="49"/>
+      <c r="F544" s="48"/>
       <c r="H544"/>
       <c r="W544"/>
       <c r="X544"/>
@@ -15065,13 +15103,13 @@
       <c r="AB544"/>
       <c r="AC544"/>
     </row>
-    <row r="545" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:29">
       <c r="A545"/>
       <c r="B545"/>
       <c r="C545"/>
       <c r="D545"/>
       <c r="E545"/>
-      <c r="F545" s="49"/>
+      <c r="F545" s="48"/>
       <c r="H545"/>
       <c r="W545"/>
       <c r="X545"/>
@@ -15081,13 +15119,13 @@
       <c r="AB545"/>
       <c r="AC545"/>
     </row>
-    <row r="546" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:29">
       <c r="A546"/>
       <c r="B546"/>
       <c r="C546"/>
       <c r="D546"/>
       <c r="E546"/>
-      <c r="F546" s="49"/>
+      <c r="F546" s="48"/>
       <c r="H546"/>
       <c r="W546"/>
       <c r="X546"/>
@@ -15097,13 +15135,13 @@
       <c r="AB546"/>
       <c r="AC546"/>
     </row>
-    <row r="547" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:29">
       <c r="A547"/>
       <c r="B547"/>
       <c r="C547"/>
       <c r="D547"/>
       <c r="E547"/>
-      <c r="F547" s="49"/>
+      <c r="F547" s="48"/>
       <c r="H547"/>
       <c r="W547"/>
       <c r="X547"/>
@@ -15113,13 +15151,13 @@
       <c r="AB547"/>
       <c r="AC547"/>
     </row>
-    <row r="548" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:29">
       <c r="A548"/>
       <c r="B548"/>
       <c r="C548"/>
       <c r="D548"/>
       <c r="E548"/>
-      <c r="F548" s="49"/>
+      <c r="F548" s="48"/>
       <c r="H548"/>
       <c r="W548"/>
       <c r="X548"/>
@@ -15129,13 +15167,13 @@
       <c r="AB548"/>
       <c r="AC548"/>
     </row>
-    <row r="549" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:29">
       <c r="A549"/>
       <c r="B549"/>
       <c r="C549"/>
       <c r="D549"/>
       <c r="E549"/>
-      <c r="F549" s="49"/>
+      <c r="F549" s="48"/>
       <c r="H549"/>
       <c r="W549"/>
       <c r="X549"/>
@@ -15211,17 +15249,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -15244,7 +15282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -15267,7 +15305,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -15287,7 +15325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -15301,7 +15339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -15309,7 +15347,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="G6" t="s">
         <v>86</v>
       </c>
